--- a/InputData/trans/AADTbVT/Avg Annual Dist Traveled by Veh Type.xlsx
+++ b/InputData/trans/AADTbVT/Avg Annual Dist Traveled by Veh Type.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Table 4.1" sheetId="2" r:id="rId2"/>
     <sheet name="Table 5.1" sheetId="3" r:id="rId3"/>
     <sheet name="Table 5.2" sheetId="4" r:id="rId4"/>
-    <sheet name="NHTSA Table 1" sheetId="5" r:id="rId5"/>
+    <sheet name="NHTSA Motorbikes" sheetId="7" r:id="rId5"/>
     <sheet name="AADTbVT" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
   <si>
     <t>Source:</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Oak Ridge National Lab</t>
   </si>
   <si>
-    <t>Transportation Energy Data Book Ed. 33</t>
-  </si>
-  <si>
     <t>http://cta.ornl.gov/data/index.shtml</t>
   </si>
   <si>
@@ -37,9 +34,6 @@
   </si>
   <si>
     <t>Table 4.1</t>
-  </si>
-  <si>
-    <t>Summary Statistics for Cars, 1970–2012</t>
   </si>
   <si>
     <t>Year</t>
@@ -135,9 +129,6 @@
     <t>Table 5.1</t>
   </si>
   <si>
-    <t>Summary Statistics for Class 3-8 Single-Unit Trucks, 1970–2012</t>
-  </si>
-  <si>
     <t>Registrations (thousands)</t>
   </si>
   <si>
@@ -171,16 +162,7 @@
     </r>
   </si>
   <si>
-    <t>Car registrations, along with vehicle travel and fuel use, all declined from 2008 to 2012.  The data in this table from 1985-on DO NOT include minivans, pickups, or sport utility vehicles. Much of the data for 2009-on were estimated; the FHWA no longer publishes travel and fuel data for cars.</t>
-  </si>
-  <si>
     <t>Average annual percentage change</t>
-  </si>
-  <si>
-    <t>1970-2012</t>
-  </si>
-  <si>
-    <t>2002-2012</t>
   </si>
   <si>
     <r>
@@ -208,20 +190,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">     a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>This number differs from R.L. Polk’s estimates of “number of cars in use.”  See Table 3.3.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">     b</t>
     </r>
     <r>
@@ -264,36 +232,6 @@
   </si>
   <si>
     <t>Class 3-8 single-unit trucks include trucks over 10,000 lbs. gross vehicle weight with the cab/engine and cargo space together as one unit.  Most of these trucks would be used for business or for individuals with heavy hauling or towing needs.  Very heavy single-units, such as concrete mixers and dump trucks, are also in this category.  The data series was recently changed by the FHWA back to 2007.</t>
-  </si>
-  <si>
-    <t>1970–2012</t>
-  </si>
-  <si>
-    <t>2002–2012</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">U. S. Department of Transportation, Federal Highway Administration, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Highway Statistics 2012</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, Washington, DC, 2014, Table VM-1 and annual.  (Additional resources:  www.fhwa.dot.gov)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -327,9 +265,6 @@
     <t>Table 5.2</t>
   </si>
   <si>
-    <t>Summary Statistics for Class 7-8 Combination Trucks, 1970–2012</t>
-  </si>
-  <si>
     <r>
       <t>Vehicle travel</t>
     </r>
@@ -370,33 +305,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">U. S. Department of Transportation, Federal Highway Administration, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Highway Statistics 2012</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, Washington, </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">     DC, 2014, Table VM-1 and annual.  (Additional resources:  www.fhwa.dot.gov)</t>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">    </t>
     </r>
     <r>
@@ -443,21 +351,9 @@
     <t>National Highway Traffic Safety Administration</t>
   </si>
   <si>
-    <t>Traffic Safety Facts</t>
-  </si>
-  <si>
-    <t>http://www-nrd.nhtsa.dot.gov/Pubs/812035.pdf</t>
-  </si>
-  <si>
-    <t>Table 1</t>
-  </si>
-  <si>
     <t>Registered Vehicles</t>
   </si>
   <si>
-    <t>Vehicle Miles Traveled (millions)</t>
-  </si>
-  <si>
     <t>Motorcycles</t>
   </si>
   <si>
@@ -507,6 +403,110 @@
   </si>
   <si>
     <t>Vehicle types for which there are no data in this variable (or in one of the other essential variables</t>
+  </si>
+  <si>
+    <t>Vehicle Miles of Travel (Millions)</t>
+  </si>
+  <si>
+    <t>Quick Facts 2014</t>
+  </si>
+  <si>
+    <t>http://www-nrd.nhtsa.dot.gov/Pubs/812234.pdf</t>
+  </si>
+  <si>
+    <t>Page 1, "Exposure Data"</t>
+  </si>
+  <si>
+    <t>The data in this table from 1985–on DO NOT include minivans, pickups, or sport utility vehicles. Much of the data for 2009-on were estimated; the FHWA no longer publishes travel and fuel data for cars. A methodology change for the number of cars registered affected the series in 2012.</t>
+  </si>
+  <si>
+    <t>Summary Statistics for Cars, 1970–2013</t>
+  </si>
+  <si>
+    <t>1970-2013</t>
+  </si>
+  <si>
+    <t>2003-2013</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>This number differs from HIS Automotive's estimates of “number of cars in use.”  See Table 3.4.</t>
+    </r>
+  </si>
+  <si>
+    <t>Transportation Energy Data Book Ed. 34</t>
+  </si>
+  <si>
+    <t>Summary Statistics for Class 3-8 Single-Unit Trucks, 1970–2013</t>
+  </si>
+  <si>
+    <t>1970–2013</t>
+  </si>
+  <si>
+    <t>2003–2013</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">U. S. Department of Transportation, Federal Highway Administration, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Highway Statistics 2013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, Washington, DC, 2015, Table VM-1 and annual.  (Additional resources:  www.fhwa.dot.gov)</t>
+    </r>
+  </si>
+  <si>
+    <t>Summary Statistics for Class 7-8 Combination Trucks, 1970–2013</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">U. S. Department of Transportation, Federal Highway Administration, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Highway Statistics 2013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, Washington, </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">     DC, 2015, Table VM-1 and annual.  (Additional resources:  www.fhwa.dot.gov)</t>
   </si>
 </sst>
 </file>
@@ -735,7 +735,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -743,18 +743,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -852,18 +840,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -959,6 +953,54 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="304800" y="10363200"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12192">
+          <a:solidFill>
+            <a:srgbClr val="020000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Line 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="304800" y="10525125"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1285,15 +1327,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="54" t="s">
-        <v>50</v>
+      <c r="B3" s="50" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1303,104 +1345,103 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="54" t="s">
-        <v>51</v>
+      <c r="B10" s="50" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="61"/>
+      <c r="B16" s="55"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="60"/>
+        <v>52</v>
+      </c>
+      <c r="B17" s="54"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="59"/>
+        <v>56</v>
+      </c>
+      <c r="B18" s="53"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="59"/>
+        <v>57</v>
+      </c>
+      <c r="B19" s="53"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="59"/>
+        <v>53</v>
+      </c>
+      <c r="B20" s="53"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G69"/>
+  <dimension ref="B1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1922,1105 +1963,1125 @@
   <sheetData>
     <row r="1" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="68"/>
+      <c r="B2" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="71"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
+      <c r="B6" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
+      <c r="B7" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
     </row>
     <row r="8" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="E9" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="F9" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="G9" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="6" t="s">
+    </row>
+    <row r="10" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="75"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="F10" s="57" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="77"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="7" t="s">
+      <c r="G10" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="9">
+      <c r="B11" s="5">
         <v>1970</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="6">
         <v>89244</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="7">
         <v>916.7</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="8">
         <f t="shared" ref="E11:E16" si="0">(D11*1000000)/C11</f>
         <v>10271.839003182287</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="6">
         <v>67820</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="9">
         <v>13.5</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="14">
+      <c r="B12" s="10">
         <v>1971</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="11">
         <v>92718</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="12">
         <v>966.33</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="8">
         <f t="shared" si="0"/>
         <v>10422.248107163658</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="11">
         <v>71346</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="13">
         <v>13.5</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="14">
+      <c r="B13" s="10">
         <v>1972</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="11">
         <v>97082</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="12">
         <v>1021.365</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="8">
         <f t="shared" si="0"/>
         <v>10520.642343585834</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="11">
         <v>75937</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="13">
         <v>13.5</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="14">
+      <c r="B14" s="10">
         <v>1973</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="11">
         <v>101985</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="12">
         <v>1045.981</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="8">
         <f t="shared" si="0"/>
         <v>10256.223954503113</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="11">
         <v>78233</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="13">
         <v>13.4</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="14">
+      <c r="B15" s="10">
         <v>1974</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="11">
         <v>104856</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="12">
         <v>1007.251</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="8">
         <f t="shared" si="0"/>
         <v>9606.0406652933543</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="11">
         <v>74229</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="13">
         <v>13.6</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="18">
+      <c r="B16" s="14">
         <v>1975</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="15">
         <v>106706</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="16">
         <v>1033.95</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="17">
         <f t="shared" si="0"/>
         <v>9689.7081701122715</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="15">
         <v>74140</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="18">
         <v>13.9</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="14">
+      <c r="B17" s="10">
         <v>1976</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="15">
         <v>110189</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="16">
         <v>1078.2</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="17">
         <v>9785.0057628256909</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="15">
         <v>78297</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="18">
         <v>13.770642553354536</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="18">
+      <c r="B18" s="14">
         <v>1977</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="15">
         <v>112288</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="16">
         <v>1109.2</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="17">
         <v>9878.1704189227694</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="15">
         <v>79060</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="18">
         <v>14.029850746268657</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="14">
+      <c r="B19" s="10">
         <v>1978</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="15">
         <v>116573</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="16">
         <v>1146.5</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="17">
         <v>9835.0389884450087</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="15">
         <v>80652</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="18">
         <v>14.215394534543471</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="18">
+      <c r="B20" s="14">
         <v>1979</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="15">
         <v>118429</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="16">
         <v>1113.5999999999999</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="17">
         <v>9403.1022806913843</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="15">
         <v>76588</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="18">
         <v>14.540136836057867</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="18">
+      <c r="B21" s="14">
         <v>1980</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="15">
         <v>121601</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="16">
         <v>1111.5999999999999</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="6">
         <v>9141</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="15">
         <v>69981</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="18">
         <v>15.9</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="9">
+      <c r="B22" s="5">
         <v>1981</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="6">
         <v>123098</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="7">
         <v>1133.3</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="6">
         <v>9207</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="6">
         <v>69112</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="9">
         <v>16.399999999999999</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="9">
+      <c r="B23" s="5">
         <v>1982</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="6">
         <v>123702</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="7">
         <v>1161.7</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="6">
         <v>9391</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="6">
         <v>69116</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="9">
         <v>16.8</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="9">
+      <c r="B24" s="5">
         <v>1983</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="6">
         <v>126444</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="7">
         <v>1195.0999999999999</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="6">
         <v>9451</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="6">
         <v>70322</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="9">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="9">
+      <c r="B25" s="5">
         <v>1984</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="6">
         <v>128158</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="7">
         <v>1227</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="6">
         <v>9574</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="6">
         <v>70663</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="9">
         <v>17.399999999999999</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="10">
+      <c r="B26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="6">
         <v>127885</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="7">
         <v>1246.8</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="6">
         <v>9749</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="6">
         <v>71518</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="9">
         <v>17.399999999999999</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="9">
+      <c r="B27" s="5">
         <v>1986</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="6">
         <v>130004</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="7">
         <v>1270.2</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="6">
         <v>9770</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="6">
         <v>73174</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="9">
         <v>17.399999999999999</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="9">
+      <c r="B28" s="5">
         <v>1987</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="6">
         <v>131482</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="7">
         <v>1316</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="6">
         <v>10009</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="6">
         <v>73308</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="9">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="9">
+      <c r="B29" s="5">
         <v>1988</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="6">
         <v>133836</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="7">
         <v>1370.3</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="6">
         <v>10238</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="6">
         <v>73345</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="9">
         <v>18.7</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="9">
+      <c r="B30" s="5">
         <v>1989</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="6">
         <v>134559</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="7">
         <v>1401.2</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="6">
         <v>10413</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="6">
         <v>73913</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="9">
+      <c r="B31" s="5">
         <v>1990</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="6">
         <v>133700</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="7">
         <v>1408.3</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="6">
         <v>10533</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="6">
         <v>69568</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="9">
         <v>20.2</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="9">
+      <c r="B32" s="5">
         <v>1991</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="6">
         <v>128300</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="7">
         <v>1358.2</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="6">
         <v>10586</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="6">
         <v>64318</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="9">
         <v>21.1</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="9">
+      <c r="B33" s="5">
         <v>1992</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="6">
         <v>126581</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="7">
         <v>1371.6</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="6">
         <v>10836</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="6">
         <v>65436</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="9">
         <v>21</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="9">
+      <c r="B34" s="5">
         <v>1993</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="6">
         <v>127327</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="7">
         <v>1374.7</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="6">
         <v>10797</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="6">
         <v>67047</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="9">
         <v>20.5</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="9">
+      <c r="B35" s="5">
         <v>1994</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="6">
         <v>127883</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="7">
         <v>1406.1</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="6">
         <v>10995</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="6">
         <v>67874</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="9">
         <v>20.7</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="9">
+      <c r="B36" s="5">
         <v>1995</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="6">
         <v>128387</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="7">
         <v>1438.3</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="6">
         <v>11203</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="6">
         <v>68072</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="9">
         <v>21.1</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="9">
+      <c r="B37" s="5">
         <v>1996</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="6">
         <v>129728</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="7">
         <v>1469.9</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="6">
         <v>11330</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="6">
         <v>69221</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="9">
         <v>21.2</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="9">
+      <c r="B38" s="5">
         <v>1997</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="6">
         <v>129749</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="7">
         <v>1502.6</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="6">
         <v>11580</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="6">
         <v>69892</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="9">
         <v>21.5</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="9">
+      <c r="B39" s="5">
         <v>1998</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="6">
         <v>131839</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="7">
         <v>1549.6</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="6">
         <v>11754</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="6">
         <v>71695</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="9">
         <v>21.6</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="9">
+      <c r="B40" s="5">
         <v>1999</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="6">
         <v>132432</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="16">
         <v>1569.1</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="6">
         <v>11848</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="6">
         <v>73283</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="9">
         <v>21.4</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="9">
+      <c r="B41" s="5">
         <v>2000</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="6">
         <v>133621</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="7">
         <v>1600.3</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="6">
         <v>11976</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="6">
         <v>73065</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="9">
         <v>21.9</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="9">
+      <c r="B42" s="5">
         <v>2001</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="6">
         <v>137633</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="7">
         <v>1628.3</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="6">
         <v>11831</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="6">
         <v>73559</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="9">
         <v>22.1</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="9">
+      <c r="B43" s="5">
         <v>2002</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="6">
         <v>135921</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="7">
         <v>1658.5</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="6">
         <v>12202</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="6">
         <v>75471</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="9">
         <v>22</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="9">
+      <c r="B44" s="5">
         <v>2003</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="6">
         <v>135670</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="7">
         <v>1672.1</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="6">
         <v>12325</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="6">
         <v>74590</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="9">
         <v>22.4</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="9">
+      <c r="B45" s="5">
         <v>2004</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="6">
         <v>136431</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="7">
         <v>1699.9</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="6">
         <v>12460</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="6">
         <v>75402</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G45" s="9">
         <v>22.5</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="9">
+      <c r="B46" s="5">
         <v>2005</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="6">
         <v>136568</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="7">
         <v>1708.4</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="6">
         <v>12510</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="6">
         <v>77418</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="9">
         <v>22.1</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="9">
+      <c r="B47" s="5">
         <v>2006</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="6">
         <v>135400</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="7">
         <v>1690.5</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="6">
         <v>12485</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="6">
         <v>75009</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G47" s="9">
         <v>22.5</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="18">
+      <c r="B48" s="14">
         <v>2007</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="15">
         <v>135933</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="16">
         <v>1672.5</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="15">
         <v>12304</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="15">
         <v>74377</v>
       </c>
-      <c r="G48" s="22">
+      <c r="G48" s="18">
         <v>22.5</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B49" s="23">
+      <c r="B49" s="19">
         <v>2008</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="20">
         <v>137080</v>
       </c>
-      <c r="D49" s="25">
+      <c r="D49" s="21">
         <v>1615.9</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="20">
         <v>11788</v>
       </c>
-      <c r="F49" s="24">
+      <c r="F49" s="20">
         <v>71497</v>
       </c>
-      <c r="G49" s="26" t="s">
-        <v>17</v>
+      <c r="G49" s="22" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="9">
+      <c r="B50" s="5">
         <v>2009</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="15">
         <v>134880</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="16">
         <v>1566.8</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="15">
         <v>11616</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="15">
         <v>66587</v>
       </c>
-      <c r="G50" s="22">
+      <c r="G50" s="18">
         <v>23.5</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="9">
+      <c r="B51" s="5">
         <v>2010</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="15">
         <v>130892</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="16">
         <v>1496.4</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E51" s="15">
         <v>11432</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F51" s="15">
         <v>62245</v>
       </c>
-      <c r="G51" s="22">
+      <c r="G51" s="18">
         <v>24</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="9">
+      <c r="B52" s="5">
         <v>2011</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="6">
         <v>125657</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="7">
         <v>1457.8</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="6">
         <v>11601</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="6">
         <v>59646</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G52" s="9">
         <v>24.4</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="9">
+      <c r="B53" s="5">
         <v>2012</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="6">
         <v>111290</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="7">
         <v>1438.8</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="6">
         <v>12928</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="6">
         <v>57899</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G53" s="9">
         <v>24.9</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="62" t="s">
+      <c r="B54" s="5">
+        <v>2013</v>
+      </c>
+      <c r="C54" s="6">
+        <v>113676</v>
+      </c>
+      <c r="D54" s="7">
+        <v>1446</v>
+      </c>
+      <c r="E54" s="6">
+        <v>12720</v>
+      </c>
+      <c r="F54" s="6">
+        <v>57290</v>
+      </c>
+      <c r="G54" s="9">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B55" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B56" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="31">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D56" s="31">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E56" s="31">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F56" s="31">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="G56" s="31">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="33">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="D57" s="33">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="E57" s="33">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F57" s="33">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="G57" s="33">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B59" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B61" s="61"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="61"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B62" s="61"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
+    </row>
+    <row r="63" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+    </row>
+    <row r="65" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+    </row>
+    <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B66" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+    </row>
+    <row r="67" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
+    </row>
+    <row r="68" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+    </row>
+    <row r="69" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="62"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="62"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B55" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="35">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D55" s="35">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="E55" s="35">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F55" s="35">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="G55" s="35">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C56" s="37">
-        <v>-0.02</v>
-      </c>
-      <c r="D56" s="37">
-        <v>-1.4E-2</v>
-      </c>
-      <c r="E56" s="37">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F56" s="37">
-        <v>-2.5999999999999999E-2</v>
-      </c>
-      <c r="G56" s="37">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B58" s="38" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="63"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="63"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B60" s="63"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="63"/>
-      <c r="F60" s="63"/>
-      <c r="G60" s="63"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B61" s="63"/>
-      <c r="C61" s="63"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="63"/>
-    </row>
-    <row r="62" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-    </row>
-    <row r="64" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40"/>
-    </row>
-    <row r="65" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B65" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-    </row>
-    <row r="66" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="C66" s="65"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="65"/>
-    </row>
-    <row r="67" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="65"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="65"/>
-    </row>
-    <row r="68" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-    </row>
-    <row r="69" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B69" s="40"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="40"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+    </row>
+    <row r="70" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B59:G61"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B66:G67"/>
     <mergeCell ref="B2:G4"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B60:G62"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:G68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3028,7 +3089,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G67"/>
+  <dimension ref="B1:G68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3038,8 +3099,8 @@
     <col min="2" max="2" width="10.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="4" customWidth="1"/>
     <col min="4" max="5" width="14" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="256" width="8.85546875" style="4"/>
     <col min="257" max="257" width="2" style="4" customWidth="1"/>
     <col min="258" max="258" width="10.85546875" style="4" customWidth="1"/>
@@ -3486,1085 +3547,1105 @@
   <sheetData>
     <row r="1" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="68"/>
+      <c r="B2" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="71"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="71"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="69"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="71"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="69"/>
     </row>
     <row r="6" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="72"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
+      <c r="B9" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
+      <c r="B10" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:7" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="75"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="14">
+        <v>1970</v>
+      </c>
+      <c r="C14" s="26">
+        <v>3681</v>
+      </c>
+      <c r="D14" s="26">
+        <v>27081</v>
+      </c>
+      <c r="E14" s="26">
+        <v>7356.9682151589241</v>
+      </c>
+      <c r="F14" s="26">
+        <v>3968</v>
+      </c>
+      <c r="G14" s="27">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="5">
+        <v>1971</v>
+      </c>
+      <c r="C15" s="28">
+        <v>3770</v>
+      </c>
+      <c r="D15" s="28">
+        <v>28985</v>
+      </c>
+      <c r="E15" s="28">
+        <v>7688.3289124668436</v>
+      </c>
+      <c r="F15" s="28">
+        <v>4217</v>
+      </c>
+      <c r="G15" s="29">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="5">
+        <v>1972</v>
+      </c>
+      <c r="C16" s="28">
+        <v>3918</v>
+      </c>
+      <c r="D16" s="28">
+        <v>31414</v>
+      </c>
+      <c r="E16" s="28">
+        <v>8017.8662582950483</v>
+      </c>
+      <c r="F16" s="28">
+        <v>4844</v>
+      </c>
+      <c r="G16" s="29">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="5">
+        <v>1973</v>
+      </c>
+      <c r="C17" s="28">
+        <v>4131</v>
+      </c>
+      <c r="D17" s="28">
+        <v>33661</v>
+      </c>
+      <c r="E17" s="28">
+        <v>8148.3902202856452</v>
+      </c>
+      <c r="F17" s="28">
+        <v>5294</v>
+      </c>
+      <c r="G17" s="29">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="5">
+        <v>1974</v>
+      </c>
+      <c r="C18" s="28">
+        <v>4211</v>
+      </c>
+      <c r="D18" s="28">
+        <v>33441</v>
+      </c>
+      <c r="E18" s="28">
+        <v>7941.3440987888862</v>
+      </c>
+      <c r="F18" s="28">
+        <v>5261</v>
+      </c>
+      <c r="G18" s="29">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="14">
+        <v>1975</v>
+      </c>
+      <c r="C19" s="26">
+        <v>4232</v>
+      </c>
+      <c r="D19" s="26">
+        <v>34606</v>
+      </c>
+      <c r="E19" s="26">
+        <v>8177</v>
+      </c>
+      <c r="F19" s="26">
+        <v>5420</v>
+      </c>
+      <c r="G19" s="27">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="14">
+        <v>1976</v>
+      </c>
+      <c r="C20" s="26">
+        <v>4350</v>
+      </c>
+      <c r="D20" s="26">
+        <v>36390</v>
+      </c>
+      <c r="E20" s="26">
+        <v>8366</v>
+      </c>
+      <c r="F20" s="26">
+        <v>5706</v>
+      </c>
+      <c r="G20" s="27">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="5">
+        <v>1977</v>
+      </c>
+      <c r="C21" s="28">
+        <v>4450</v>
+      </c>
+      <c r="D21" s="28">
+        <v>39339</v>
+      </c>
+      <c r="E21" s="28">
+        <v>8840</v>
+      </c>
+      <c r="F21" s="28">
+        <v>6268</v>
+      </c>
+      <c r="G21" s="29">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="5">
+        <v>1978</v>
+      </c>
+      <c r="C22" s="28">
+        <v>4518</v>
+      </c>
+      <c r="D22" s="28">
+        <v>42747</v>
+      </c>
+      <c r="E22" s="28">
+        <v>9461</v>
+      </c>
+      <c r="F22" s="28">
+        <v>6955</v>
+      </c>
+      <c r="G22" s="29">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="5">
+        <v>1979</v>
+      </c>
+      <c r="C23" s="28">
+        <v>4505</v>
+      </c>
+      <c r="D23" s="28">
+        <v>42012</v>
+      </c>
+      <c r="E23" s="28">
+        <v>9326</v>
+      </c>
+      <c r="F23" s="28">
+        <v>7050</v>
+      </c>
+      <c r="G23" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="5">
+        <v>1980</v>
+      </c>
+      <c r="C24" s="28">
+        <v>4374</v>
+      </c>
+      <c r="D24" s="28">
+        <v>39813</v>
+      </c>
+      <c r="E24" s="28">
+        <v>9102</v>
+      </c>
+      <c r="F24" s="28">
+        <v>6923</v>
+      </c>
+      <c r="G24" s="29">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="5">
+        <v>1981</v>
+      </c>
+      <c r="C25" s="28">
+        <v>4455</v>
+      </c>
+      <c r="D25" s="28">
+        <v>39568</v>
+      </c>
+      <c r="E25" s="28">
+        <v>8882</v>
+      </c>
+      <c r="F25" s="28">
+        <v>6867</v>
+      </c>
+      <c r="G25" s="29">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="5">
+        <v>1982</v>
+      </c>
+      <c r="C26" s="28">
+        <v>4325</v>
+      </c>
+      <c r="D26" s="28">
+        <v>40658</v>
+      </c>
+      <c r="E26" s="28">
+        <v>9401</v>
+      </c>
+      <c r="F26" s="28">
+        <v>6803</v>
+      </c>
+      <c r="G26" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="5">
+        <v>1983</v>
+      </c>
+      <c r="C27" s="28">
+        <v>4204</v>
+      </c>
+      <c r="D27" s="28">
+        <v>42546</v>
+      </c>
+      <c r="E27" s="28">
+        <v>10120</v>
+      </c>
+      <c r="F27" s="28">
+        <v>6965</v>
+      </c>
+      <c r="G27" s="29">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="5">
+        <v>1984</v>
+      </c>
+      <c r="C28" s="28">
+        <v>4061</v>
+      </c>
+      <c r="D28" s="28">
+        <v>44419</v>
+      </c>
+      <c r="E28" s="28">
+        <v>10938</v>
+      </c>
+      <c r="F28" s="28">
+        <v>7240</v>
+      </c>
+      <c r="G28" s="29">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="5">
+        <v>1985</v>
+      </c>
+      <c r="C29" s="28">
+        <v>4593</v>
+      </c>
+      <c r="D29" s="28">
+        <v>45441</v>
+      </c>
+      <c r="E29" s="28">
+        <v>9894</v>
+      </c>
+      <c r="F29" s="28">
+        <v>7399</v>
+      </c>
+      <c r="G29" s="29">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="5">
+        <v>1986</v>
+      </c>
+      <c r="C30" s="28">
+        <v>4313</v>
+      </c>
+      <c r="D30" s="28">
+        <v>45637</v>
+      </c>
+      <c r="E30" s="28">
+        <v>10581</v>
+      </c>
+      <c r="F30" s="28">
+        <v>7386</v>
+      </c>
+      <c r="G30" s="29">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="5">
+        <v>1987</v>
+      </c>
+      <c r="C31" s="28">
+        <v>4188</v>
+      </c>
+      <c r="D31" s="28">
+        <v>48022</v>
+      </c>
+      <c r="E31" s="28">
+        <v>11467</v>
+      </c>
+      <c r="F31" s="28">
+        <v>7523</v>
+      </c>
+      <c r="G31" s="29">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="5">
+        <v>1988</v>
+      </c>
+      <c r="C32" s="28">
+        <v>4470</v>
+      </c>
+      <c r="D32" s="28">
+        <v>49434</v>
+      </c>
+      <c r="E32" s="28">
+        <v>11059</v>
+      </c>
+      <c r="F32" s="28">
+        <v>7701</v>
+      </c>
+      <c r="G32" s="29">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="5">
+        <v>1989</v>
+      </c>
+      <c r="C33" s="28">
+        <v>4519</v>
+      </c>
+      <c r="D33" s="28">
+        <v>50870</v>
+      </c>
+      <c r="E33" s="28">
+        <v>11257</v>
+      </c>
+      <c r="F33" s="28">
+        <v>7779</v>
+      </c>
+      <c r="G33" s="29">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="5">
+        <v>1990</v>
+      </c>
+      <c r="C34" s="28">
+        <v>4487</v>
+      </c>
+      <c r="D34" s="28">
+        <v>51901</v>
+      </c>
+      <c r="E34" s="28">
+        <v>11567</v>
+      </c>
+      <c r="F34" s="28">
+        <v>8357</v>
+      </c>
+      <c r="G34" s="29">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="5">
+        <v>1991</v>
+      </c>
+      <c r="C35" s="28">
+        <v>4481</v>
+      </c>
+      <c r="D35" s="28">
+        <v>52898</v>
+      </c>
+      <c r="E35" s="28">
+        <v>11805</v>
+      </c>
+      <c r="F35" s="28">
+        <v>8172</v>
+      </c>
+      <c r="G35" s="29">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="5">
+        <v>1992</v>
+      </c>
+      <c r="C36" s="28">
+        <v>4370</v>
+      </c>
+      <c r="D36" s="28">
+        <v>53874</v>
+      </c>
+      <c r="E36" s="28">
+        <v>12328</v>
+      </c>
+      <c r="F36" s="28">
+        <v>8237</v>
+      </c>
+      <c r="G36" s="29">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="5">
+        <v>1993</v>
+      </c>
+      <c r="C37" s="28">
+        <v>4408</v>
+      </c>
+      <c r="D37" s="28">
+        <v>56772</v>
+      </c>
+      <c r="E37" s="28">
+        <v>12879</v>
+      </c>
+      <c r="F37" s="28">
+        <v>8488</v>
+      </c>
+      <c r="G37" s="29">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="5">
+        <v>1994</v>
+      </c>
+      <c r="C38" s="28">
+        <v>4906</v>
+      </c>
+      <c r="D38" s="28">
+        <v>61284</v>
+      </c>
+      <c r="E38" s="28">
+        <v>12492</v>
+      </c>
+      <c r="F38" s="28">
+        <v>9032</v>
+      </c>
+      <c r="G38" s="29">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="5">
+        <v>1995</v>
+      </c>
+      <c r="C39" s="28">
+        <v>5024</v>
+      </c>
+      <c r="D39" s="28">
+        <v>62705</v>
+      </c>
+      <c r="E39" s="28">
+        <v>12481</v>
+      </c>
+      <c r="F39" s="28">
+        <v>9216</v>
+      </c>
+      <c r="G39" s="29">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="5">
+        <v>1996</v>
+      </c>
+      <c r="C40" s="28">
+        <v>5266</v>
+      </c>
+      <c r="D40" s="28">
+        <v>64072</v>
+      </c>
+      <c r="E40" s="28">
+        <v>12167</v>
+      </c>
+      <c r="F40" s="28">
+        <v>9409</v>
+      </c>
+      <c r="G40" s="29">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="5">
+        <v>1997</v>
+      </c>
+      <c r="C41" s="28">
+        <v>5293</v>
+      </c>
+      <c r="D41" s="28">
+        <v>66893</v>
+      </c>
+      <c r="E41" s="28">
+        <v>12638</v>
+      </c>
+      <c r="F41" s="28">
+        <v>9576</v>
+      </c>
+      <c r="G41" s="29">
         <v>7</v>
       </c>
-      <c r="C12" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="6" t="s">
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="5">
+        <v>1998</v>
+      </c>
+      <c r="C42" s="28">
+        <v>5414</v>
+      </c>
+      <c r="D42" s="28">
+        <v>67894</v>
+      </c>
+      <c r="E42" s="28">
+        <v>12540</v>
+      </c>
+      <c r="F42" s="28">
+        <v>9741</v>
+      </c>
+      <c r="G42" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="5">
+        <v>1999</v>
+      </c>
+      <c r="C43" s="28">
+        <v>5763</v>
+      </c>
+      <c r="D43" s="28">
+        <v>70304</v>
+      </c>
+      <c r="E43" s="28">
+        <v>12199</v>
+      </c>
+      <c r="F43" s="28">
+        <v>9372</v>
+      </c>
+      <c r="G43" s="5">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C44" s="28">
+        <v>5926</v>
+      </c>
+      <c r="D44" s="28">
+        <v>70500</v>
+      </c>
+      <c r="E44" s="28">
+        <v>11897</v>
+      </c>
+      <c r="F44" s="28">
+        <v>9563</v>
+      </c>
+      <c r="G44" s="5">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C45" s="28">
+        <v>5704</v>
+      </c>
+      <c r="D45" s="28">
+        <v>72448</v>
+      </c>
+      <c r="E45" s="28">
+        <v>12701</v>
+      </c>
+      <c r="F45" s="28">
+        <v>9667</v>
+      </c>
+      <c r="G45" s="5">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B46" s="5">
+        <v>2002</v>
+      </c>
+      <c r="C46" s="28">
+        <v>5651</v>
+      </c>
+      <c r="D46" s="28">
+        <v>75866</v>
+      </c>
+      <c r="E46" s="28">
+        <v>13425</v>
+      </c>
+      <c r="F46" s="28">
+        <v>10321</v>
+      </c>
+      <c r="G46" s="5">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B47" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C47" s="28">
+        <v>5849</v>
+      </c>
+      <c r="D47" s="28">
+        <v>77757</v>
+      </c>
+      <c r="E47" s="28">
+        <v>13294</v>
+      </c>
+      <c r="F47" s="28">
+        <v>8881</v>
+      </c>
+      <c r="G47" s="5">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="5">
+        <v>2004</v>
+      </c>
+      <c r="C48" s="28">
+        <v>6161</v>
+      </c>
+      <c r="D48" s="28">
+        <v>78441</v>
+      </c>
+      <c r="E48" s="28">
+        <v>12732</v>
+      </c>
+      <c r="F48" s="28">
+        <v>8959</v>
+      </c>
+      <c r="G48" s="5">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" s="5">
+        <v>2005</v>
+      </c>
+      <c r="C49" s="28">
+        <v>6395</v>
+      </c>
+      <c r="D49" s="28">
+        <v>78496</v>
+      </c>
+      <c r="E49" s="28">
+        <v>12275</v>
+      </c>
+      <c r="F49" s="28">
+        <v>9501</v>
+      </c>
+      <c r="G49" s="5">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="57">
+        <v>2006</v>
+      </c>
+      <c r="C50" s="30">
+        <v>6649</v>
+      </c>
+      <c r="D50" s="30">
+        <v>80344</v>
+      </c>
+      <c r="E50" s="30">
+        <v>12084</v>
+      </c>
+      <c r="F50" s="30">
+        <v>9852</v>
+      </c>
+      <c r="G50" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="28" t="s">
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51" s="5">
+        <v>2007</v>
+      </c>
+      <c r="C51" s="28">
+        <v>8117</v>
+      </c>
+      <c r="D51" s="28">
+        <v>119979</v>
+      </c>
+      <c r="E51" s="28">
+        <v>14781</v>
+      </c>
+      <c r="F51" s="28">
+        <v>16314</v>
+      </c>
+      <c r="G51" s="5">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52" s="5">
+        <v>2008</v>
+      </c>
+      <c r="C52" s="28">
+        <v>8228</v>
+      </c>
+      <c r="D52" s="28">
+        <v>126855</v>
+      </c>
+      <c r="E52" s="28">
+        <v>15417</v>
+      </c>
+      <c r="F52" s="28">
+        <v>17144</v>
+      </c>
+      <c r="G52" s="5">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B53" s="5">
+        <v>2009</v>
+      </c>
+      <c r="C53" s="28">
+        <v>8356</v>
+      </c>
+      <c r="D53" s="28">
+        <v>120207</v>
+      </c>
+      <c r="E53" s="28">
+        <v>14386</v>
+      </c>
+      <c r="F53" s="28">
+        <v>16253</v>
+      </c>
+      <c r="G53" s="5">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B54" s="5">
+        <v>2010</v>
+      </c>
+      <c r="C54" s="28">
+        <v>8217</v>
+      </c>
+      <c r="D54" s="28">
+        <v>110738</v>
+      </c>
+      <c r="E54" s="28">
+        <v>13477</v>
+      </c>
+      <c r="F54" s="28">
+        <v>15097</v>
+      </c>
+      <c r="G54" s="5">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B55" s="5">
+        <v>2011</v>
+      </c>
+      <c r="C55" s="28">
+        <v>7819</v>
+      </c>
+      <c r="D55" s="28">
+        <v>103803</v>
+      </c>
+      <c r="E55" s="28">
+        <v>13276</v>
+      </c>
+      <c r="F55" s="28">
+        <v>14214</v>
+      </c>
+      <c r="G55" s="5">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B56" s="5">
+        <v>2012</v>
+      </c>
+      <c r="C56" s="28">
+        <v>8190</v>
+      </c>
+      <c r="D56" s="28">
+        <v>105605</v>
+      </c>
+      <c r="E56" s="28">
+        <v>12894</v>
+      </c>
+      <c r="F56" s="28">
+        <v>14376</v>
+      </c>
+      <c r="G56" s="5">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B57" s="5">
+        <v>2013</v>
+      </c>
+      <c r="C57" s="28">
+        <v>8126</v>
+      </c>
+      <c r="D57" s="28">
+        <v>106582</v>
+      </c>
+      <c r="E57" s="28">
+        <v>13116</v>
+      </c>
+      <c r="F57" s="28">
+        <v>14502</v>
+      </c>
+      <c r="G57" s="5">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B58" s="60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="77"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="18">
-        <v>1970</v>
-      </c>
-      <c r="C14" s="30">
-        <v>3681</v>
-      </c>
-      <c r="D14" s="30">
-        <v>27081</v>
-      </c>
-      <c r="E14" s="30">
-        <v>7356.9682151589241</v>
-      </c>
-      <c r="F14" s="30">
-        <v>3968</v>
-      </c>
-      <c r="G14" s="31">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="9">
-        <v>1971</v>
-      </c>
-      <c r="C15" s="32">
-        <v>3770</v>
-      </c>
-      <c r="D15" s="32">
-        <v>28985</v>
-      </c>
-      <c r="E15" s="32">
-        <v>7688.3289124668436</v>
-      </c>
-      <c r="F15" s="32">
-        <v>4217</v>
-      </c>
-      <c r="G15" s="33">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="9">
-        <v>1972</v>
-      </c>
-      <c r="C16" s="32">
-        <v>3918</v>
-      </c>
-      <c r="D16" s="32">
-        <v>31414</v>
-      </c>
-      <c r="E16" s="32">
-        <v>8017.8662582950483</v>
-      </c>
-      <c r="F16" s="32">
-        <v>4844</v>
-      </c>
-      <c r="G16" s="33">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="9">
-        <v>1973</v>
-      </c>
-      <c r="C17" s="32">
-        <v>4131</v>
-      </c>
-      <c r="D17" s="32">
-        <v>33661</v>
-      </c>
-      <c r="E17" s="32">
-        <v>8148.3902202856452</v>
-      </c>
-      <c r="F17" s="32">
-        <v>5294</v>
-      </c>
-      <c r="G17" s="33">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="9">
-        <v>1974</v>
-      </c>
-      <c r="C18" s="32">
-        <v>4211</v>
-      </c>
-      <c r="D18" s="32">
-        <v>33441</v>
-      </c>
-      <c r="E18" s="32">
-        <v>7941.3440987888862</v>
-      </c>
-      <c r="F18" s="32">
-        <v>5261</v>
-      </c>
-      <c r="G18" s="33">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="18">
-        <v>1975</v>
-      </c>
-      <c r="C19" s="30">
-        <v>4232</v>
-      </c>
-      <c r="D19" s="30">
-        <v>34606</v>
-      </c>
-      <c r="E19" s="30">
-        <v>8177</v>
-      </c>
-      <c r="F19" s="30">
-        <v>5420</v>
-      </c>
-      <c r="G19" s="31">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="18">
-        <v>1976</v>
-      </c>
-      <c r="C20" s="30">
-        <v>4350</v>
-      </c>
-      <c r="D20" s="30">
-        <v>36390</v>
-      </c>
-      <c r="E20" s="30">
-        <v>8366</v>
-      </c>
-      <c r="F20" s="30">
-        <v>5706</v>
-      </c>
-      <c r="G20" s="31">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="9">
-        <v>1977</v>
-      </c>
-      <c r="C21" s="32">
-        <v>4450</v>
-      </c>
-      <c r="D21" s="32">
-        <v>39339</v>
-      </c>
-      <c r="E21" s="32">
-        <v>8840</v>
-      </c>
-      <c r="F21" s="32">
-        <v>6268</v>
-      </c>
-      <c r="G21" s="33">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="9">
-        <v>1978</v>
-      </c>
-      <c r="C22" s="32">
-        <v>4518</v>
-      </c>
-      <c r="D22" s="32">
-        <v>42747</v>
-      </c>
-      <c r="E22" s="32">
-        <v>9461</v>
-      </c>
-      <c r="F22" s="32">
-        <v>6955</v>
-      </c>
-      <c r="G22" s="33">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="9">
-        <v>1979</v>
-      </c>
-      <c r="C23" s="32">
-        <v>4505</v>
-      </c>
-      <c r="D23" s="32">
-        <v>42012</v>
-      </c>
-      <c r="E23" s="32">
-        <v>9326</v>
-      </c>
-      <c r="F23" s="32">
-        <v>7050</v>
-      </c>
-      <c r="G23" s="33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="9">
-        <v>1980</v>
-      </c>
-      <c r="C24" s="32">
-        <v>4374</v>
-      </c>
-      <c r="D24" s="32">
-        <v>39813</v>
-      </c>
-      <c r="E24" s="32">
-        <v>9102</v>
-      </c>
-      <c r="F24" s="32">
-        <v>6923</v>
-      </c>
-      <c r="G24" s="33">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="9">
-        <v>1981</v>
-      </c>
-      <c r="C25" s="32">
-        <v>4455</v>
-      </c>
-      <c r="D25" s="32">
-        <v>39568</v>
-      </c>
-      <c r="E25" s="32">
-        <v>8882</v>
-      </c>
-      <c r="F25" s="32">
-        <v>6867</v>
-      </c>
-      <c r="G25" s="33">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="9">
-        <v>1982</v>
-      </c>
-      <c r="C26" s="32">
-        <v>4325</v>
-      </c>
-      <c r="D26" s="32">
-        <v>40658</v>
-      </c>
-      <c r="E26" s="32">
-        <v>9401</v>
-      </c>
-      <c r="F26" s="32">
-        <v>6803</v>
-      </c>
-      <c r="G26" s="33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="9">
-        <v>1983</v>
-      </c>
-      <c r="C27" s="32">
-        <v>4204</v>
-      </c>
-      <c r="D27" s="32">
-        <v>42546</v>
-      </c>
-      <c r="E27" s="32">
-        <v>10120</v>
-      </c>
-      <c r="F27" s="32">
-        <v>6965</v>
-      </c>
-      <c r="G27" s="33">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="9">
-        <v>1984</v>
-      </c>
-      <c r="C28" s="32">
-        <v>4061</v>
-      </c>
-      <c r="D28" s="32">
-        <v>44419</v>
-      </c>
-      <c r="E28" s="32">
-        <v>10938</v>
-      </c>
-      <c r="F28" s="32">
-        <v>7240</v>
-      </c>
-      <c r="G28" s="33">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="9">
-        <v>1985</v>
-      </c>
-      <c r="C29" s="32">
-        <v>4593</v>
-      </c>
-      <c r="D29" s="32">
-        <v>45441</v>
-      </c>
-      <c r="E29" s="32">
-        <v>9894</v>
-      </c>
-      <c r="F29" s="32">
-        <v>7399</v>
-      </c>
-      <c r="G29" s="33">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="9">
-        <v>1986</v>
-      </c>
-      <c r="C30" s="32">
-        <v>4313</v>
-      </c>
-      <c r="D30" s="32">
-        <v>45637</v>
-      </c>
-      <c r="E30" s="32">
-        <v>10581</v>
-      </c>
-      <c r="F30" s="32">
-        <v>7386</v>
-      </c>
-      <c r="G30" s="33">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="9">
-        <v>1987</v>
-      </c>
-      <c r="C31" s="32">
-        <v>4188</v>
-      </c>
-      <c r="D31" s="32">
-        <v>48022</v>
-      </c>
-      <c r="E31" s="32">
-        <v>11467</v>
-      </c>
-      <c r="F31" s="32">
-        <v>7523</v>
-      </c>
-      <c r="G31" s="33">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="9">
-        <v>1988</v>
-      </c>
-      <c r="C32" s="32">
-        <v>4470</v>
-      </c>
-      <c r="D32" s="32">
-        <v>49434</v>
-      </c>
-      <c r="E32" s="32">
-        <v>11059</v>
-      </c>
-      <c r="F32" s="32">
-        <v>7701</v>
-      </c>
-      <c r="G32" s="33">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="9">
-        <v>1989</v>
-      </c>
-      <c r="C33" s="32">
-        <v>4519</v>
-      </c>
-      <c r="D33" s="32">
-        <v>50870</v>
-      </c>
-      <c r="E33" s="32">
-        <v>11257</v>
-      </c>
-      <c r="F33" s="32">
-        <v>7779</v>
-      </c>
-      <c r="G33" s="33">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="9">
-        <v>1990</v>
-      </c>
-      <c r="C34" s="32">
-        <v>4487</v>
-      </c>
-      <c r="D34" s="32">
-        <v>51901</v>
-      </c>
-      <c r="E34" s="32">
-        <v>11567</v>
-      </c>
-      <c r="F34" s="32">
-        <v>8357</v>
-      </c>
-      <c r="G34" s="33">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="9">
-        <v>1991</v>
-      </c>
-      <c r="C35" s="32">
-        <v>4481</v>
-      </c>
-      <c r="D35" s="32">
-        <v>52898</v>
-      </c>
-      <c r="E35" s="32">
-        <v>11805</v>
-      </c>
-      <c r="F35" s="32">
-        <v>8172</v>
-      </c>
-      <c r="G35" s="33">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="9">
-        <v>1992</v>
-      </c>
-      <c r="C36" s="32">
-        <v>4370</v>
-      </c>
-      <c r="D36" s="32">
-        <v>53874</v>
-      </c>
-      <c r="E36" s="32">
-        <v>12328</v>
-      </c>
-      <c r="F36" s="32">
-        <v>8237</v>
-      </c>
-      <c r="G36" s="33">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="9">
-        <v>1993</v>
-      </c>
-      <c r="C37" s="32">
-        <v>4408</v>
-      </c>
-      <c r="D37" s="32">
-        <v>56772</v>
-      </c>
-      <c r="E37" s="32">
-        <v>12879</v>
-      </c>
-      <c r="F37" s="32">
-        <v>8488</v>
-      </c>
-      <c r="G37" s="33">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="9">
-        <v>1994</v>
-      </c>
-      <c r="C38" s="32">
-        <v>4906</v>
-      </c>
-      <c r="D38" s="32">
-        <v>61284</v>
-      </c>
-      <c r="E38" s="32">
-        <v>12492</v>
-      </c>
-      <c r="F38" s="32">
-        <v>9032</v>
-      </c>
-      <c r="G38" s="33">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="9">
-        <v>1995</v>
-      </c>
-      <c r="C39" s="32">
-        <v>5024</v>
-      </c>
-      <c r="D39" s="32">
-        <v>62705</v>
-      </c>
-      <c r="E39" s="32">
-        <v>12481</v>
-      </c>
-      <c r="F39" s="32">
-        <v>9216</v>
-      </c>
-      <c r="G39" s="33">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="9">
-        <v>1996</v>
-      </c>
-      <c r="C40" s="32">
-        <v>5266</v>
-      </c>
-      <c r="D40" s="32">
-        <v>64072</v>
-      </c>
-      <c r="E40" s="32">
-        <v>12167</v>
-      </c>
-      <c r="F40" s="32">
-        <v>9409</v>
-      </c>
-      <c r="G40" s="33">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="9">
-        <v>1997</v>
-      </c>
-      <c r="C41" s="32">
-        <v>5293</v>
-      </c>
-      <c r="D41" s="32">
-        <v>66893</v>
-      </c>
-      <c r="E41" s="32">
-        <v>12638</v>
-      </c>
-      <c r="F41" s="32">
-        <v>9576</v>
-      </c>
-      <c r="G41" s="33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="9">
-        <v>1998</v>
-      </c>
-      <c r="C42" s="32">
-        <v>5414</v>
-      </c>
-      <c r="D42" s="32">
-        <v>67894</v>
-      </c>
-      <c r="E42" s="32">
-        <v>12540</v>
-      </c>
-      <c r="F42" s="32">
-        <v>9741</v>
-      </c>
-      <c r="G42" s="33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="9">
-        <v>1999</v>
-      </c>
-      <c r="C43" s="32">
-        <v>5763</v>
-      </c>
-      <c r="D43" s="32">
-        <v>70304</v>
-      </c>
-      <c r="E43" s="32">
-        <v>12199</v>
-      </c>
-      <c r="F43" s="32">
-        <v>9372</v>
-      </c>
-      <c r="G43" s="9">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="9">
-        <v>2000</v>
-      </c>
-      <c r="C44" s="32">
-        <v>5926</v>
-      </c>
-      <c r="D44" s="32">
-        <v>70500</v>
-      </c>
-      <c r="E44" s="32">
-        <v>11897</v>
-      </c>
-      <c r="F44" s="32">
-        <v>9563</v>
-      </c>
-      <c r="G44" s="9">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="9">
-        <v>2001</v>
-      </c>
-      <c r="C45" s="32">
-        <v>5704</v>
-      </c>
-      <c r="D45" s="32">
-        <v>72448</v>
-      </c>
-      <c r="E45" s="32">
-        <v>12701</v>
-      </c>
-      <c r="F45" s="32">
-        <v>9667</v>
-      </c>
-      <c r="G45" s="9">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="9">
-        <v>2002</v>
-      </c>
-      <c r="C46" s="32">
-        <v>5651</v>
-      </c>
-      <c r="D46" s="32">
-        <v>75866</v>
-      </c>
-      <c r="E46" s="32">
-        <v>13425</v>
-      </c>
-      <c r="F46" s="32">
-        <v>10321</v>
-      </c>
-      <c r="G46" s="9">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="9">
-        <v>2003</v>
-      </c>
-      <c r="C47" s="32">
-        <v>5849</v>
-      </c>
-      <c r="D47" s="32">
-        <v>77757</v>
-      </c>
-      <c r="E47" s="32">
-        <v>13294</v>
-      </c>
-      <c r="F47" s="32">
-        <v>8881</v>
-      </c>
-      <c r="G47" s="9">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="9">
-        <v>2004</v>
-      </c>
-      <c r="C48" s="32">
-        <v>6161</v>
-      </c>
-      <c r="D48" s="32">
-        <v>78441</v>
-      </c>
-      <c r="E48" s="32">
-        <v>12732</v>
-      </c>
-      <c r="F48" s="32">
-        <v>8959</v>
-      </c>
-      <c r="G48" s="9">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="9">
-        <v>2005</v>
-      </c>
-      <c r="C49" s="32">
-        <v>6395</v>
-      </c>
-      <c r="D49" s="32">
-        <v>78496</v>
-      </c>
-      <c r="E49" s="32">
-        <v>12275</v>
-      </c>
-      <c r="F49" s="32">
-        <v>9501</v>
-      </c>
-      <c r="G49" s="9">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="8">
-        <v>2006</v>
-      </c>
-      <c r="C50" s="34">
-        <v>6649</v>
-      </c>
-      <c r="D50" s="34">
-        <v>80344</v>
-      </c>
-      <c r="E50" s="34">
-        <v>12084</v>
-      </c>
-      <c r="F50" s="34">
-        <v>9852</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="9">
-        <v>2007</v>
-      </c>
-      <c r="C51" s="32">
-        <v>8117</v>
-      </c>
-      <c r="D51" s="32">
-        <v>119979</v>
-      </c>
-      <c r="E51" s="32">
-        <v>14781</v>
-      </c>
-      <c r="F51" s="32">
-        <v>16314</v>
-      </c>
-      <c r="G51" s="9">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="9">
-        <v>2008</v>
-      </c>
-      <c r="C52" s="32">
-        <v>8228</v>
-      </c>
-      <c r="D52" s="32">
-        <v>126855</v>
-      </c>
-      <c r="E52" s="32">
-        <v>15417</v>
-      </c>
-      <c r="F52" s="32">
-        <v>17144</v>
-      </c>
-      <c r="G52" s="9">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="9">
-        <v>2009</v>
-      </c>
-      <c r="C53" s="32">
-        <v>8356</v>
-      </c>
-      <c r="D53" s="32">
-        <v>120207</v>
-      </c>
-      <c r="E53" s="32">
-        <v>14386</v>
-      </c>
-      <c r="F53" s="32">
-        <v>16253</v>
-      </c>
-      <c r="G53" s="9">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="9">
-        <v>2010</v>
-      </c>
-      <c r="C54" s="32">
-        <v>8217</v>
-      </c>
-      <c r="D54" s="32">
-        <v>110738</v>
-      </c>
-      <c r="E54" s="32">
-        <v>13477</v>
-      </c>
-      <c r="F54" s="32">
-        <v>15097</v>
-      </c>
-      <c r="G54" s="9">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B55" s="9">
-        <v>2011</v>
-      </c>
-      <c r="C55" s="32">
-        <v>7819</v>
-      </c>
-      <c r="D55" s="32">
-        <v>103803</v>
-      </c>
-      <c r="E55" s="32">
-        <v>13276</v>
-      </c>
-      <c r="F55" s="32">
-        <v>14214</v>
-      </c>
-      <c r="G55" s="9">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C56" s="32">
-        <v>8190</v>
-      </c>
-      <c r="D56" s="32">
-        <v>104960</v>
-      </c>
-      <c r="E56" s="32">
-        <v>12816</v>
-      </c>
-      <c r="F56" s="32">
-        <v>14287</v>
-      </c>
-      <c r="G56" s="9">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B58" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C58" s="35">
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B59" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="31">
         <v>1.9E-2</v>
       </c>
-      <c r="D58" s="35">
+      <c r="D59" s="31">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E59" s="38">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F59" s="31">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G59" s="31">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="33">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="E58" s="42">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="F58" s="35">
-        <v>3.1E-2</v>
-      </c>
-      <c r="G58" s="35">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="37">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="D59" s="37">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="E59" s="43">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="F59" s="37">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="G59" s="37">
+      <c r="D60" s="33">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E60" s="39">
         <v>-1E-3</v>
       </c>
-    </row>
-    <row r="60" spans="2:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B61" s="38" t="s">
+      <c r="F60" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="G60" s="33">
+        <v>-1.9E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B62" s="34" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="63"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B63" s="63"/>
-      <c r="C63" s="63"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="63"/>
-      <c r="F63" s="63"/>
-      <c r="G63" s="63"/>
+    <row r="63" spans="2:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="61"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="61"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B64" s="44"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
-      <c r="G64" s="13"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B65" s="46"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-    </row>
-    <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B66" s="46" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B67" s="9"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+    </row>
+    <row r="67" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B67" s="42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B68" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B62:G63"/>
     <mergeCell ref="B2:G6"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B63:G64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4572,7 +4653,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G67"/>
+  <dimension ref="B1:G68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5030,1075 +5111,1095 @@
   <sheetData>
     <row r="1" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="68"/>
+      <c r="B2" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="2:7" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="71"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="71"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="69"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="71"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="69"/>
     </row>
     <row r="6" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="72"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
+      <c r="B9" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="75" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
+      <c r="B10" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="78" t="s">
+      <c r="B12" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="G12" s="56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="75"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="F13" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="5">
+        <v>1970</v>
+      </c>
+      <c r="C14" s="44">
+        <v>905</v>
+      </c>
+      <c r="D14" s="45">
+        <v>35134</v>
+      </c>
+      <c r="E14" s="46">
+        <v>38822.099447513814</v>
+      </c>
+      <c r="F14" s="45">
+        <v>7348</v>
+      </c>
+      <c r="G14" s="44">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="5">
+        <v>1971</v>
+      </c>
+      <c r="C15" s="28">
+        <v>919</v>
+      </c>
+      <c r="D15" s="28">
+        <v>37217</v>
+      </c>
+      <c r="E15" s="28">
+        <v>40497.279651795427</v>
+      </c>
+      <c r="F15" s="28">
+        <v>7595</v>
+      </c>
+      <c r="G15" s="29">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="5">
+        <v>1972</v>
+      </c>
+      <c r="C16" s="28">
+        <v>961</v>
+      </c>
+      <c r="D16" s="28">
+        <v>40706</v>
+      </c>
+      <c r="E16" s="28">
+        <v>42357.960457856403</v>
+      </c>
+      <c r="F16" s="28">
+        <v>8120</v>
+      </c>
+      <c r="G16" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="5">
+        <v>1973</v>
+      </c>
+      <c r="C17" s="28">
+        <v>1029</v>
+      </c>
+      <c r="D17" s="28">
+        <v>45649</v>
+      </c>
+      <c r="E17" s="28">
+        <v>44362.487852283768</v>
+      </c>
+      <c r="F17" s="28">
+        <v>9026</v>
+      </c>
+      <c r="G17" s="29">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="5">
+        <v>1974</v>
+      </c>
+      <c r="C18" s="28">
+        <v>1085</v>
+      </c>
+      <c r="D18" s="28">
+        <v>45966</v>
+      </c>
+      <c r="E18" s="28">
+        <v>42364.976958525345</v>
+      </c>
+      <c r="F18" s="28">
+        <v>9080</v>
+      </c>
+      <c r="G18" s="29">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="14">
+        <v>1975</v>
+      </c>
+      <c r="C19" s="26">
+        <v>1131</v>
+      </c>
+      <c r="D19" s="26">
+        <v>46724</v>
+      </c>
+      <c r="E19" s="26">
+        <v>41312.113174182137</v>
+      </c>
+      <c r="F19" s="26">
+        <v>9177</v>
+      </c>
+      <c r="G19" s="27">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="5">
+        <v>1976</v>
+      </c>
+      <c r="C20" s="28">
+        <v>1225</v>
+      </c>
+      <c r="D20" s="28">
+        <v>49680</v>
+      </c>
+      <c r="E20" s="28">
+        <v>40555.102040816324</v>
+      </c>
+      <c r="F20" s="28">
+        <v>9703</v>
+      </c>
+      <c r="G20" s="29">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="5">
+        <v>1977</v>
+      </c>
+      <c r="C21" s="28">
+        <v>1240</v>
+      </c>
+      <c r="D21" s="28">
+        <v>55682</v>
+      </c>
+      <c r="E21" s="28">
+        <v>44904.838709677417</v>
+      </c>
+      <c r="F21" s="28">
+        <v>10814</v>
+      </c>
+      <c r="G21" s="29">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="5">
+        <v>1978</v>
+      </c>
+      <c r="C22" s="28">
+        <v>1342</v>
+      </c>
+      <c r="D22" s="28">
+        <v>62992</v>
+      </c>
+      <c r="E22" s="28">
+        <v>46938.897168405369</v>
+      </c>
+      <c r="F22" s="28">
+        <v>12165</v>
+      </c>
+      <c r="G22" s="29">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="5">
+        <v>1979</v>
+      </c>
+      <c r="C23" s="28">
+        <v>1386</v>
+      </c>
+      <c r="D23" s="28">
+        <v>66992</v>
+      </c>
+      <c r="E23" s="28">
+        <v>48334.776334776332</v>
+      </c>
+      <c r="F23" s="28">
+        <v>12864</v>
+      </c>
+      <c r="G23" s="29">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="14">
+        <v>1980</v>
+      </c>
+      <c r="C24" s="26">
+        <v>1417</v>
+      </c>
+      <c r="D24" s="26">
+        <v>68678</v>
+      </c>
+      <c r="E24" s="26">
+        <v>48467</v>
+      </c>
+      <c r="F24" s="26">
+        <v>13037</v>
+      </c>
+      <c r="G24" s="27">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="5">
+        <v>1981</v>
+      </c>
+      <c r="C25" s="28">
+        <v>1261</v>
+      </c>
+      <c r="D25" s="28">
+        <v>69134</v>
+      </c>
+      <c r="E25" s="28">
+        <v>54825</v>
+      </c>
+      <c r="F25" s="28">
+        <v>13509</v>
+      </c>
+      <c r="G25" s="29">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="5">
+        <v>1982</v>
+      </c>
+      <c r="C26" s="28">
+        <v>1265</v>
+      </c>
+      <c r="D26" s="28">
+        <v>70765</v>
+      </c>
+      <c r="E26" s="28">
+        <v>55941</v>
+      </c>
+      <c r="F26" s="28">
+        <v>13583</v>
+      </c>
+      <c r="G26" s="29">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="5">
+        <v>1983</v>
+      </c>
+      <c r="C27" s="28">
+        <v>1304</v>
+      </c>
+      <c r="D27" s="28">
+        <v>73586</v>
+      </c>
+      <c r="E27" s="28">
+        <v>56431</v>
+      </c>
+      <c r="F27" s="28">
+        <v>13796</v>
+      </c>
+      <c r="G27" s="29">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="5">
+        <v>1984</v>
+      </c>
+      <c r="C28" s="28">
+        <v>1340</v>
+      </c>
+      <c r="D28" s="28">
+        <v>77377</v>
+      </c>
+      <c r="E28" s="28">
+        <v>57744</v>
+      </c>
+      <c r="F28" s="28">
+        <v>14188</v>
+      </c>
+      <c r="G28" s="29">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="5">
+        <v>1985</v>
+      </c>
+      <c r="C29" s="28">
+        <v>1403</v>
+      </c>
+      <c r="D29" s="28">
+        <v>78063</v>
+      </c>
+      <c r="E29" s="28">
+        <v>55640</v>
+      </c>
+      <c r="F29" s="28">
+        <v>14005</v>
+      </c>
+      <c r="G29" s="29">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="5">
+        <v>1986</v>
+      </c>
+      <c r="C30" s="28">
+        <v>1408</v>
+      </c>
+      <c r="D30" s="28">
+        <v>81038</v>
+      </c>
+      <c r="E30" s="28">
+        <v>57555</v>
+      </c>
+      <c r="F30" s="28">
+        <v>14475</v>
+      </c>
+      <c r="G30" s="29">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="5">
+        <v>1987</v>
+      </c>
+      <c r="C31" s="28">
+        <v>1530</v>
+      </c>
+      <c r="D31" s="28">
+        <v>85495</v>
+      </c>
+      <c r="E31" s="28">
+        <v>55879</v>
+      </c>
+      <c r="F31" s="28">
+        <v>14990</v>
+      </c>
+      <c r="G31" s="29">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="5">
+        <v>1988</v>
+      </c>
+      <c r="C32" s="28">
+        <v>1667</v>
+      </c>
+      <c r="D32" s="28">
+        <v>88551</v>
+      </c>
+      <c r="E32" s="28">
+        <v>53120</v>
+      </c>
+      <c r="F32" s="28">
+        <v>15224</v>
+      </c>
+      <c r="G32" s="29">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="5">
+        <v>1989</v>
+      </c>
+      <c r="C33" s="28">
+        <v>1707</v>
+      </c>
+      <c r="D33" s="28">
+        <v>91879</v>
+      </c>
+      <c r="E33" s="28">
+        <v>53825</v>
+      </c>
+      <c r="F33" s="28">
+        <v>15733</v>
+      </c>
+      <c r="G33" s="29">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="5">
+        <v>1990</v>
+      </c>
+      <c r="C34" s="28">
+        <v>1709</v>
+      </c>
+      <c r="D34" s="28">
+        <v>94341</v>
+      </c>
+      <c r="E34" s="28">
+        <v>55202</v>
+      </c>
+      <c r="F34" s="28">
+        <v>16133</v>
+      </c>
+      <c r="G34" s="29">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="5">
+        <v>1991</v>
+      </c>
+      <c r="C35" s="28">
+        <v>1691</v>
+      </c>
+      <c r="D35" s="28">
+        <v>96645</v>
+      </c>
+      <c r="E35" s="28">
+        <v>57153</v>
+      </c>
+      <c r="F35" s="28">
+        <v>16809</v>
+      </c>
+      <c r="G35" s="29">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="5">
+        <v>1992</v>
+      </c>
+      <c r="C36" s="28">
+        <v>1675</v>
+      </c>
+      <c r="D36" s="28">
+        <v>99510</v>
+      </c>
+      <c r="E36" s="28">
+        <v>59409</v>
+      </c>
+      <c r="F36" s="28">
+        <v>17216</v>
+      </c>
+      <c r="G36" s="29">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="5">
+        <v>1993</v>
+      </c>
+      <c r="C37" s="28">
+        <v>1680</v>
+      </c>
+      <c r="D37" s="28">
+        <v>103116</v>
+      </c>
+      <c r="E37" s="28">
+        <v>61379</v>
+      </c>
+      <c r="F37" s="28">
+        <v>17748</v>
+      </c>
+      <c r="G37" s="29">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="5">
+        <v>1994</v>
+      </c>
+      <c r="C38" s="28">
+        <v>1681</v>
+      </c>
+      <c r="D38" s="28">
+        <v>108932</v>
+      </c>
+      <c r="E38" s="28">
+        <v>64802</v>
+      </c>
+      <c r="F38" s="28">
+        <v>18653</v>
+      </c>
+      <c r="G38" s="29">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="5">
+        <v>1995</v>
+      </c>
+      <c r="C39" s="28">
+        <v>1696</v>
+      </c>
+      <c r="D39" s="28">
+        <v>115451</v>
+      </c>
+      <c r="E39" s="28">
+        <v>68073</v>
+      </c>
+      <c r="F39" s="28">
+        <v>19777</v>
+      </c>
+      <c r="G39" s="29">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="5">
+        <v>1996</v>
+      </c>
+      <c r="C40" s="28">
+        <v>1747</v>
+      </c>
+      <c r="D40" s="28">
+        <v>118899</v>
+      </c>
+      <c r="E40" s="28">
+        <v>68059</v>
+      </c>
+      <c r="F40" s="28">
+        <v>20192</v>
+      </c>
+      <c r="G40" s="29">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="5">
+        <v>1997</v>
+      </c>
+      <c r="C41" s="28">
+        <v>1790</v>
+      </c>
+      <c r="D41" s="28">
+        <v>124584</v>
+      </c>
+      <c r="E41" s="28">
+        <v>69600</v>
+      </c>
+      <c r="F41" s="28">
+        <v>20302</v>
+      </c>
+      <c r="G41" s="29">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="5">
+        <v>1998</v>
+      </c>
+      <c r="C42" s="28">
+        <v>1831</v>
+      </c>
+      <c r="D42" s="28">
+        <v>128159</v>
+      </c>
+      <c r="E42" s="28">
+        <v>69994</v>
+      </c>
+      <c r="F42" s="28">
+        <v>21100</v>
+      </c>
+      <c r="G42" s="29">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="5">
+        <v>1999</v>
+      </c>
+      <c r="C43" s="28">
+        <v>2029</v>
+      </c>
+      <c r="D43" s="28">
+        <v>132384</v>
+      </c>
+      <c r="E43" s="28">
+        <v>65246</v>
+      </c>
+      <c r="F43" s="28">
+        <v>24537</v>
+      </c>
+      <c r="G43" s="5">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C44" s="28">
+        <v>2097</v>
+      </c>
+      <c r="D44" s="28">
+        <v>135020</v>
+      </c>
+      <c r="E44" s="28">
+        <v>64387</v>
+      </c>
+      <c r="F44" s="28">
+        <v>25666</v>
+      </c>
+      <c r="G44" s="5">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C45" s="28">
+        <v>2154</v>
+      </c>
+      <c r="D45" s="28">
+        <v>136584</v>
+      </c>
+      <c r="E45" s="28">
+        <v>63409</v>
+      </c>
+      <c r="F45" s="28">
+        <v>25512</v>
+      </c>
+      <c r="G45" s="5">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B46" s="5">
+        <v>2002</v>
+      </c>
+      <c r="C46" s="28">
+        <v>2277</v>
+      </c>
+      <c r="D46" s="28">
+        <v>138737</v>
+      </c>
+      <c r="E46" s="28">
+        <v>60930</v>
+      </c>
+      <c r="F46" s="28">
+        <v>26480</v>
+      </c>
+      <c r="G46" s="5">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B47" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C47" s="28">
+        <v>1908</v>
+      </c>
+      <c r="D47" s="28">
+        <v>140160</v>
+      </c>
+      <c r="E47" s="28">
+        <v>73459</v>
+      </c>
+      <c r="F47" s="28">
+        <v>23815</v>
+      </c>
+      <c r="G47" s="5">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="5">
+        <v>2004</v>
+      </c>
+      <c r="C48" s="28">
+        <v>2010</v>
+      </c>
+      <c r="D48" s="28">
+        <v>142370</v>
+      </c>
+      <c r="E48" s="28">
+        <v>70831</v>
+      </c>
+      <c r="F48" s="28">
+        <v>24191</v>
+      </c>
+      <c r="G48" s="5">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" s="5">
+        <v>2005</v>
+      </c>
+      <c r="C49" s="28">
+        <v>2087</v>
+      </c>
+      <c r="D49" s="28">
+        <v>144028</v>
+      </c>
+      <c r="E49" s="28">
+        <v>69012</v>
+      </c>
+      <c r="F49" s="28">
+        <v>27689</v>
+      </c>
+      <c r="G49" s="5">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="57">
+        <v>2006</v>
+      </c>
+      <c r="C50" s="30">
+        <v>2170</v>
+      </c>
+      <c r="D50" s="30">
+        <v>142169</v>
+      </c>
+      <c r="E50" s="30">
+        <v>65516</v>
+      </c>
+      <c r="F50" s="30">
+        <v>28107</v>
+      </c>
+      <c r="G50" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51" s="5">
+        <v>2007</v>
+      </c>
+      <c r="C51" s="28">
+        <v>2635</v>
+      </c>
+      <c r="D51" s="28">
+        <v>184199</v>
+      </c>
+      <c r="E51" s="28">
+        <v>69905</v>
+      </c>
+      <c r="F51" s="28">
+        <v>30904</v>
+      </c>
+      <c r="G51" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52" s="5">
+        <v>2008</v>
+      </c>
+      <c r="C52" s="28">
+        <v>2585</v>
+      </c>
+      <c r="D52" s="28">
+        <v>183826</v>
+      </c>
+      <c r="E52" s="28">
+        <v>71113</v>
+      </c>
+      <c r="F52" s="28">
+        <v>30561</v>
+      </c>
+      <c r="G52" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B53" s="5">
+        <v>2009</v>
+      </c>
+      <c r="C53" s="28">
+        <v>2617</v>
+      </c>
+      <c r="D53" s="28">
+        <v>168100</v>
+      </c>
+      <c r="E53" s="28">
+        <v>64234</v>
+      </c>
+      <c r="F53" s="28">
+        <v>28050</v>
+      </c>
+      <c r="G53" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B54" s="5">
+        <v>2010</v>
+      </c>
+      <c r="C54" s="28">
+        <v>2553</v>
+      </c>
+      <c r="D54" s="28">
+        <v>175789</v>
+      </c>
+      <c r="E54" s="28">
+        <v>68856</v>
+      </c>
+      <c r="F54" s="28">
+        <v>29927</v>
+      </c>
+      <c r="G54" s="29">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B55" s="5">
+        <v>2011</v>
+      </c>
+      <c r="C55" s="28">
+        <v>2452</v>
+      </c>
+      <c r="D55" s="28">
+        <v>163791</v>
+      </c>
+      <c r="E55" s="28">
+        <v>66809</v>
+      </c>
+      <c r="F55" s="28">
+        <v>28181</v>
+      </c>
+      <c r="G55" s="29">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B56" s="5">
+        <v>2012</v>
+      </c>
+      <c r="C56" s="28">
+        <v>2469</v>
+      </c>
+      <c r="D56" s="28">
+        <v>163602</v>
+      </c>
+      <c r="E56" s="28">
+        <v>66262</v>
+      </c>
+      <c r="F56" s="28">
+        <v>27975</v>
+      </c>
+      <c r="G56" s="29">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B57" s="5">
+        <v>2013</v>
+      </c>
+      <c r="C57" s="28">
+        <v>2471</v>
+      </c>
+      <c r="D57" s="28">
+        <v>168436</v>
+      </c>
+      <c r="E57" s="28">
+        <v>68165</v>
+      </c>
+      <c r="F57" s="28">
+        <v>28795</v>
+      </c>
+      <c r="G57" s="29">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B58" s="60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="77"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="9">
-        <v>1970</v>
-      </c>
-      <c r="C14" s="48">
-        <v>905</v>
-      </c>
-      <c r="D14" s="49">
-        <v>35134</v>
-      </c>
-      <c r="E14" s="50">
-        <v>38822.099447513814</v>
-      </c>
-      <c r="F14" s="49">
-        <v>7348</v>
-      </c>
-      <c r="G14" s="48">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="9">
-        <v>1971</v>
-      </c>
-      <c r="C15" s="32">
-        <v>919</v>
-      </c>
-      <c r="D15" s="32">
-        <v>37217</v>
-      </c>
-      <c r="E15" s="32">
-        <v>40497.279651795427</v>
-      </c>
-      <c r="F15" s="32">
-        <v>7595</v>
-      </c>
-      <c r="G15" s="33">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="9">
-        <v>1972</v>
-      </c>
-      <c r="C16" s="32">
-        <v>961</v>
-      </c>
-      <c r="D16" s="32">
-        <v>40706</v>
-      </c>
-      <c r="E16" s="32">
-        <v>42357.960457856403</v>
-      </c>
-      <c r="F16" s="32">
-        <v>8120</v>
-      </c>
-      <c r="G16" s="33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="9">
-        <v>1973</v>
-      </c>
-      <c r="C17" s="32">
-        <v>1029</v>
-      </c>
-      <c r="D17" s="32">
-        <v>45649</v>
-      </c>
-      <c r="E17" s="32">
-        <v>44362.487852283768</v>
-      </c>
-      <c r="F17" s="32">
-        <v>9026</v>
-      </c>
-      <c r="G17" s="33">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="9">
-        <v>1974</v>
-      </c>
-      <c r="C18" s="32">
-        <v>1085</v>
-      </c>
-      <c r="D18" s="32">
-        <v>45966</v>
-      </c>
-      <c r="E18" s="32">
-        <v>42364.976958525345</v>
-      </c>
-      <c r="F18" s="32">
-        <v>9080</v>
-      </c>
-      <c r="G18" s="33">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="18">
-        <v>1975</v>
-      </c>
-      <c r="C19" s="30">
-        <v>1131</v>
-      </c>
-      <c r="D19" s="30">
-        <v>46724</v>
-      </c>
-      <c r="E19" s="30">
-        <v>41312.113174182137</v>
-      </c>
-      <c r="F19" s="30">
-        <v>9177</v>
-      </c>
-      <c r="G19" s="31">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="9">
-        <v>1976</v>
-      </c>
-      <c r="C20" s="32">
-        <v>1225</v>
-      </c>
-      <c r="D20" s="32">
-        <v>49680</v>
-      </c>
-      <c r="E20" s="32">
-        <v>40555.102040816324</v>
-      </c>
-      <c r="F20" s="32">
-        <v>9703</v>
-      </c>
-      <c r="G20" s="33">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="9">
-        <v>1977</v>
-      </c>
-      <c r="C21" s="32">
-        <v>1240</v>
-      </c>
-      <c r="D21" s="32">
-        <v>55682</v>
-      </c>
-      <c r="E21" s="32">
-        <v>44904.838709677417</v>
-      </c>
-      <c r="F21" s="32">
-        <v>10814</v>
-      </c>
-      <c r="G21" s="33">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="9">
-        <v>1978</v>
-      </c>
-      <c r="C22" s="32">
-        <v>1342</v>
-      </c>
-      <c r="D22" s="32">
-        <v>62992</v>
-      </c>
-      <c r="E22" s="32">
-        <v>46938.897168405369</v>
-      </c>
-      <c r="F22" s="32">
-        <v>12165</v>
-      </c>
-      <c r="G22" s="33">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="9">
-        <v>1979</v>
-      </c>
-      <c r="C23" s="32">
-        <v>1386</v>
-      </c>
-      <c r="D23" s="32">
-        <v>66992</v>
-      </c>
-      <c r="E23" s="32">
-        <v>48334.776334776332</v>
-      </c>
-      <c r="F23" s="32">
-        <v>12864</v>
-      </c>
-      <c r="G23" s="33">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="18">
-        <v>1980</v>
-      </c>
-      <c r="C24" s="30">
-        <v>1417</v>
-      </c>
-      <c r="D24" s="30">
-        <v>68678</v>
-      </c>
-      <c r="E24" s="30">
-        <v>48467</v>
-      </c>
-      <c r="F24" s="30">
-        <v>13037</v>
-      </c>
-      <c r="G24" s="31">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="9">
-        <v>1981</v>
-      </c>
-      <c r="C25" s="32">
-        <v>1261</v>
-      </c>
-      <c r="D25" s="32">
-        <v>69134</v>
-      </c>
-      <c r="E25" s="32">
-        <v>54825</v>
-      </c>
-      <c r="F25" s="32">
-        <v>13509</v>
-      </c>
-      <c r="G25" s="33">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="9">
-        <v>1982</v>
-      </c>
-      <c r="C26" s="32">
-        <v>1265</v>
-      </c>
-      <c r="D26" s="32">
-        <v>70765</v>
-      </c>
-      <c r="E26" s="32">
-        <v>55941</v>
-      </c>
-      <c r="F26" s="32">
-        <v>13583</v>
-      </c>
-      <c r="G26" s="33">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="9">
-        <v>1983</v>
-      </c>
-      <c r="C27" s="32">
-        <v>1304</v>
-      </c>
-      <c r="D27" s="32">
-        <v>73586</v>
-      </c>
-      <c r="E27" s="32">
-        <v>56431</v>
-      </c>
-      <c r="F27" s="32">
-        <v>13796</v>
-      </c>
-      <c r="G27" s="33">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="9">
-        <v>1984</v>
-      </c>
-      <c r="C28" s="32">
-        <v>1340</v>
-      </c>
-      <c r="D28" s="32">
-        <v>77377</v>
-      </c>
-      <c r="E28" s="32">
-        <v>57744</v>
-      </c>
-      <c r="F28" s="32">
-        <v>14188</v>
-      </c>
-      <c r="G28" s="33">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="9">
-        <v>1985</v>
-      </c>
-      <c r="C29" s="32">
-        <v>1403</v>
-      </c>
-      <c r="D29" s="32">
-        <v>78063</v>
-      </c>
-      <c r="E29" s="32">
-        <v>55640</v>
-      </c>
-      <c r="F29" s="32">
-        <v>14005</v>
-      </c>
-      <c r="G29" s="33">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="9">
-        <v>1986</v>
-      </c>
-      <c r="C30" s="32">
-        <v>1408</v>
-      </c>
-      <c r="D30" s="32">
-        <v>81038</v>
-      </c>
-      <c r="E30" s="32">
-        <v>57555</v>
-      </c>
-      <c r="F30" s="32">
-        <v>14475</v>
-      </c>
-      <c r="G30" s="33">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="9">
-        <v>1987</v>
-      </c>
-      <c r="C31" s="32">
-        <v>1530</v>
-      </c>
-      <c r="D31" s="32">
-        <v>85495</v>
-      </c>
-      <c r="E31" s="32">
-        <v>55879</v>
-      </c>
-      <c r="F31" s="32">
-        <v>14990</v>
-      </c>
-      <c r="G31" s="33">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="9">
-        <v>1988</v>
-      </c>
-      <c r="C32" s="32">
-        <v>1667</v>
-      </c>
-      <c r="D32" s="32">
-        <v>88551</v>
-      </c>
-      <c r="E32" s="32">
-        <v>53120</v>
-      </c>
-      <c r="F32" s="32">
-        <v>15224</v>
-      </c>
-      <c r="G32" s="33">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="9">
-        <v>1989</v>
-      </c>
-      <c r="C33" s="32">
-        <v>1707</v>
-      </c>
-      <c r="D33" s="32">
-        <v>91879</v>
-      </c>
-      <c r="E33" s="32">
-        <v>53825</v>
-      </c>
-      <c r="F33" s="32">
-        <v>15733</v>
-      </c>
-      <c r="G33" s="33">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="9">
-        <v>1990</v>
-      </c>
-      <c r="C34" s="32">
-        <v>1709</v>
-      </c>
-      <c r="D34" s="32">
-        <v>94341</v>
-      </c>
-      <c r="E34" s="32">
-        <v>55202</v>
-      </c>
-      <c r="F34" s="32">
-        <v>16133</v>
-      </c>
-      <c r="G34" s="33">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="9">
-        <v>1991</v>
-      </c>
-      <c r="C35" s="32">
-        <v>1691</v>
-      </c>
-      <c r="D35" s="32">
-        <v>96645</v>
-      </c>
-      <c r="E35" s="32">
-        <v>57153</v>
-      </c>
-      <c r="F35" s="32">
-        <v>16809</v>
-      </c>
-      <c r="G35" s="33">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="9">
-        <v>1992</v>
-      </c>
-      <c r="C36" s="32">
-        <v>1675</v>
-      </c>
-      <c r="D36" s="32">
-        <v>99510</v>
-      </c>
-      <c r="E36" s="32">
-        <v>59409</v>
-      </c>
-      <c r="F36" s="32">
-        <v>17216</v>
-      </c>
-      <c r="G36" s="33">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="9">
-        <v>1993</v>
-      </c>
-      <c r="C37" s="32">
-        <v>1680</v>
-      </c>
-      <c r="D37" s="32">
-        <v>103116</v>
-      </c>
-      <c r="E37" s="32">
-        <v>61379</v>
-      </c>
-      <c r="F37" s="32">
-        <v>17748</v>
-      </c>
-      <c r="G37" s="33">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="9">
-        <v>1994</v>
-      </c>
-      <c r="C38" s="32">
-        <v>1681</v>
-      </c>
-      <c r="D38" s="32">
-        <v>108932</v>
-      </c>
-      <c r="E38" s="32">
-        <v>64802</v>
-      </c>
-      <c r="F38" s="32">
-        <v>18653</v>
-      </c>
-      <c r="G38" s="33">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="9">
-        <v>1995</v>
-      </c>
-      <c r="C39" s="32">
-        <v>1696</v>
-      </c>
-      <c r="D39" s="32">
-        <v>115451</v>
-      </c>
-      <c r="E39" s="32">
-        <v>68073</v>
-      </c>
-      <c r="F39" s="32">
-        <v>19777</v>
-      </c>
-      <c r="G39" s="33">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="9">
-        <v>1996</v>
-      </c>
-      <c r="C40" s="32">
-        <v>1747</v>
-      </c>
-      <c r="D40" s="32">
-        <v>118899</v>
-      </c>
-      <c r="E40" s="32">
-        <v>68059</v>
-      </c>
-      <c r="F40" s="32">
-        <v>20192</v>
-      </c>
-      <c r="G40" s="33">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="9">
-        <v>1997</v>
-      </c>
-      <c r="C41" s="32">
-        <v>1790</v>
-      </c>
-      <c r="D41" s="32">
-        <v>124584</v>
-      </c>
-      <c r="E41" s="32">
-        <v>69600</v>
-      </c>
-      <c r="F41" s="32">
-        <v>20302</v>
-      </c>
-      <c r="G41" s="33">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="9">
-        <v>1998</v>
-      </c>
-      <c r="C42" s="32">
-        <v>1831</v>
-      </c>
-      <c r="D42" s="32">
-        <v>128159</v>
-      </c>
-      <c r="E42" s="32">
-        <v>69994</v>
-      </c>
-      <c r="F42" s="32">
-        <v>21100</v>
-      </c>
-      <c r="G42" s="33">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="9">
-        <v>1999</v>
-      </c>
-      <c r="C43" s="32">
-        <v>2029</v>
-      </c>
-      <c r="D43" s="32">
-        <v>132384</v>
-      </c>
-      <c r="E43" s="32">
-        <v>65246</v>
-      </c>
-      <c r="F43" s="32">
-        <v>24537</v>
-      </c>
-      <c r="G43" s="9">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="9">
-        <v>2000</v>
-      </c>
-      <c r="C44" s="32">
-        <v>2097</v>
-      </c>
-      <c r="D44" s="32">
-        <v>135020</v>
-      </c>
-      <c r="E44" s="32">
-        <v>64387</v>
-      </c>
-      <c r="F44" s="32">
-        <v>25666</v>
-      </c>
-      <c r="G44" s="9">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="9">
-        <v>2001</v>
-      </c>
-      <c r="C45" s="32">
-        <v>2154</v>
-      </c>
-      <c r="D45" s="32">
-        <v>136584</v>
-      </c>
-      <c r="E45" s="32">
-        <v>63409</v>
-      </c>
-      <c r="F45" s="32">
-        <v>25512</v>
-      </c>
-      <c r="G45" s="9">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="9">
-        <v>2002</v>
-      </c>
-      <c r="C46" s="32">
-        <v>2277</v>
-      </c>
-      <c r="D46" s="32">
-        <v>138737</v>
-      </c>
-      <c r="E46" s="32">
-        <v>60930</v>
-      </c>
-      <c r="F46" s="32">
-        <v>26480</v>
-      </c>
-      <c r="G46" s="9">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="9">
-        <v>2003</v>
-      </c>
-      <c r="C47" s="32">
-        <v>1908</v>
-      </c>
-      <c r="D47" s="32">
-        <v>140160</v>
-      </c>
-      <c r="E47" s="32">
-        <v>73459</v>
-      </c>
-      <c r="F47" s="32">
-        <v>23815</v>
-      </c>
-      <c r="G47" s="9">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="9">
-        <v>2004</v>
-      </c>
-      <c r="C48" s="32">
-        <v>2010</v>
-      </c>
-      <c r="D48" s="32">
-        <v>142370</v>
-      </c>
-      <c r="E48" s="32">
-        <v>70831</v>
-      </c>
-      <c r="F48" s="32">
-        <v>24191</v>
-      </c>
-      <c r="G48" s="9">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="9">
-        <v>2005</v>
-      </c>
-      <c r="C49" s="32">
-        <v>2087</v>
-      </c>
-      <c r="D49" s="32">
-        <v>144028</v>
-      </c>
-      <c r="E49" s="32">
-        <v>69012</v>
-      </c>
-      <c r="F49" s="32">
-        <v>27689</v>
-      </c>
-      <c r="G49" s="9">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="8">
-        <v>2006</v>
-      </c>
-      <c r="C50" s="34">
-        <v>2170</v>
-      </c>
-      <c r="D50" s="34">
-        <v>142169</v>
-      </c>
-      <c r="E50" s="34">
-        <v>65516</v>
-      </c>
-      <c r="F50" s="34">
-        <v>28107</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="9">
-        <v>2007</v>
-      </c>
-      <c r="C51" s="32">
-        <v>2635</v>
-      </c>
-      <c r="D51" s="32">
-        <v>184199</v>
-      </c>
-      <c r="E51" s="32">
-        <v>69905</v>
-      </c>
-      <c r="F51" s="32">
-        <v>30904</v>
-      </c>
-      <c r="G51" s="33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="9">
-        <v>2008</v>
-      </c>
-      <c r="C52" s="32">
-        <v>2585</v>
-      </c>
-      <c r="D52" s="32">
-        <v>183826</v>
-      </c>
-      <c r="E52" s="32">
-        <v>71113</v>
-      </c>
-      <c r="F52" s="32">
-        <v>30561</v>
-      </c>
-      <c r="G52" s="33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="9">
-        <v>2009</v>
-      </c>
-      <c r="C53" s="32">
-        <v>2617</v>
-      </c>
-      <c r="D53" s="32">
-        <v>168100</v>
-      </c>
-      <c r="E53" s="32">
-        <v>64234</v>
-      </c>
-      <c r="F53" s="32">
-        <v>28050</v>
-      </c>
-      <c r="G53" s="33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="9">
-        <v>2010</v>
-      </c>
-      <c r="C54" s="32">
-        <v>2553</v>
-      </c>
-      <c r="D54" s="32">
-        <v>175789</v>
-      </c>
-      <c r="E54" s="32">
-        <v>68856</v>
-      </c>
-      <c r="F54" s="32">
-        <v>29927</v>
-      </c>
-      <c r="G54" s="33">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B55" s="9">
-        <v>2011</v>
-      </c>
-      <c r="C55" s="32">
-        <v>2452</v>
-      </c>
-      <c r="D55" s="32">
-        <v>163791</v>
-      </c>
-      <c r="E55" s="32">
-        <v>66809</v>
-      </c>
-      <c r="F55" s="32">
-        <v>28181</v>
-      </c>
-      <c r="G55" s="33">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C56" s="32">
-        <v>2469</v>
-      </c>
-      <c r="D56" s="32">
-        <v>163358</v>
-      </c>
-      <c r="E56" s="32">
-        <v>66161</v>
-      </c>
-      <c r="F56" s="32">
-        <v>27926</v>
-      </c>
-      <c r="G56" s="33">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B58" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C58" s="35">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D58" s="35">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E58" s="35">
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B59" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="31">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D59" s="31">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E59" s="31">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F58" s="35">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="G58" s="35">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="37">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="D59" s="37">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="E59" s="37">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F59" s="37">
-        <v>0.01</v>
-      </c>
-      <c r="G59" s="37">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B61" s="38" t="s">
+      <c r="F59" s="31">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G59" s="31">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="33">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D60" s="33">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E60" s="33">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="F60" s="33">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G60" s="33">
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B62" s="34" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C62" s="46"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B63" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C63" s="46"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="46"/>
-    </row>
-    <row r="64" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B66" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="C66" s="63"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="63"/>
-      <c r="F66" s="63"/>
-      <c r="G66" s="63"/>
-    </row>
-    <row r="67" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B67" s="53" t="s">
-        <v>49</v>
+    <row r="63" spans="2:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B64" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+    </row>
+    <row r="65" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B67" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="61"/>
+    </row>
+    <row r="68" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B68" s="49" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B67:G67"/>
     <mergeCell ref="B2:G6"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B58:G58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6107,155 +6208,51 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>57</v>
+      <c r="B2">
+        <v>21385</v>
+      </c>
+      <c r="C2">
+        <v>20366</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="57">
-        <v>2003</v>
-      </c>
-      <c r="B3" s="57">
-        <v>5370035</v>
-      </c>
-      <c r="C3" s="57">
-        <v>9576</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="57">
-        <v>2004</v>
-      </c>
-      <c r="B4" s="57">
-        <v>5767934</v>
-      </c>
-      <c r="C4" s="57">
-        <v>10122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="57">
-        <v>2005</v>
-      </c>
-      <c r="B5" s="57">
-        <v>6227146</v>
-      </c>
-      <c r="C5" s="57">
-        <v>10454</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="57">
-        <v>2006</v>
-      </c>
-      <c r="B6" s="57">
-        <v>6678958</v>
-      </c>
-      <c r="C6" s="57">
-        <v>12049</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="57">
-        <v>2007</v>
-      </c>
-      <c r="B7" s="57">
-        <v>7138476</v>
-      </c>
-      <c r="C7" s="57">
-        <v>21396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="57">
-        <v>2008</v>
-      </c>
-      <c r="B8" s="57">
-        <v>7752926</v>
-      </c>
-      <c r="C8" s="57">
-        <v>20811</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="57">
-        <v>2009</v>
-      </c>
-      <c r="B9" s="57">
-        <v>7929724</v>
-      </c>
-      <c r="C9" s="57">
-        <v>20822</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="57">
-        <v>2010</v>
-      </c>
-      <c r="B10" s="57">
-        <v>8009503</v>
-      </c>
-      <c r="C10" s="57">
-        <v>18513</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="57">
-        <v>2011</v>
-      </c>
-      <c r="B11" s="57">
-        <v>8437502</v>
-      </c>
-      <c r="C11" s="57">
-        <v>18542</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
-        <v>2012</v>
-      </c>
-      <c r="B12" s="56">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
         <v>8454939</v>
       </c>
-      <c r="C12" s="56">
-        <v>21298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C3">
+        <v>8404687</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6277,22 +6274,22 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>68</v>
+        <v>43</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="58">
-        <f>'Table 4.1'!E53</f>
-        <v>12928</v>
+        <v>44</v>
+      </c>
+      <c r="B2" s="52">
+        <f>'Table 4.1'!E54</f>
+        <v>12720</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -6300,19 +6297,19 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="58">
-        <f>(('Table 5.1'!E56*'Table 5.1'!C56)+('Table 5.2'!E56*'Table 5.2'!C56))/('Table 5.2'!C56+'Table 5.1'!C56)</f>
-        <v>25172.581761891361</v>
+      <c r="C3" s="52">
+        <f>(('Table 5.1'!E57*'Table 5.1'!C57)+('Table 5.2'!E57*'Table 5.2'!C57))/('Table 5.2'!C57+'Table 5.1'!C57)</f>
+        <v>25952.281872227988</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6323,7 +6320,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6334,7 +6331,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6345,11 +6342,11 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="58">
-        <f>'NHTSA Table 1'!C12*10^6/'NHTSA Table 1'!B12</f>
-        <v>2519.0010241351238</v>
+        <v>49</v>
+      </c>
+      <c r="B7" s="52">
+        <f>AVERAGE('NHTSA Motorbikes'!B2:C2)*10^6/AVERAGE('NHTSA Motorbikes'!B3:C3)</f>
+        <v>2476.389452529967</v>
       </c>
       <c r="C7">
         <v>0</v>

--- a/InputData/trans/AADTbVT/Avg Annual Dist Traveled by Veh Type.xlsx
+++ b/InputData/trans/AADTbVT/Avg Annual Dist Traveled by Veh Type.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="12330"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="Table 5.2" sheetId="11" r:id="rId4"/>
     <sheet name="NHTSA Motorbikes" sheetId="7" r:id="rId5"/>
     <sheet name="BTS NTS Modal Profile Data" sheetId="9" r:id="rId6"/>
-    <sheet name="AADTbVT" sheetId="6" r:id="rId7"/>
+    <sheet name="AADTbVT-passengers" sheetId="6" r:id="rId7"/>
+    <sheet name="AADTbVT-freight" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="111">
   <si>
     <t>Source:</t>
   </si>
@@ -352,12 +353,6 @@
     <t>motorbikes</t>
   </si>
   <si>
-    <t>passengers</t>
-  </si>
-  <si>
-    <t>freight</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
@@ -613,6 +608,15 @@
   </si>
   <si>
     <t>Summary Statistics for Class 7-8 Combination Trucks, 1970–2014</t>
+  </si>
+  <si>
+    <t>This is a time-series variable to support countries or regions where average distance</t>
+  </si>
+  <si>
+    <t>traveled per year changes over the model run.  The values are constant in the U.S.</t>
+  </si>
+  <si>
+    <t>version of the model.</t>
   </si>
 </sst>
 </file>
@@ -944,60 +948,6 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1018,9 +968,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1037,9 +984,6 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1067,12 +1011,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1082,43 +1020,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -1135,6 +1037,108 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1492,198 +1496,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="51.5703125" customWidth="1"/>
+    <col min="2" max="2" width="51.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>2016</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>2016</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="30" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="41" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="31" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B31" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="59" t="s">
+    <row r="32" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B32" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="59" t="s">
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="41" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="59" t="s">
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="24"/>
+    </row>
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="23"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="59" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="24"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B36" s="22"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="22"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="22"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="23"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="22"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="22"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="22"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>52</v>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1702,578 +1721,578 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="256" width="8.85546875" style="4"/>
-    <col min="257" max="257" width="4.5703125" style="4" customWidth="1"/>
-    <col min="258" max="258" width="10.140625" style="4" customWidth="1"/>
-    <col min="259" max="259" width="12.85546875" style="4" customWidth="1"/>
-    <col min="260" max="260" width="15.5703125" style="4" customWidth="1"/>
-    <col min="261" max="261" width="11.7109375" style="4" customWidth="1"/>
-    <col min="262" max="262" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="264" max="512" width="8.85546875" style="4"/>
-    <col min="513" max="513" width="4.5703125" style="4" customWidth="1"/>
-    <col min="514" max="514" width="10.140625" style="4" customWidth="1"/>
-    <col min="515" max="515" width="12.85546875" style="4" customWidth="1"/>
-    <col min="516" max="516" width="15.5703125" style="4" customWidth="1"/>
-    <col min="517" max="517" width="11.7109375" style="4" customWidth="1"/>
-    <col min="518" max="518" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="520" max="768" width="8.85546875" style="4"/>
-    <col min="769" max="769" width="4.5703125" style="4" customWidth="1"/>
-    <col min="770" max="770" width="10.140625" style="4" customWidth="1"/>
-    <col min="771" max="771" width="12.85546875" style="4" customWidth="1"/>
-    <col min="772" max="772" width="15.5703125" style="4" customWidth="1"/>
-    <col min="773" max="773" width="11.7109375" style="4" customWidth="1"/>
-    <col min="774" max="774" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="776" max="1024" width="8.85546875" style="4"/>
-    <col min="1025" max="1025" width="4.5703125" style="4" customWidth="1"/>
-    <col min="1026" max="1026" width="10.140625" style="4" customWidth="1"/>
-    <col min="1027" max="1027" width="12.85546875" style="4" customWidth="1"/>
-    <col min="1028" max="1028" width="15.5703125" style="4" customWidth="1"/>
-    <col min="1029" max="1029" width="11.7109375" style="4" customWidth="1"/>
-    <col min="1030" max="1030" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1280" width="8.85546875" style="4"/>
-    <col min="1281" max="1281" width="4.5703125" style="4" customWidth="1"/>
-    <col min="1282" max="1282" width="10.140625" style="4" customWidth="1"/>
-    <col min="1283" max="1283" width="12.85546875" style="4" customWidth="1"/>
-    <col min="1284" max="1284" width="15.5703125" style="4" customWidth="1"/>
-    <col min="1285" max="1285" width="11.7109375" style="4" customWidth="1"/>
-    <col min="1286" max="1286" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1536" width="8.85546875" style="4"/>
-    <col min="1537" max="1537" width="4.5703125" style="4" customWidth="1"/>
-    <col min="1538" max="1538" width="10.140625" style="4" customWidth="1"/>
-    <col min="1539" max="1539" width="12.85546875" style="4" customWidth="1"/>
-    <col min="1540" max="1540" width="15.5703125" style="4" customWidth="1"/>
-    <col min="1541" max="1541" width="11.7109375" style="4" customWidth="1"/>
-    <col min="1542" max="1542" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1792" width="8.85546875" style="4"/>
-    <col min="1793" max="1793" width="4.5703125" style="4" customWidth="1"/>
-    <col min="1794" max="1794" width="10.140625" style="4" customWidth="1"/>
-    <col min="1795" max="1795" width="12.85546875" style="4" customWidth="1"/>
-    <col min="1796" max="1796" width="15.5703125" style="4" customWidth="1"/>
-    <col min="1797" max="1797" width="11.7109375" style="4" customWidth="1"/>
-    <col min="1798" max="1798" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="1800" max="2048" width="8.85546875" style="4"/>
-    <col min="2049" max="2049" width="4.5703125" style="4" customWidth="1"/>
-    <col min="2050" max="2050" width="10.140625" style="4" customWidth="1"/>
-    <col min="2051" max="2051" width="12.85546875" style="4" customWidth="1"/>
-    <col min="2052" max="2052" width="15.5703125" style="4" customWidth="1"/>
-    <col min="2053" max="2053" width="11.7109375" style="4" customWidth="1"/>
-    <col min="2054" max="2054" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2304" width="8.85546875" style="4"/>
-    <col min="2305" max="2305" width="4.5703125" style="4" customWidth="1"/>
-    <col min="2306" max="2306" width="10.140625" style="4" customWidth="1"/>
-    <col min="2307" max="2307" width="12.85546875" style="4" customWidth="1"/>
-    <col min="2308" max="2308" width="15.5703125" style="4" customWidth="1"/>
-    <col min="2309" max="2309" width="11.7109375" style="4" customWidth="1"/>
-    <col min="2310" max="2310" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2560" width="8.85546875" style="4"/>
-    <col min="2561" max="2561" width="4.5703125" style="4" customWidth="1"/>
-    <col min="2562" max="2562" width="10.140625" style="4" customWidth="1"/>
-    <col min="2563" max="2563" width="12.85546875" style="4" customWidth="1"/>
-    <col min="2564" max="2564" width="15.5703125" style="4" customWidth="1"/>
-    <col min="2565" max="2565" width="11.7109375" style="4" customWidth="1"/>
-    <col min="2566" max="2566" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2816" width="8.85546875" style="4"/>
-    <col min="2817" max="2817" width="4.5703125" style="4" customWidth="1"/>
-    <col min="2818" max="2818" width="10.140625" style="4" customWidth="1"/>
-    <col min="2819" max="2819" width="12.85546875" style="4" customWidth="1"/>
-    <col min="2820" max="2820" width="15.5703125" style="4" customWidth="1"/>
-    <col min="2821" max="2821" width="11.7109375" style="4" customWidth="1"/>
-    <col min="2822" max="2822" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2824" max="3072" width="8.85546875" style="4"/>
-    <col min="3073" max="3073" width="4.5703125" style="4" customWidth="1"/>
-    <col min="3074" max="3074" width="10.140625" style="4" customWidth="1"/>
-    <col min="3075" max="3075" width="12.85546875" style="4" customWidth="1"/>
-    <col min="3076" max="3076" width="15.5703125" style="4" customWidth="1"/>
-    <col min="3077" max="3077" width="11.7109375" style="4" customWidth="1"/>
-    <col min="3078" max="3078" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3328" width="8.85546875" style="4"/>
-    <col min="3329" max="3329" width="4.5703125" style="4" customWidth="1"/>
-    <col min="3330" max="3330" width="10.140625" style="4" customWidth="1"/>
-    <col min="3331" max="3331" width="12.85546875" style="4" customWidth="1"/>
-    <col min="3332" max="3332" width="15.5703125" style="4" customWidth="1"/>
-    <col min="3333" max="3333" width="11.7109375" style="4" customWidth="1"/>
-    <col min="3334" max="3334" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3584" width="8.85546875" style="4"/>
-    <col min="3585" max="3585" width="4.5703125" style="4" customWidth="1"/>
-    <col min="3586" max="3586" width="10.140625" style="4" customWidth="1"/>
-    <col min="3587" max="3587" width="12.85546875" style="4" customWidth="1"/>
-    <col min="3588" max="3588" width="15.5703125" style="4" customWidth="1"/>
-    <col min="3589" max="3589" width="11.7109375" style="4" customWidth="1"/>
-    <col min="3590" max="3590" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3840" width="8.85546875" style="4"/>
-    <col min="3841" max="3841" width="4.5703125" style="4" customWidth="1"/>
-    <col min="3842" max="3842" width="10.140625" style="4" customWidth="1"/>
-    <col min="3843" max="3843" width="12.85546875" style="4" customWidth="1"/>
-    <col min="3844" max="3844" width="15.5703125" style="4" customWidth="1"/>
-    <col min="3845" max="3845" width="11.7109375" style="4" customWidth="1"/>
-    <col min="3846" max="3846" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3848" max="4096" width="8.85546875" style="4"/>
-    <col min="4097" max="4097" width="4.5703125" style="4" customWidth="1"/>
-    <col min="4098" max="4098" width="10.140625" style="4" customWidth="1"/>
-    <col min="4099" max="4099" width="12.85546875" style="4" customWidth="1"/>
-    <col min="4100" max="4100" width="15.5703125" style="4" customWidth="1"/>
-    <col min="4101" max="4101" width="11.7109375" style="4" customWidth="1"/>
-    <col min="4102" max="4102" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4352" width="8.85546875" style="4"/>
-    <col min="4353" max="4353" width="4.5703125" style="4" customWidth="1"/>
-    <col min="4354" max="4354" width="10.140625" style="4" customWidth="1"/>
-    <col min="4355" max="4355" width="12.85546875" style="4" customWidth="1"/>
-    <col min="4356" max="4356" width="15.5703125" style="4" customWidth="1"/>
-    <col min="4357" max="4357" width="11.7109375" style="4" customWidth="1"/>
-    <col min="4358" max="4358" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4608" width="8.85546875" style="4"/>
-    <col min="4609" max="4609" width="4.5703125" style="4" customWidth="1"/>
-    <col min="4610" max="4610" width="10.140625" style="4" customWidth="1"/>
-    <col min="4611" max="4611" width="12.85546875" style="4" customWidth="1"/>
-    <col min="4612" max="4612" width="15.5703125" style="4" customWidth="1"/>
-    <col min="4613" max="4613" width="11.7109375" style="4" customWidth="1"/>
-    <col min="4614" max="4614" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4864" width="8.85546875" style="4"/>
-    <col min="4865" max="4865" width="4.5703125" style="4" customWidth="1"/>
-    <col min="4866" max="4866" width="10.140625" style="4" customWidth="1"/>
-    <col min="4867" max="4867" width="12.85546875" style="4" customWidth="1"/>
-    <col min="4868" max="4868" width="15.5703125" style="4" customWidth="1"/>
-    <col min="4869" max="4869" width="11.7109375" style="4" customWidth="1"/>
-    <col min="4870" max="4870" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4872" max="5120" width="8.85546875" style="4"/>
-    <col min="5121" max="5121" width="4.5703125" style="4" customWidth="1"/>
-    <col min="5122" max="5122" width="10.140625" style="4" customWidth="1"/>
-    <col min="5123" max="5123" width="12.85546875" style="4" customWidth="1"/>
-    <col min="5124" max="5124" width="15.5703125" style="4" customWidth="1"/>
-    <col min="5125" max="5125" width="11.7109375" style="4" customWidth="1"/>
-    <col min="5126" max="5126" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5376" width="8.85546875" style="4"/>
-    <col min="5377" max="5377" width="4.5703125" style="4" customWidth="1"/>
-    <col min="5378" max="5378" width="10.140625" style="4" customWidth="1"/>
-    <col min="5379" max="5379" width="12.85546875" style="4" customWidth="1"/>
-    <col min="5380" max="5380" width="15.5703125" style="4" customWidth="1"/>
-    <col min="5381" max="5381" width="11.7109375" style="4" customWidth="1"/>
-    <col min="5382" max="5382" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5632" width="8.85546875" style="4"/>
-    <col min="5633" max="5633" width="4.5703125" style="4" customWidth="1"/>
-    <col min="5634" max="5634" width="10.140625" style="4" customWidth="1"/>
-    <col min="5635" max="5635" width="12.85546875" style="4" customWidth="1"/>
-    <col min="5636" max="5636" width="15.5703125" style="4" customWidth="1"/>
-    <col min="5637" max="5637" width="11.7109375" style="4" customWidth="1"/>
-    <col min="5638" max="5638" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5888" width="8.85546875" style="4"/>
-    <col min="5889" max="5889" width="4.5703125" style="4" customWidth="1"/>
-    <col min="5890" max="5890" width="10.140625" style="4" customWidth="1"/>
-    <col min="5891" max="5891" width="12.85546875" style="4" customWidth="1"/>
-    <col min="5892" max="5892" width="15.5703125" style="4" customWidth="1"/>
-    <col min="5893" max="5893" width="11.7109375" style="4" customWidth="1"/>
-    <col min="5894" max="5894" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5896" max="6144" width="8.85546875" style="4"/>
-    <col min="6145" max="6145" width="4.5703125" style="4" customWidth="1"/>
-    <col min="6146" max="6146" width="10.140625" style="4" customWidth="1"/>
-    <col min="6147" max="6147" width="12.85546875" style="4" customWidth="1"/>
-    <col min="6148" max="6148" width="15.5703125" style="4" customWidth="1"/>
-    <col min="6149" max="6149" width="11.7109375" style="4" customWidth="1"/>
-    <col min="6150" max="6150" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6400" width="8.85546875" style="4"/>
-    <col min="6401" max="6401" width="4.5703125" style="4" customWidth="1"/>
-    <col min="6402" max="6402" width="10.140625" style="4" customWidth="1"/>
-    <col min="6403" max="6403" width="12.85546875" style="4" customWidth="1"/>
-    <col min="6404" max="6404" width="15.5703125" style="4" customWidth="1"/>
-    <col min="6405" max="6405" width="11.7109375" style="4" customWidth="1"/>
-    <col min="6406" max="6406" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6656" width="8.85546875" style="4"/>
-    <col min="6657" max="6657" width="4.5703125" style="4" customWidth="1"/>
-    <col min="6658" max="6658" width="10.140625" style="4" customWidth="1"/>
-    <col min="6659" max="6659" width="12.85546875" style="4" customWidth="1"/>
-    <col min="6660" max="6660" width="15.5703125" style="4" customWidth="1"/>
-    <col min="6661" max="6661" width="11.7109375" style="4" customWidth="1"/>
-    <col min="6662" max="6662" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6912" width="8.85546875" style="4"/>
-    <col min="6913" max="6913" width="4.5703125" style="4" customWidth="1"/>
-    <col min="6914" max="6914" width="10.140625" style="4" customWidth="1"/>
-    <col min="6915" max="6915" width="12.85546875" style="4" customWidth="1"/>
-    <col min="6916" max="6916" width="15.5703125" style="4" customWidth="1"/>
-    <col min="6917" max="6917" width="11.7109375" style="4" customWidth="1"/>
-    <col min="6918" max="6918" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6920" max="7168" width="8.85546875" style="4"/>
-    <col min="7169" max="7169" width="4.5703125" style="4" customWidth="1"/>
-    <col min="7170" max="7170" width="10.140625" style="4" customWidth="1"/>
-    <col min="7171" max="7171" width="12.85546875" style="4" customWidth="1"/>
-    <col min="7172" max="7172" width="15.5703125" style="4" customWidth="1"/>
-    <col min="7173" max="7173" width="11.7109375" style="4" customWidth="1"/>
-    <col min="7174" max="7174" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7424" width="8.85546875" style="4"/>
-    <col min="7425" max="7425" width="4.5703125" style="4" customWidth="1"/>
-    <col min="7426" max="7426" width="10.140625" style="4" customWidth="1"/>
-    <col min="7427" max="7427" width="12.85546875" style="4" customWidth="1"/>
-    <col min="7428" max="7428" width="15.5703125" style="4" customWidth="1"/>
-    <col min="7429" max="7429" width="11.7109375" style="4" customWidth="1"/>
-    <col min="7430" max="7430" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7680" width="8.85546875" style="4"/>
-    <col min="7681" max="7681" width="4.5703125" style="4" customWidth="1"/>
-    <col min="7682" max="7682" width="10.140625" style="4" customWidth="1"/>
-    <col min="7683" max="7683" width="12.85546875" style="4" customWidth="1"/>
-    <col min="7684" max="7684" width="15.5703125" style="4" customWidth="1"/>
-    <col min="7685" max="7685" width="11.7109375" style="4" customWidth="1"/>
-    <col min="7686" max="7686" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7936" width="8.85546875" style="4"/>
-    <col min="7937" max="7937" width="4.5703125" style="4" customWidth="1"/>
-    <col min="7938" max="7938" width="10.140625" style="4" customWidth="1"/>
-    <col min="7939" max="7939" width="12.85546875" style="4" customWidth="1"/>
-    <col min="7940" max="7940" width="15.5703125" style="4" customWidth="1"/>
-    <col min="7941" max="7941" width="11.7109375" style="4" customWidth="1"/>
-    <col min="7942" max="7942" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7944" max="8192" width="8.85546875" style="4"/>
-    <col min="8193" max="8193" width="4.5703125" style="4" customWidth="1"/>
-    <col min="8194" max="8194" width="10.140625" style="4" customWidth="1"/>
-    <col min="8195" max="8195" width="12.85546875" style="4" customWidth="1"/>
-    <col min="8196" max="8196" width="15.5703125" style="4" customWidth="1"/>
-    <col min="8197" max="8197" width="11.7109375" style="4" customWidth="1"/>
-    <col min="8198" max="8198" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8448" width="8.85546875" style="4"/>
-    <col min="8449" max="8449" width="4.5703125" style="4" customWidth="1"/>
-    <col min="8450" max="8450" width="10.140625" style="4" customWidth="1"/>
-    <col min="8451" max="8451" width="12.85546875" style="4" customWidth="1"/>
-    <col min="8452" max="8452" width="15.5703125" style="4" customWidth="1"/>
-    <col min="8453" max="8453" width="11.7109375" style="4" customWidth="1"/>
-    <col min="8454" max="8454" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8704" width="8.85546875" style="4"/>
-    <col min="8705" max="8705" width="4.5703125" style="4" customWidth="1"/>
-    <col min="8706" max="8706" width="10.140625" style="4" customWidth="1"/>
-    <col min="8707" max="8707" width="12.85546875" style="4" customWidth="1"/>
-    <col min="8708" max="8708" width="15.5703125" style="4" customWidth="1"/>
-    <col min="8709" max="8709" width="11.7109375" style="4" customWidth="1"/>
-    <col min="8710" max="8710" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8960" width="8.85546875" style="4"/>
-    <col min="8961" max="8961" width="4.5703125" style="4" customWidth="1"/>
-    <col min="8962" max="8962" width="10.140625" style="4" customWidth="1"/>
-    <col min="8963" max="8963" width="12.85546875" style="4" customWidth="1"/>
-    <col min="8964" max="8964" width="15.5703125" style="4" customWidth="1"/>
-    <col min="8965" max="8965" width="11.7109375" style="4" customWidth="1"/>
-    <col min="8966" max="8966" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8968" max="9216" width="8.85546875" style="4"/>
-    <col min="9217" max="9217" width="4.5703125" style="4" customWidth="1"/>
-    <col min="9218" max="9218" width="10.140625" style="4" customWidth="1"/>
-    <col min="9219" max="9219" width="12.85546875" style="4" customWidth="1"/>
-    <col min="9220" max="9220" width="15.5703125" style="4" customWidth="1"/>
-    <col min="9221" max="9221" width="11.7109375" style="4" customWidth="1"/>
-    <col min="9222" max="9222" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9472" width="8.85546875" style="4"/>
-    <col min="9473" max="9473" width="4.5703125" style="4" customWidth="1"/>
-    <col min="9474" max="9474" width="10.140625" style="4" customWidth="1"/>
-    <col min="9475" max="9475" width="12.85546875" style="4" customWidth="1"/>
-    <col min="9476" max="9476" width="15.5703125" style="4" customWidth="1"/>
-    <col min="9477" max="9477" width="11.7109375" style="4" customWidth="1"/>
-    <col min="9478" max="9478" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9728" width="8.85546875" style="4"/>
-    <col min="9729" max="9729" width="4.5703125" style="4" customWidth="1"/>
-    <col min="9730" max="9730" width="10.140625" style="4" customWidth="1"/>
-    <col min="9731" max="9731" width="12.85546875" style="4" customWidth="1"/>
-    <col min="9732" max="9732" width="15.5703125" style="4" customWidth="1"/>
-    <col min="9733" max="9733" width="11.7109375" style="4" customWidth="1"/>
-    <col min="9734" max="9734" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9984" width="8.85546875" style="4"/>
-    <col min="9985" max="9985" width="4.5703125" style="4" customWidth="1"/>
-    <col min="9986" max="9986" width="10.140625" style="4" customWidth="1"/>
-    <col min="9987" max="9987" width="12.85546875" style="4" customWidth="1"/>
-    <col min="9988" max="9988" width="15.5703125" style="4" customWidth="1"/>
-    <col min="9989" max="9989" width="11.7109375" style="4" customWidth="1"/>
-    <col min="9990" max="9990" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9992" max="10240" width="8.85546875" style="4"/>
-    <col min="10241" max="10241" width="4.5703125" style="4" customWidth="1"/>
-    <col min="10242" max="10242" width="10.140625" style="4" customWidth="1"/>
-    <col min="10243" max="10243" width="12.85546875" style="4" customWidth="1"/>
-    <col min="10244" max="10244" width="15.5703125" style="4" customWidth="1"/>
-    <col min="10245" max="10245" width="11.7109375" style="4" customWidth="1"/>
-    <col min="10246" max="10246" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10496" width="8.85546875" style="4"/>
-    <col min="10497" max="10497" width="4.5703125" style="4" customWidth="1"/>
-    <col min="10498" max="10498" width="10.140625" style="4" customWidth="1"/>
-    <col min="10499" max="10499" width="12.85546875" style="4" customWidth="1"/>
-    <col min="10500" max="10500" width="15.5703125" style="4" customWidth="1"/>
-    <col min="10501" max="10501" width="11.7109375" style="4" customWidth="1"/>
-    <col min="10502" max="10502" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10752" width="8.85546875" style="4"/>
-    <col min="10753" max="10753" width="4.5703125" style="4" customWidth="1"/>
-    <col min="10754" max="10754" width="10.140625" style="4" customWidth="1"/>
-    <col min="10755" max="10755" width="12.85546875" style="4" customWidth="1"/>
-    <col min="10756" max="10756" width="15.5703125" style="4" customWidth="1"/>
-    <col min="10757" max="10757" width="11.7109375" style="4" customWidth="1"/>
-    <col min="10758" max="10758" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10760" max="11008" width="8.85546875" style="4"/>
-    <col min="11009" max="11009" width="4.5703125" style="4" customWidth="1"/>
-    <col min="11010" max="11010" width="10.140625" style="4" customWidth="1"/>
-    <col min="11011" max="11011" width="12.85546875" style="4" customWidth="1"/>
-    <col min="11012" max="11012" width="15.5703125" style="4" customWidth="1"/>
-    <col min="11013" max="11013" width="11.7109375" style="4" customWidth="1"/>
-    <col min="11014" max="11014" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11264" width="8.85546875" style="4"/>
-    <col min="11265" max="11265" width="4.5703125" style="4" customWidth="1"/>
-    <col min="11266" max="11266" width="10.140625" style="4" customWidth="1"/>
-    <col min="11267" max="11267" width="12.85546875" style="4" customWidth="1"/>
-    <col min="11268" max="11268" width="15.5703125" style="4" customWidth="1"/>
-    <col min="11269" max="11269" width="11.7109375" style="4" customWidth="1"/>
-    <col min="11270" max="11270" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11520" width="8.85546875" style="4"/>
-    <col min="11521" max="11521" width="4.5703125" style="4" customWidth="1"/>
-    <col min="11522" max="11522" width="10.140625" style="4" customWidth="1"/>
-    <col min="11523" max="11523" width="12.85546875" style="4" customWidth="1"/>
-    <col min="11524" max="11524" width="15.5703125" style="4" customWidth="1"/>
-    <col min="11525" max="11525" width="11.7109375" style="4" customWidth="1"/>
-    <col min="11526" max="11526" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11776" width="8.85546875" style="4"/>
-    <col min="11777" max="11777" width="4.5703125" style="4" customWidth="1"/>
-    <col min="11778" max="11778" width="10.140625" style="4" customWidth="1"/>
-    <col min="11779" max="11779" width="12.85546875" style="4" customWidth="1"/>
-    <col min="11780" max="11780" width="15.5703125" style="4" customWidth="1"/>
-    <col min="11781" max="11781" width="11.7109375" style="4" customWidth="1"/>
-    <col min="11782" max="11782" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11784" max="12032" width="8.85546875" style="4"/>
-    <col min="12033" max="12033" width="4.5703125" style="4" customWidth="1"/>
-    <col min="12034" max="12034" width="10.140625" style="4" customWidth="1"/>
-    <col min="12035" max="12035" width="12.85546875" style="4" customWidth="1"/>
-    <col min="12036" max="12036" width="15.5703125" style="4" customWidth="1"/>
-    <col min="12037" max="12037" width="11.7109375" style="4" customWidth="1"/>
-    <col min="12038" max="12038" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12288" width="8.85546875" style="4"/>
-    <col min="12289" max="12289" width="4.5703125" style="4" customWidth="1"/>
-    <col min="12290" max="12290" width="10.140625" style="4" customWidth="1"/>
-    <col min="12291" max="12291" width="12.85546875" style="4" customWidth="1"/>
-    <col min="12292" max="12292" width="15.5703125" style="4" customWidth="1"/>
-    <col min="12293" max="12293" width="11.7109375" style="4" customWidth="1"/>
-    <col min="12294" max="12294" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12544" width="8.85546875" style="4"/>
-    <col min="12545" max="12545" width="4.5703125" style="4" customWidth="1"/>
-    <col min="12546" max="12546" width="10.140625" style="4" customWidth="1"/>
-    <col min="12547" max="12547" width="12.85546875" style="4" customWidth="1"/>
-    <col min="12548" max="12548" width="15.5703125" style="4" customWidth="1"/>
-    <col min="12549" max="12549" width="11.7109375" style="4" customWidth="1"/>
-    <col min="12550" max="12550" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12800" width="8.85546875" style="4"/>
-    <col min="12801" max="12801" width="4.5703125" style="4" customWidth="1"/>
-    <col min="12802" max="12802" width="10.140625" style="4" customWidth="1"/>
-    <col min="12803" max="12803" width="12.85546875" style="4" customWidth="1"/>
-    <col min="12804" max="12804" width="15.5703125" style="4" customWidth="1"/>
-    <col min="12805" max="12805" width="11.7109375" style="4" customWidth="1"/>
-    <col min="12806" max="12806" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12808" max="13056" width="8.85546875" style="4"/>
-    <col min="13057" max="13057" width="4.5703125" style="4" customWidth="1"/>
-    <col min="13058" max="13058" width="10.140625" style="4" customWidth="1"/>
-    <col min="13059" max="13059" width="12.85546875" style="4" customWidth="1"/>
-    <col min="13060" max="13060" width="15.5703125" style="4" customWidth="1"/>
-    <col min="13061" max="13061" width="11.7109375" style="4" customWidth="1"/>
-    <col min="13062" max="13062" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13312" width="8.85546875" style="4"/>
-    <col min="13313" max="13313" width="4.5703125" style="4" customWidth="1"/>
-    <col min="13314" max="13314" width="10.140625" style="4" customWidth="1"/>
-    <col min="13315" max="13315" width="12.85546875" style="4" customWidth="1"/>
-    <col min="13316" max="13316" width="15.5703125" style="4" customWidth="1"/>
-    <col min="13317" max="13317" width="11.7109375" style="4" customWidth="1"/>
-    <col min="13318" max="13318" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13568" width="8.85546875" style="4"/>
-    <col min="13569" max="13569" width="4.5703125" style="4" customWidth="1"/>
-    <col min="13570" max="13570" width="10.140625" style="4" customWidth="1"/>
-    <col min="13571" max="13571" width="12.85546875" style="4" customWidth="1"/>
-    <col min="13572" max="13572" width="15.5703125" style="4" customWidth="1"/>
-    <col min="13573" max="13573" width="11.7109375" style="4" customWidth="1"/>
-    <col min="13574" max="13574" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13824" width="8.85546875" style="4"/>
-    <col min="13825" max="13825" width="4.5703125" style="4" customWidth="1"/>
-    <col min="13826" max="13826" width="10.140625" style="4" customWidth="1"/>
-    <col min="13827" max="13827" width="12.85546875" style="4" customWidth="1"/>
-    <col min="13828" max="13828" width="15.5703125" style="4" customWidth="1"/>
-    <col min="13829" max="13829" width="11.7109375" style="4" customWidth="1"/>
-    <col min="13830" max="13830" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13832" max="14080" width="8.85546875" style="4"/>
-    <col min="14081" max="14081" width="4.5703125" style="4" customWidth="1"/>
-    <col min="14082" max="14082" width="10.140625" style="4" customWidth="1"/>
-    <col min="14083" max="14083" width="12.85546875" style="4" customWidth="1"/>
-    <col min="14084" max="14084" width="15.5703125" style="4" customWidth="1"/>
-    <col min="14085" max="14085" width="11.7109375" style="4" customWidth="1"/>
-    <col min="14086" max="14086" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14336" width="8.85546875" style="4"/>
-    <col min="14337" max="14337" width="4.5703125" style="4" customWidth="1"/>
-    <col min="14338" max="14338" width="10.140625" style="4" customWidth="1"/>
-    <col min="14339" max="14339" width="12.85546875" style="4" customWidth="1"/>
-    <col min="14340" max="14340" width="15.5703125" style="4" customWidth="1"/>
-    <col min="14341" max="14341" width="11.7109375" style="4" customWidth="1"/>
-    <col min="14342" max="14342" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14592" width="8.85546875" style="4"/>
-    <col min="14593" max="14593" width="4.5703125" style="4" customWidth="1"/>
-    <col min="14594" max="14594" width="10.140625" style="4" customWidth="1"/>
-    <col min="14595" max="14595" width="12.85546875" style="4" customWidth="1"/>
-    <col min="14596" max="14596" width="15.5703125" style="4" customWidth="1"/>
-    <col min="14597" max="14597" width="11.7109375" style="4" customWidth="1"/>
-    <col min="14598" max="14598" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14848" width="8.85546875" style="4"/>
-    <col min="14849" max="14849" width="4.5703125" style="4" customWidth="1"/>
-    <col min="14850" max="14850" width="10.140625" style="4" customWidth="1"/>
-    <col min="14851" max="14851" width="12.85546875" style="4" customWidth="1"/>
-    <col min="14852" max="14852" width="15.5703125" style="4" customWidth="1"/>
-    <col min="14853" max="14853" width="11.7109375" style="4" customWidth="1"/>
-    <col min="14854" max="14854" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14856" max="15104" width="8.85546875" style="4"/>
-    <col min="15105" max="15105" width="4.5703125" style="4" customWidth="1"/>
-    <col min="15106" max="15106" width="10.140625" style="4" customWidth="1"/>
-    <col min="15107" max="15107" width="12.85546875" style="4" customWidth="1"/>
-    <col min="15108" max="15108" width="15.5703125" style="4" customWidth="1"/>
-    <col min="15109" max="15109" width="11.7109375" style="4" customWidth="1"/>
-    <col min="15110" max="15110" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15360" width="8.85546875" style="4"/>
-    <col min="15361" max="15361" width="4.5703125" style="4" customWidth="1"/>
-    <col min="15362" max="15362" width="10.140625" style="4" customWidth="1"/>
-    <col min="15363" max="15363" width="12.85546875" style="4" customWidth="1"/>
-    <col min="15364" max="15364" width="15.5703125" style="4" customWidth="1"/>
-    <col min="15365" max="15365" width="11.7109375" style="4" customWidth="1"/>
-    <col min="15366" max="15366" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15616" width="8.85546875" style="4"/>
-    <col min="15617" max="15617" width="4.5703125" style="4" customWidth="1"/>
-    <col min="15618" max="15618" width="10.140625" style="4" customWidth="1"/>
-    <col min="15619" max="15619" width="12.85546875" style="4" customWidth="1"/>
-    <col min="15620" max="15620" width="15.5703125" style="4" customWidth="1"/>
-    <col min="15621" max="15621" width="11.7109375" style="4" customWidth="1"/>
-    <col min="15622" max="15622" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15872" width="8.85546875" style="4"/>
-    <col min="15873" max="15873" width="4.5703125" style="4" customWidth="1"/>
-    <col min="15874" max="15874" width="10.140625" style="4" customWidth="1"/>
-    <col min="15875" max="15875" width="12.85546875" style="4" customWidth="1"/>
-    <col min="15876" max="15876" width="15.5703125" style="4" customWidth="1"/>
-    <col min="15877" max="15877" width="11.7109375" style="4" customWidth="1"/>
-    <col min="15878" max="15878" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15880" max="16128" width="8.85546875" style="4"/>
-    <col min="16129" max="16129" width="4.5703125" style="4" customWidth="1"/>
-    <col min="16130" max="16130" width="10.140625" style="4" customWidth="1"/>
-    <col min="16131" max="16131" width="12.85546875" style="4" customWidth="1"/>
-    <col min="16132" max="16132" width="15.5703125" style="4" customWidth="1"/>
-    <col min="16133" max="16133" width="11.7109375" style="4" customWidth="1"/>
-    <col min="16134" max="16134" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="4.54296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="256" width="8.81640625" style="4"/>
+    <col min="257" max="257" width="4.54296875" style="4" customWidth="1"/>
+    <col min="258" max="258" width="10.1796875" style="4" customWidth="1"/>
+    <col min="259" max="259" width="12.81640625" style="4" customWidth="1"/>
+    <col min="260" max="260" width="15.54296875" style="4" customWidth="1"/>
+    <col min="261" max="261" width="11.7265625" style="4" customWidth="1"/>
+    <col min="262" max="262" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="264" max="512" width="8.81640625" style="4"/>
+    <col min="513" max="513" width="4.54296875" style="4" customWidth="1"/>
+    <col min="514" max="514" width="10.1796875" style="4" customWidth="1"/>
+    <col min="515" max="515" width="12.81640625" style="4" customWidth="1"/>
+    <col min="516" max="516" width="15.54296875" style="4" customWidth="1"/>
+    <col min="517" max="517" width="11.7265625" style="4" customWidth="1"/>
+    <col min="518" max="518" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="520" max="768" width="8.81640625" style="4"/>
+    <col min="769" max="769" width="4.54296875" style="4" customWidth="1"/>
+    <col min="770" max="770" width="10.1796875" style="4" customWidth="1"/>
+    <col min="771" max="771" width="12.81640625" style="4" customWidth="1"/>
+    <col min="772" max="772" width="15.54296875" style="4" customWidth="1"/>
+    <col min="773" max="773" width="11.7265625" style="4" customWidth="1"/>
+    <col min="774" max="774" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="776" max="1024" width="8.81640625" style="4"/>
+    <col min="1025" max="1025" width="4.54296875" style="4" customWidth="1"/>
+    <col min="1026" max="1026" width="10.1796875" style="4" customWidth="1"/>
+    <col min="1027" max="1027" width="12.81640625" style="4" customWidth="1"/>
+    <col min="1028" max="1028" width="15.54296875" style="4" customWidth="1"/>
+    <col min="1029" max="1029" width="11.7265625" style="4" customWidth="1"/>
+    <col min="1030" max="1030" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1280" width="8.81640625" style="4"/>
+    <col min="1281" max="1281" width="4.54296875" style="4" customWidth="1"/>
+    <col min="1282" max="1282" width="10.1796875" style="4" customWidth="1"/>
+    <col min="1283" max="1283" width="12.81640625" style="4" customWidth="1"/>
+    <col min="1284" max="1284" width="15.54296875" style="4" customWidth="1"/>
+    <col min="1285" max="1285" width="11.7265625" style="4" customWidth="1"/>
+    <col min="1286" max="1286" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1536" width="8.81640625" style="4"/>
+    <col min="1537" max="1537" width="4.54296875" style="4" customWidth="1"/>
+    <col min="1538" max="1538" width="10.1796875" style="4" customWidth="1"/>
+    <col min="1539" max="1539" width="12.81640625" style="4" customWidth="1"/>
+    <col min="1540" max="1540" width="15.54296875" style="4" customWidth="1"/>
+    <col min="1541" max="1541" width="11.7265625" style="4" customWidth="1"/>
+    <col min="1542" max="1542" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1792" width="8.81640625" style="4"/>
+    <col min="1793" max="1793" width="4.54296875" style="4" customWidth="1"/>
+    <col min="1794" max="1794" width="10.1796875" style="4" customWidth="1"/>
+    <col min="1795" max="1795" width="12.81640625" style="4" customWidth="1"/>
+    <col min="1796" max="1796" width="15.54296875" style="4" customWidth="1"/>
+    <col min="1797" max="1797" width="11.7265625" style="4" customWidth="1"/>
+    <col min="1798" max="1798" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1800" max="2048" width="8.81640625" style="4"/>
+    <col min="2049" max="2049" width="4.54296875" style="4" customWidth="1"/>
+    <col min="2050" max="2050" width="10.1796875" style="4" customWidth="1"/>
+    <col min="2051" max="2051" width="12.81640625" style="4" customWidth="1"/>
+    <col min="2052" max="2052" width="15.54296875" style="4" customWidth="1"/>
+    <col min="2053" max="2053" width="11.7265625" style="4" customWidth="1"/>
+    <col min="2054" max="2054" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2304" width="8.81640625" style="4"/>
+    <col min="2305" max="2305" width="4.54296875" style="4" customWidth="1"/>
+    <col min="2306" max="2306" width="10.1796875" style="4" customWidth="1"/>
+    <col min="2307" max="2307" width="12.81640625" style="4" customWidth="1"/>
+    <col min="2308" max="2308" width="15.54296875" style="4" customWidth="1"/>
+    <col min="2309" max="2309" width="11.7265625" style="4" customWidth="1"/>
+    <col min="2310" max="2310" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2560" width="8.81640625" style="4"/>
+    <col min="2561" max="2561" width="4.54296875" style="4" customWidth="1"/>
+    <col min="2562" max="2562" width="10.1796875" style="4" customWidth="1"/>
+    <col min="2563" max="2563" width="12.81640625" style="4" customWidth="1"/>
+    <col min="2564" max="2564" width="15.54296875" style="4" customWidth="1"/>
+    <col min="2565" max="2565" width="11.7265625" style="4" customWidth="1"/>
+    <col min="2566" max="2566" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2816" width="8.81640625" style="4"/>
+    <col min="2817" max="2817" width="4.54296875" style="4" customWidth="1"/>
+    <col min="2818" max="2818" width="10.1796875" style="4" customWidth="1"/>
+    <col min="2819" max="2819" width="12.81640625" style="4" customWidth="1"/>
+    <col min="2820" max="2820" width="15.54296875" style="4" customWidth="1"/>
+    <col min="2821" max="2821" width="11.7265625" style="4" customWidth="1"/>
+    <col min="2822" max="2822" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2824" max="3072" width="8.81640625" style="4"/>
+    <col min="3073" max="3073" width="4.54296875" style="4" customWidth="1"/>
+    <col min="3074" max="3074" width="10.1796875" style="4" customWidth="1"/>
+    <col min="3075" max="3075" width="12.81640625" style="4" customWidth="1"/>
+    <col min="3076" max="3076" width="15.54296875" style="4" customWidth="1"/>
+    <col min="3077" max="3077" width="11.7265625" style="4" customWidth="1"/>
+    <col min="3078" max="3078" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3328" width="8.81640625" style="4"/>
+    <col min="3329" max="3329" width="4.54296875" style="4" customWidth="1"/>
+    <col min="3330" max="3330" width="10.1796875" style="4" customWidth="1"/>
+    <col min="3331" max="3331" width="12.81640625" style="4" customWidth="1"/>
+    <col min="3332" max="3332" width="15.54296875" style="4" customWidth="1"/>
+    <col min="3333" max="3333" width="11.7265625" style="4" customWidth="1"/>
+    <col min="3334" max="3334" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3584" width="8.81640625" style="4"/>
+    <col min="3585" max="3585" width="4.54296875" style="4" customWidth="1"/>
+    <col min="3586" max="3586" width="10.1796875" style="4" customWidth="1"/>
+    <col min="3587" max="3587" width="12.81640625" style="4" customWidth="1"/>
+    <col min="3588" max="3588" width="15.54296875" style="4" customWidth="1"/>
+    <col min="3589" max="3589" width="11.7265625" style="4" customWidth="1"/>
+    <col min="3590" max="3590" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3840" width="8.81640625" style="4"/>
+    <col min="3841" max="3841" width="4.54296875" style="4" customWidth="1"/>
+    <col min="3842" max="3842" width="10.1796875" style="4" customWidth="1"/>
+    <col min="3843" max="3843" width="12.81640625" style="4" customWidth="1"/>
+    <col min="3844" max="3844" width="15.54296875" style="4" customWidth="1"/>
+    <col min="3845" max="3845" width="11.7265625" style="4" customWidth="1"/>
+    <col min="3846" max="3846" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3848" max="4096" width="8.81640625" style="4"/>
+    <col min="4097" max="4097" width="4.54296875" style="4" customWidth="1"/>
+    <col min="4098" max="4098" width="10.1796875" style="4" customWidth="1"/>
+    <col min="4099" max="4099" width="12.81640625" style="4" customWidth="1"/>
+    <col min="4100" max="4100" width="15.54296875" style="4" customWidth="1"/>
+    <col min="4101" max="4101" width="11.7265625" style="4" customWidth="1"/>
+    <col min="4102" max="4102" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4352" width="8.81640625" style="4"/>
+    <col min="4353" max="4353" width="4.54296875" style="4" customWidth="1"/>
+    <col min="4354" max="4354" width="10.1796875" style="4" customWidth="1"/>
+    <col min="4355" max="4355" width="12.81640625" style="4" customWidth="1"/>
+    <col min="4356" max="4356" width="15.54296875" style="4" customWidth="1"/>
+    <col min="4357" max="4357" width="11.7265625" style="4" customWidth="1"/>
+    <col min="4358" max="4358" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4608" width="8.81640625" style="4"/>
+    <col min="4609" max="4609" width="4.54296875" style="4" customWidth="1"/>
+    <col min="4610" max="4610" width="10.1796875" style="4" customWidth="1"/>
+    <col min="4611" max="4611" width="12.81640625" style="4" customWidth="1"/>
+    <col min="4612" max="4612" width="15.54296875" style="4" customWidth="1"/>
+    <col min="4613" max="4613" width="11.7265625" style="4" customWidth="1"/>
+    <col min="4614" max="4614" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4864" width="8.81640625" style="4"/>
+    <col min="4865" max="4865" width="4.54296875" style="4" customWidth="1"/>
+    <col min="4866" max="4866" width="10.1796875" style="4" customWidth="1"/>
+    <col min="4867" max="4867" width="12.81640625" style="4" customWidth="1"/>
+    <col min="4868" max="4868" width="15.54296875" style="4" customWidth="1"/>
+    <col min="4869" max="4869" width="11.7265625" style="4" customWidth="1"/>
+    <col min="4870" max="4870" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4872" max="5120" width="8.81640625" style="4"/>
+    <col min="5121" max="5121" width="4.54296875" style="4" customWidth="1"/>
+    <col min="5122" max="5122" width="10.1796875" style="4" customWidth="1"/>
+    <col min="5123" max="5123" width="12.81640625" style="4" customWidth="1"/>
+    <col min="5124" max="5124" width="15.54296875" style="4" customWidth="1"/>
+    <col min="5125" max="5125" width="11.7265625" style="4" customWidth="1"/>
+    <col min="5126" max="5126" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5376" width="8.81640625" style="4"/>
+    <col min="5377" max="5377" width="4.54296875" style="4" customWidth="1"/>
+    <col min="5378" max="5378" width="10.1796875" style="4" customWidth="1"/>
+    <col min="5379" max="5379" width="12.81640625" style="4" customWidth="1"/>
+    <col min="5380" max="5380" width="15.54296875" style="4" customWidth="1"/>
+    <col min="5381" max="5381" width="11.7265625" style="4" customWidth="1"/>
+    <col min="5382" max="5382" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5632" width="8.81640625" style="4"/>
+    <col min="5633" max="5633" width="4.54296875" style="4" customWidth="1"/>
+    <col min="5634" max="5634" width="10.1796875" style="4" customWidth="1"/>
+    <col min="5635" max="5635" width="12.81640625" style="4" customWidth="1"/>
+    <col min="5636" max="5636" width="15.54296875" style="4" customWidth="1"/>
+    <col min="5637" max="5637" width="11.7265625" style="4" customWidth="1"/>
+    <col min="5638" max="5638" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5888" width="8.81640625" style="4"/>
+    <col min="5889" max="5889" width="4.54296875" style="4" customWidth="1"/>
+    <col min="5890" max="5890" width="10.1796875" style="4" customWidth="1"/>
+    <col min="5891" max="5891" width="12.81640625" style="4" customWidth="1"/>
+    <col min="5892" max="5892" width="15.54296875" style="4" customWidth="1"/>
+    <col min="5893" max="5893" width="11.7265625" style="4" customWidth="1"/>
+    <col min="5894" max="5894" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5896" max="6144" width="8.81640625" style="4"/>
+    <col min="6145" max="6145" width="4.54296875" style="4" customWidth="1"/>
+    <col min="6146" max="6146" width="10.1796875" style="4" customWidth="1"/>
+    <col min="6147" max="6147" width="12.81640625" style="4" customWidth="1"/>
+    <col min="6148" max="6148" width="15.54296875" style="4" customWidth="1"/>
+    <col min="6149" max="6149" width="11.7265625" style="4" customWidth="1"/>
+    <col min="6150" max="6150" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6400" width="8.81640625" style="4"/>
+    <col min="6401" max="6401" width="4.54296875" style="4" customWidth="1"/>
+    <col min="6402" max="6402" width="10.1796875" style="4" customWidth="1"/>
+    <col min="6403" max="6403" width="12.81640625" style="4" customWidth="1"/>
+    <col min="6404" max="6404" width="15.54296875" style="4" customWidth="1"/>
+    <col min="6405" max="6405" width="11.7265625" style="4" customWidth="1"/>
+    <col min="6406" max="6406" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6656" width="8.81640625" style="4"/>
+    <col min="6657" max="6657" width="4.54296875" style="4" customWidth="1"/>
+    <col min="6658" max="6658" width="10.1796875" style="4" customWidth="1"/>
+    <col min="6659" max="6659" width="12.81640625" style="4" customWidth="1"/>
+    <col min="6660" max="6660" width="15.54296875" style="4" customWidth="1"/>
+    <col min="6661" max="6661" width="11.7265625" style="4" customWidth="1"/>
+    <col min="6662" max="6662" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6912" width="8.81640625" style="4"/>
+    <col min="6913" max="6913" width="4.54296875" style="4" customWidth="1"/>
+    <col min="6914" max="6914" width="10.1796875" style="4" customWidth="1"/>
+    <col min="6915" max="6915" width="12.81640625" style="4" customWidth="1"/>
+    <col min="6916" max="6916" width="15.54296875" style="4" customWidth="1"/>
+    <col min="6917" max="6917" width="11.7265625" style="4" customWidth="1"/>
+    <col min="6918" max="6918" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6920" max="7168" width="8.81640625" style="4"/>
+    <col min="7169" max="7169" width="4.54296875" style="4" customWidth="1"/>
+    <col min="7170" max="7170" width="10.1796875" style="4" customWidth="1"/>
+    <col min="7171" max="7171" width="12.81640625" style="4" customWidth="1"/>
+    <col min="7172" max="7172" width="15.54296875" style="4" customWidth="1"/>
+    <col min="7173" max="7173" width="11.7265625" style="4" customWidth="1"/>
+    <col min="7174" max="7174" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7424" width="8.81640625" style="4"/>
+    <col min="7425" max="7425" width="4.54296875" style="4" customWidth="1"/>
+    <col min="7426" max="7426" width="10.1796875" style="4" customWidth="1"/>
+    <col min="7427" max="7427" width="12.81640625" style="4" customWidth="1"/>
+    <col min="7428" max="7428" width="15.54296875" style="4" customWidth="1"/>
+    <col min="7429" max="7429" width="11.7265625" style="4" customWidth="1"/>
+    <col min="7430" max="7430" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7680" width="8.81640625" style="4"/>
+    <col min="7681" max="7681" width="4.54296875" style="4" customWidth="1"/>
+    <col min="7682" max="7682" width="10.1796875" style="4" customWidth="1"/>
+    <col min="7683" max="7683" width="12.81640625" style="4" customWidth="1"/>
+    <col min="7684" max="7684" width="15.54296875" style="4" customWidth="1"/>
+    <col min="7685" max="7685" width="11.7265625" style="4" customWidth="1"/>
+    <col min="7686" max="7686" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7936" width="8.81640625" style="4"/>
+    <col min="7937" max="7937" width="4.54296875" style="4" customWidth="1"/>
+    <col min="7938" max="7938" width="10.1796875" style="4" customWidth="1"/>
+    <col min="7939" max="7939" width="12.81640625" style="4" customWidth="1"/>
+    <col min="7940" max="7940" width="15.54296875" style="4" customWidth="1"/>
+    <col min="7941" max="7941" width="11.7265625" style="4" customWidth="1"/>
+    <col min="7942" max="7942" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7944" max="8192" width="8.81640625" style="4"/>
+    <col min="8193" max="8193" width="4.54296875" style="4" customWidth="1"/>
+    <col min="8194" max="8194" width="10.1796875" style="4" customWidth="1"/>
+    <col min="8195" max="8195" width="12.81640625" style="4" customWidth="1"/>
+    <col min="8196" max="8196" width="15.54296875" style="4" customWidth="1"/>
+    <col min="8197" max="8197" width="11.7265625" style="4" customWidth="1"/>
+    <col min="8198" max="8198" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8448" width="8.81640625" style="4"/>
+    <col min="8449" max="8449" width="4.54296875" style="4" customWidth="1"/>
+    <col min="8450" max="8450" width="10.1796875" style="4" customWidth="1"/>
+    <col min="8451" max="8451" width="12.81640625" style="4" customWidth="1"/>
+    <col min="8452" max="8452" width="15.54296875" style="4" customWidth="1"/>
+    <col min="8453" max="8453" width="11.7265625" style="4" customWidth="1"/>
+    <col min="8454" max="8454" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8704" width="8.81640625" style="4"/>
+    <col min="8705" max="8705" width="4.54296875" style="4" customWidth="1"/>
+    <col min="8706" max="8706" width="10.1796875" style="4" customWidth="1"/>
+    <col min="8707" max="8707" width="12.81640625" style="4" customWidth="1"/>
+    <col min="8708" max="8708" width="15.54296875" style="4" customWidth="1"/>
+    <col min="8709" max="8709" width="11.7265625" style="4" customWidth="1"/>
+    <col min="8710" max="8710" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8960" width="8.81640625" style="4"/>
+    <col min="8961" max="8961" width="4.54296875" style="4" customWidth="1"/>
+    <col min="8962" max="8962" width="10.1796875" style="4" customWidth="1"/>
+    <col min="8963" max="8963" width="12.81640625" style="4" customWidth="1"/>
+    <col min="8964" max="8964" width="15.54296875" style="4" customWidth="1"/>
+    <col min="8965" max="8965" width="11.7265625" style="4" customWidth="1"/>
+    <col min="8966" max="8966" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8968" max="9216" width="8.81640625" style="4"/>
+    <col min="9217" max="9217" width="4.54296875" style="4" customWidth="1"/>
+    <col min="9218" max="9218" width="10.1796875" style="4" customWidth="1"/>
+    <col min="9219" max="9219" width="12.81640625" style="4" customWidth="1"/>
+    <col min="9220" max="9220" width="15.54296875" style="4" customWidth="1"/>
+    <col min="9221" max="9221" width="11.7265625" style="4" customWidth="1"/>
+    <col min="9222" max="9222" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9472" width="8.81640625" style="4"/>
+    <col min="9473" max="9473" width="4.54296875" style="4" customWidth="1"/>
+    <col min="9474" max="9474" width="10.1796875" style="4" customWidth="1"/>
+    <col min="9475" max="9475" width="12.81640625" style="4" customWidth="1"/>
+    <col min="9476" max="9476" width="15.54296875" style="4" customWidth="1"/>
+    <col min="9477" max="9477" width="11.7265625" style="4" customWidth="1"/>
+    <col min="9478" max="9478" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9728" width="8.81640625" style="4"/>
+    <col min="9729" max="9729" width="4.54296875" style="4" customWidth="1"/>
+    <col min="9730" max="9730" width="10.1796875" style="4" customWidth="1"/>
+    <col min="9731" max="9731" width="12.81640625" style="4" customWidth="1"/>
+    <col min="9732" max="9732" width="15.54296875" style="4" customWidth="1"/>
+    <col min="9733" max="9733" width="11.7265625" style="4" customWidth="1"/>
+    <col min="9734" max="9734" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9984" width="8.81640625" style="4"/>
+    <col min="9985" max="9985" width="4.54296875" style="4" customWidth="1"/>
+    <col min="9986" max="9986" width="10.1796875" style="4" customWidth="1"/>
+    <col min="9987" max="9987" width="12.81640625" style="4" customWidth="1"/>
+    <col min="9988" max="9988" width="15.54296875" style="4" customWidth="1"/>
+    <col min="9989" max="9989" width="11.7265625" style="4" customWidth="1"/>
+    <col min="9990" max="9990" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9992" max="10240" width="8.81640625" style="4"/>
+    <col min="10241" max="10241" width="4.54296875" style="4" customWidth="1"/>
+    <col min="10242" max="10242" width="10.1796875" style="4" customWidth="1"/>
+    <col min="10243" max="10243" width="12.81640625" style="4" customWidth="1"/>
+    <col min="10244" max="10244" width="15.54296875" style="4" customWidth="1"/>
+    <col min="10245" max="10245" width="11.7265625" style="4" customWidth="1"/>
+    <col min="10246" max="10246" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10496" width="8.81640625" style="4"/>
+    <col min="10497" max="10497" width="4.54296875" style="4" customWidth="1"/>
+    <col min="10498" max="10498" width="10.1796875" style="4" customWidth="1"/>
+    <col min="10499" max="10499" width="12.81640625" style="4" customWidth="1"/>
+    <col min="10500" max="10500" width="15.54296875" style="4" customWidth="1"/>
+    <col min="10501" max="10501" width="11.7265625" style="4" customWidth="1"/>
+    <col min="10502" max="10502" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10752" width="8.81640625" style="4"/>
+    <col min="10753" max="10753" width="4.54296875" style="4" customWidth="1"/>
+    <col min="10754" max="10754" width="10.1796875" style="4" customWidth="1"/>
+    <col min="10755" max="10755" width="12.81640625" style="4" customWidth="1"/>
+    <col min="10756" max="10756" width="15.54296875" style="4" customWidth="1"/>
+    <col min="10757" max="10757" width="11.7265625" style="4" customWidth="1"/>
+    <col min="10758" max="10758" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10760" max="11008" width="8.81640625" style="4"/>
+    <col min="11009" max="11009" width="4.54296875" style="4" customWidth="1"/>
+    <col min="11010" max="11010" width="10.1796875" style="4" customWidth="1"/>
+    <col min="11011" max="11011" width="12.81640625" style="4" customWidth="1"/>
+    <col min="11012" max="11012" width="15.54296875" style="4" customWidth="1"/>
+    <col min="11013" max="11013" width="11.7265625" style="4" customWidth="1"/>
+    <col min="11014" max="11014" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11264" width="8.81640625" style="4"/>
+    <col min="11265" max="11265" width="4.54296875" style="4" customWidth="1"/>
+    <col min="11266" max="11266" width="10.1796875" style="4" customWidth="1"/>
+    <col min="11267" max="11267" width="12.81640625" style="4" customWidth="1"/>
+    <col min="11268" max="11268" width="15.54296875" style="4" customWidth="1"/>
+    <col min="11269" max="11269" width="11.7265625" style="4" customWidth="1"/>
+    <col min="11270" max="11270" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11520" width="8.81640625" style="4"/>
+    <col min="11521" max="11521" width="4.54296875" style="4" customWidth="1"/>
+    <col min="11522" max="11522" width="10.1796875" style="4" customWidth="1"/>
+    <col min="11523" max="11523" width="12.81640625" style="4" customWidth="1"/>
+    <col min="11524" max="11524" width="15.54296875" style="4" customWidth="1"/>
+    <col min="11525" max="11525" width="11.7265625" style="4" customWidth="1"/>
+    <col min="11526" max="11526" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11776" width="8.81640625" style="4"/>
+    <col min="11777" max="11777" width="4.54296875" style="4" customWidth="1"/>
+    <col min="11778" max="11778" width="10.1796875" style="4" customWidth="1"/>
+    <col min="11779" max="11779" width="12.81640625" style="4" customWidth="1"/>
+    <col min="11780" max="11780" width="15.54296875" style="4" customWidth="1"/>
+    <col min="11781" max="11781" width="11.7265625" style="4" customWidth="1"/>
+    <col min="11782" max="11782" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11784" max="12032" width="8.81640625" style="4"/>
+    <col min="12033" max="12033" width="4.54296875" style="4" customWidth="1"/>
+    <col min="12034" max="12034" width="10.1796875" style="4" customWidth="1"/>
+    <col min="12035" max="12035" width="12.81640625" style="4" customWidth="1"/>
+    <col min="12036" max="12036" width="15.54296875" style="4" customWidth="1"/>
+    <col min="12037" max="12037" width="11.7265625" style="4" customWidth="1"/>
+    <col min="12038" max="12038" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12288" width="8.81640625" style="4"/>
+    <col min="12289" max="12289" width="4.54296875" style="4" customWidth="1"/>
+    <col min="12290" max="12290" width="10.1796875" style="4" customWidth="1"/>
+    <col min="12291" max="12291" width="12.81640625" style="4" customWidth="1"/>
+    <col min="12292" max="12292" width="15.54296875" style="4" customWidth="1"/>
+    <col min="12293" max="12293" width="11.7265625" style="4" customWidth="1"/>
+    <col min="12294" max="12294" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12544" width="8.81640625" style="4"/>
+    <col min="12545" max="12545" width="4.54296875" style="4" customWidth="1"/>
+    <col min="12546" max="12546" width="10.1796875" style="4" customWidth="1"/>
+    <col min="12547" max="12547" width="12.81640625" style="4" customWidth="1"/>
+    <col min="12548" max="12548" width="15.54296875" style="4" customWidth="1"/>
+    <col min="12549" max="12549" width="11.7265625" style="4" customWidth="1"/>
+    <col min="12550" max="12550" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12800" width="8.81640625" style="4"/>
+    <col min="12801" max="12801" width="4.54296875" style="4" customWidth="1"/>
+    <col min="12802" max="12802" width="10.1796875" style="4" customWidth="1"/>
+    <col min="12803" max="12803" width="12.81640625" style="4" customWidth="1"/>
+    <col min="12804" max="12804" width="15.54296875" style="4" customWidth="1"/>
+    <col min="12805" max="12805" width="11.7265625" style="4" customWidth="1"/>
+    <col min="12806" max="12806" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12808" max="13056" width="8.81640625" style="4"/>
+    <col min="13057" max="13057" width="4.54296875" style="4" customWidth="1"/>
+    <col min="13058" max="13058" width="10.1796875" style="4" customWidth="1"/>
+    <col min="13059" max="13059" width="12.81640625" style="4" customWidth="1"/>
+    <col min="13060" max="13060" width="15.54296875" style="4" customWidth="1"/>
+    <col min="13061" max="13061" width="11.7265625" style="4" customWidth="1"/>
+    <col min="13062" max="13062" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13312" width="8.81640625" style="4"/>
+    <col min="13313" max="13313" width="4.54296875" style="4" customWidth="1"/>
+    <col min="13314" max="13314" width="10.1796875" style="4" customWidth="1"/>
+    <col min="13315" max="13315" width="12.81640625" style="4" customWidth="1"/>
+    <col min="13316" max="13316" width="15.54296875" style="4" customWidth="1"/>
+    <col min="13317" max="13317" width="11.7265625" style="4" customWidth="1"/>
+    <col min="13318" max="13318" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13568" width="8.81640625" style="4"/>
+    <col min="13569" max="13569" width="4.54296875" style="4" customWidth="1"/>
+    <col min="13570" max="13570" width="10.1796875" style="4" customWidth="1"/>
+    <col min="13571" max="13571" width="12.81640625" style="4" customWidth="1"/>
+    <col min="13572" max="13572" width="15.54296875" style="4" customWidth="1"/>
+    <col min="13573" max="13573" width="11.7265625" style="4" customWidth="1"/>
+    <col min="13574" max="13574" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13824" width="8.81640625" style="4"/>
+    <col min="13825" max="13825" width="4.54296875" style="4" customWidth="1"/>
+    <col min="13826" max="13826" width="10.1796875" style="4" customWidth="1"/>
+    <col min="13827" max="13827" width="12.81640625" style="4" customWidth="1"/>
+    <col min="13828" max="13828" width="15.54296875" style="4" customWidth="1"/>
+    <col min="13829" max="13829" width="11.7265625" style="4" customWidth="1"/>
+    <col min="13830" max="13830" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13832" max="14080" width="8.81640625" style="4"/>
+    <col min="14081" max="14081" width="4.54296875" style="4" customWidth="1"/>
+    <col min="14082" max="14082" width="10.1796875" style="4" customWidth="1"/>
+    <col min="14083" max="14083" width="12.81640625" style="4" customWidth="1"/>
+    <col min="14084" max="14084" width="15.54296875" style="4" customWidth="1"/>
+    <col min="14085" max="14085" width="11.7265625" style="4" customWidth="1"/>
+    <col min="14086" max="14086" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14336" width="8.81640625" style="4"/>
+    <col min="14337" max="14337" width="4.54296875" style="4" customWidth="1"/>
+    <col min="14338" max="14338" width="10.1796875" style="4" customWidth="1"/>
+    <col min="14339" max="14339" width="12.81640625" style="4" customWidth="1"/>
+    <col min="14340" max="14340" width="15.54296875" style="4" customWidth="1"/>
+    <col min="14341" max="14341" width="11.7265625" style="4" customWidth="1"/>
+    <col min="14342" max="14342" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14592" width="8.81640625" style="4"/>
+    <col min="14593" max="14593" width="4.54296875" style="4" customWidth="1"/>
+    <col min="14594" max="14594" width="10.1796875" style="4" customWidth="1"/>
+    <col min="14595" max="14595" width="12.81640625" style="4" customWidth="1"/>
+    <col min="14596" max="14596" width="15.54296875" style="4" customWidth="1"/>
+    <col min="14597" max="14597" width="11.7265625" style="4" customWidth="1"/>
+    <col min="14598" max="14598" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14848" width="8.81640625" style="4"/>
+    <col min="14849" max="14849" width="4.54296875" style="4" customWidth="1"/>
+    <col min="14850" max="14850" width="10.1796875" style="4" customWidth="1"/>
+    <col min="14851" max="14851" width="12.81640625" style="4" customWidth="1"/>
+    <col min="14852" max="14852" width="15.54296875" style="4" customWidth="1"/>
+    <col min="14853" max="14853" width="11.7265625" style="4" customWidth="1"/>
+    <col min="14854" max="14854" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14856" max="15104" width="8.81640625" style="4"/>
+    <col min="15105" max="15105" width="4.54296875" style="4" customWidth="1"/>
+    <col min="15106" max="15106" width="10.1796875" style="4" customWidth="1"/>
+    <col min="15107" max="15107" width="12.81640625" style="4" customWidth="1"/>
+    <col min="15108" max="15108" width="15.54296875" style="4" customWidth="1"/>
+    <col min="15109" max="15109" width="11.7265625" style="4" customWidth="1"/>
+    <col min="15110" max="15110" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15360" width="8.81640625" style="4"/>
+    <col min="15361" max="15361" width="4.54296875" style="4" customWidth="1"/>
+    <col min="15362" max="15362" width="10.1796875" style="4" customWidth="1"/>
+    <col min="15363" max="15363" width="12.81640625" style="4" customWidth="1"/>
+    <col min="15364" max="15364" width="15.54296875" style="4" customWidth="1"/>
+    <col min="15365" max="15365" width="11.7265625" style="4" customWidth="1"/>
+    <col min="15366" max="15366" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15616" width="8.81640625" style="4"/>
+    <col min="15617" max="15617" width="4.54296875" style="4" customWidth="1"/>
+    <col min="15618" max="15618" width="10.1796875" style="4" customWidth="1"/>
+    <col min="15619" max="15619" width="12.81640625" style="4" customWidth="1"/>
+    <col min="15620" max="15620" width="15.54296875" style="4" customWidth="1"/>
+    <col min="15621" max="15621" width="11.7265625" style="4" customWidth="1"/>
+    <col min="15622" max="15622" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15872" width="8.81640625" style="4"/>
+    <col min="15873" max="15873" width="4.54296875" style="4" customWidth="1"/>
+    <col min="15874" max="15874" width="10.1796875" style="4" customWidth="1"/>
+    <col min="15875" max="15875" width="12.81640625" style="4" customWidth="1"/>
+    <col min="15876" max="15876" width="15.54296875" style="4" customWidth="1"/>
+    <col min="15877" max="15877" width="11.7265625" style="4" customWidth="1"/>
+    <col min="15878" max="15878" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15880" max="16128" width="8.81640625" style="4"/>
+    <col min="16129" max="16129" width="4.54296875" style="4" customWidth="1"/>
+    <col min="16130" max="16130" width="10.1796875" style="4" customWidth="1"/>
+    <col min="16131" max="16131" width="12.81640625" style="4" customWidth="1"/>
+    <col min="16132" max="16132" width="15.54296875" style="4" customWidth="1"/>
+    <col min="16133" max="16133" width="11.7265625" style="4" customWidth="1"/>
+    <col min="16134" max="16134" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-    </row>
-    <row r="4" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="50" t="s">
+    <row r="2" spans="2:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="85"/>
+    </row>
+    <row r="4" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="86"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="88"/>
+    </row>
+    <row r="6" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
     </row>
     <row r="8" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:7" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51" t="s">
+    <row r="9" spans="2:7" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="92" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="27" t="s">
@@ -2286,10 +2305,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="52"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
+    <row r="10" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="91"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="28" t="s">
         <v>10</v>
       </c>
@@ -2300,7 +2319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>1970</v>
       </c>
@@ -2321,7 +2340,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="6">
         <v>1971</v>
       </c>
@@ -2342,7 +2361,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="6">
         <v>1972</v>
       </c>
@@ -2363,7 +2382,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="6">
         <v>1973</v>
       </c>
@@ -2384,7 +2403,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="6">
         <v>1974</v>
       </c>
@@ -2405,7 +2424,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
         <v>1975</v>
       </c>
@@ -2426,7 +2445,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="6">
         <v>1976</v>
       </c>
@@ -2446,7 +2465,7 @@
         <v>13.770642553354536</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="7">
         <v>1977</v>
       </c>
@@ -2466,7 +2485,7 @@
         <v>14.029850746268657</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="6">
         <v>1978</v>
       </c>
@@ -2486,7 +2505,7 @@
         <v>14.215394534543471</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B20" s="7">
         <v>1979</v>
       </c>
@@ -2506,7 +2525,7 @@
         <v>14.540136836057867</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="7">
         <v>1980</v>
       </c>
@@ -2526,7 +2545,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B22" s="5">
         <v>1981</v>
       </c>
@@ -2546,7 +2565,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B23" s="5">
         <v>1982</v>
       </c>
@@ -2566,7 +2585,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="5">
         <v>1983</v>
       </c>
@@ -2586,7 +2605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="5">
         <v>1984</v>
       </c>
@@ -2626,7 +2645,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="5">
         <v>1986</v>
       </c>
@@ -2646,7 +2665,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="5">
         <v>1987</v>
       </c>
@@ -2666,7 +2685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B29" s="5">
         <v>1988</v>
       </c>
@@ -2686,7 +2705,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B30" s="5">
         <v>1989</v>
       </c>
@@ -2706,7 +2725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B31" s="5">
         <v>1990</v>
       </c>
@@ -2726,7 +2745,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B32" s="5">
         <v>1991</v>
       </c>
@@ -2746,7 +2765,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="5">
         <v>1992</v>
       </c>
@@ -2766,7 +2785,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B34" s="5">
         <v>1993</v>
       </c>
@@ -2786,7 +2805,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B35" s="5">
         <v>1994</v>
       </c>
@@ -2806,7 +2825,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B36" s="5">
         <v>1995</v>
       </c>
@@ -2826,7 +2845,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="5">
         <v>1996</v>
       </c>
@@ -2846,7 +2865,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="5">
         <v>1997</v>
       </c>
@@ -2866,7 +2885,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="5">
         <v>1998</v>
       </c>
@@ -2886,7 +2905,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="5">
         <v>1999</v>
       </c>
@@ -2906,7 +2925,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="5">
         <v>2000</v>
       </c>
@@ -2926,7 +2945,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="5">
         <v>2001</v>
       </c>
@@ -2946,7 +2965,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="5">
         <v>2002</v>
       </c>
@@ -2966,7 +2985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="5">
         <v>2003</v>
       </c>
@@ -2986,7 +3005,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="5">
         <v>2004</v>
       </c>
@@ -3006,7 +3025,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="5">
         <v>2005</v>
       </c>
@@ -3026,7 +3045,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="5">
         <v>2006</v>
       </c>
@@ -3046,7 +3065,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="7">
         <v>2007</v>
       </c>
@@ -3066,7 +3085,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7" ht="15.5" x14ac:dyDescent="0.3">
       <c r="B49" s="8">
         <v>2008</v>
       </c>
@@ -3086,7 +3105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="5">
         <v>2009</v>
       </c>
@@ -3106,7 +3125,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="5">
         <v>2010</v>
       </c>
@@ -3126,7 +3145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="5">
         <v>2011</v>
       </c>
@@ -3146,7 +3165,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="5">
         <v>2012</v>
       </c>
@@ -3166,7 +3185,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="5">
         <v>2013</v>
       </c>
@@ -3186,7 +3205,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="5">
         <v>2014</v>
       </c>
@@ -3206,19 +3225,19 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="37" t="s">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" s="13">
         <v>6.0000000000000001E-3</v>
@@ -3236,9 +3255,9 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C58" s="15">
         <v>-1.7999999999999999E-2</v>
@@ -3256,45 +3275,45 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="59" spans="2:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B62" s="38"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-    </row>
-    <row r="64" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="77"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="77"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="77"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="77"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="77"/>
+    </row>
+    <row r="64" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
     </row>
-    <row r="66" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:7" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C66" s="18"/>
       <c r="D66" s="18"/>
@@ -3302,34 +3321,34 @@
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
     </row>
-    <row r="67" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B67" s="39" t="s">
+    <row r="67" spans="2:7" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="B67" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-    </row>
-    <row r="68" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="40" t="s">
+      <c r="C67" s="78"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="78"/>
+    </row>
+    <row r="68" spans="2:7" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-    </row>
-    <row r="69" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="40"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="40"/>
-    </row>
-    <row r="70" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="79"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="79"/>
+    </row>
+    <row r="69" spans="2:7" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="79"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="79"/>
+    </row>
+    <row r="70" spans="2:7" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="18" t="s">
         <v>26</v>
       </c>
@@ -3339,7 +3358,7 @@
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
     </row>
-    <row r="71" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:7" ht="15.5" x14ac:dyDescent="0.3">
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
@@ -3370,1127 +3389,1127 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2" style="60" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="60" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="60" customWidth="1"/>
-    <col min="4" max="5" width="14" style="60" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="62" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="60"/>
+    <col min="1" max="1" width="2" style="42" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="42" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" style="42" customWidth="1"/>
+    <col min="4" max="5" width="14" style="42" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="44" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="101" t="s">
+    <row r="2" spans="2:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="99"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="98"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="96"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="98"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="96"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="98"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="96"/>
-    </row>
-    <row r="6" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="95"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="93"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="91" t="s">
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="96"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="97"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="99"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="97"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="97"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
+    </row>
+    <row r="6" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="100"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
+    </row>
+    <row r="7" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+    </row>
+    <row r="8" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+    </row>
+    <row r="9" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="91" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="109" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
     </row>
     <row r="11" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:7" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="90" t="s">
+    <row r="12" spans="2:7" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="89" t="s">
+      <c r="D12" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="88" t="s">
+      <c r="E12" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="87" t="s">
+      <c r="F12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="86" t="s">
+      <c r="G12" s="64" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="85"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="83" t="s">
+    <row r="13" spans="2:7" ht="12.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="105"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="76" t="s">
+      <c r="F13" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="82" t="s">
+      <c r="G13" s="62" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="81">
+    <row r="14" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="61">
         <v>1970</v>
       </c>
-      <c r="C14" s="80">
+      <c r="C14" s="60">
         <v>3681</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D14" s="60">
         <v>27081</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E14" s="60">
         <v>7356.9682151589241</v>
       </c>
-      <c r="F14" s="80">
+      <c r="F14" s="60">
         <v>3968</v>
       </c>
-      <c r="G14" s="79">
+      <c r="G14" s="59">
         <v>6.8</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="62">
+    <row r="15" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="44">
         <v>1971</v>
       </c>
-      <c r="C15" s="75">
+      <c r="C15" s="55">
         <v>3770</v>
       </c>
-      <c r="D15" s="75">
+      <c r="D15" s="55">
         <v>28985</v>
       </c>
-      <c r="E15" s="75">
+      <c r="E15" s="55">
         <v>7688.3289124668436</v>
       </c>
-      <c r="F15" s="75">
+      <c r="F15" s="55">
         <v>4217</v>
       </c>
-      <c r="G15" s="78">
+      <c r="G15" s="58">
         <v>6.9</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="62">
+    <row r="16" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="44">
         <v>1972</v>
       </c>
-      <c r="C16" s="75">
+      <c r="C16" s="55">
         <v>3918</v>
       </c>
-      <c r="D16" s="75">
+      <c r="D16" s="55">
         <v>31414</v>
       </c>
-      <c r="E16" s="75">
+      <c r="E16" s="55">
         <v>8017.8662582950483</v>
       </c>
-      <c r="F16" s="75">
+      <c r="F16" s="55">
         <v>4844</v>
       </c>
-      <c r="G16" s="78">
+      <c r="G16" s="58">
         <v>6.5</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="62">
+    <row r="17" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="44">
         <v>1973</v>
       </c>
-      <c r="C17" s="75">
+      <c r="C17" s="55">
         <v>4131</v>
       </c>
-      <c r="D17" s="75">
+      <c r="D17" s="55">
         <v>33661</v>
       </c>
-      <c r="E17" s="75">
+      <c r="E17" s="55">
         <v>8148.3902202856452</v>
       </c>
-      <c r="F17" s="75">
+      <c r="F17" s="55">
         <v>5294</v>
       </c>
-      <c r="G17" s="78">
+      <c r="G17" s="58">
         <v>6.4</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="62">
+    <row r="18" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="44">
         <v>1974</v>
       </c>
-      <c r="C18" s="75">
+      <c r="C18" s="55">
         <v>4211</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="55">
         <v>33441</v>
       </c>
-      <c r="E18" s="75">
+      <c r="E18" s="55">
         <v>7941.3440987888862</v>
       </c>
-      <c r="F18" s="75">
+      <c r="F18" s="55">
         <v>5261</v>
       </c>
-      <c r="G18" s="78">
+      <c r="G18" s="58">
         <v>6.4</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="81">
+    <row r="19" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="61">
         <v>1975</v>
       </c>
-      <c r="C19" s="80">
+      <c r="C19" s="60">
         <v>4232</v>
       </c>
-      <c r="D19" s="80">
+      <c r="D19" s="60">
         <v>34606</v>
       </c>
-      <c r="E19" s="80">
+      <c r="E19" s="60">
         <v>8177</v>
       </c>
-      <c r="F19" s="80">
+      <c r="F19" s="60">
         <v>5420</v>
       </c>
-      <c r="G19" s="79">
+      <c r="G19" s="59">
         <v>6.4</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="81">
+    <row r="20" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="61">
         <v>1976</v>
       </c>
-      <c r="C20" s="80">
+      <c r="C20" s="60">
         <v>4350</v>
       </c>
-      <c r="D20" s="80">
+      <c r="D20" s="60">
         <v>36390</v>
       </c>
-      <c r="E20" s="80">
+      <c r="E20" s="60">
         <v>8366</v>
       </c>
-      <c r="F20" s="80">
+      <c r="F20" s="60">
         <v>5706</v>
       </c>
-      <c r="G20" s="79">
+      <c r="G20" s="59">
         <v>6.4</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="62">
+    <row r="21" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B21" s="44">
         <v>1977</v>
       </c>
-      <c r="C21" s="75">
+      <c r="C21" s="55">
         <v>4450</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="55">
         <v>39339</v>
       </c>
-      <c r="E21" s="75">
+      <c r="E21" s="55">
         <v>8840</v>
       </c>
-      <c r="F21" s="75">
+      <c r="F21" s="55">
         <v>6268</v>
       </c>
-      <c r="G21" s="78">
+      <c r="G21" s="58">
         <v>6.3</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="62">
+    <row r="22" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="44">
         <v>1978</v>
       </c>
-      <c r="C22" s="75">
+      <c r="C22" s="55">
         <v>4518</v>
       </c>
-      <c r="D22" s="75">
+      <c r="D22" s="55">
         <v>42747</v>
       </c>
-      <c r="E22" s="75">
+      <c r="E22" s="55">
         <v>9461</v>
       </c>
-      <c r="F22" s="75">
+      <c r="F22" s="55">
         <v>6955</v>
       </c>
-      <c r="G22" s="78">
+      <c r="G22" s="58">
         <v>6.1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="62">
+    <row r="23" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B23" s="44">
         <v>1979</v>
       </c>
-      <c r="C23" s="75">
+      <c r="C23" s="55">
         <v>4505</v>
       </c>
-      <c r="D23" s="75">
+      <c r="D23" s="55">
         <v>42012</v>
       </c>
-      <c r="E23" s="75">
+      <c r="E23" s="55">
         <v>9326</v>
       </c>
-      <c r="F23" s="75">
+      <c r="F23" s="55">
         <v>7050</v>
       </c>
-      <c r="G23" s="78">
+      <c r="G23" s="58">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="62">
+    <row r="24" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="44">
         <v>1980</v>
       </c>
-      <c r="C24" s="75">
+      <c r="C24" s="55">
         <v>4374</v>
       </c>
-      <c r="D24" s="75">
+      <c r="D24" s="55">
         <v>39813</v>
       </c>
-      <c r="E24" s="75">
+      <c r="E24" s="55">
         <v>9102</v>
       </c>
-      <c r="F24" s="75">
+      <c r="F24" s="55">
         <v>6923</v>
       </c>
-      <c r="G24" s="78">
+      <c r="G24" s="58">
         <v>5.8</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="62">
+    <row r="25" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="44">
         <v>1981</v>
       </c>
-      <c r="C25" s="75">
+      <c r="C25" s="55">
         <v>4455</v>
       </c>
-      <c r="D25" s="75">
+      <c r="D25" s="55">
         <v>39568</v>
       </c>
-      <c r="E25" s="75">
+      <c r="E25" s="55">
         <v>8882</v>
       </c>
-      <c r="F25" s="75">
+      <c r="F25" s="55">
         <v>6867</v>
       </c>
-      <c r="G25" s="78">
+      <c r="G25" s="58">
         <v>5.8</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="62">
+    <row r="26" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="44">
         <v>1982</v>
       </c>
-      <c r="C26" s="75">
+      <c r="C26" s="55">
         <v>4325</v>
       </c>
-      <c r="D26" s="75">
+      <c r="D26" s="55">
         <v>40658</v>
       </c>
-      <c r="E26" s="75">
+      <c r="E26" s="55">
         <v>9401</v>
       </c>
-      <c r="F26" s="75">
+      <c r="F26" s="55">
         <v>6803</v>
       </c>
-      <c r="G26" s="78">
+      <c r="G26" s="58">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="62">
+    <row r="27" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B27" s="44">
         <v>1983</v>
       </c>
-      <c r="C27" s="75">
+      <c r="C27" s="55">
         <v>4204</v>
       </c>
-      <c r="D27" s="75">
+      <c r="D27" s="55">
         <v>42546</v>
       </c>
-      <c r="E27" s="75">
+      <c r="E27" s="55">
         <v>10120</v>
       </c>
-      <c r="F27" s="75">
+      <c r="F27" s="55">
         <v>6965</v>
       </c>
-      <c r="G27" s="78">
+      <c r="G27" s="58">
         <v>6.1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="62">
+    <row r="28" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B28" s="44">
         <v>1984</v>
       </c>
-      <c r="C28" s="75">
+      <c r="C28" s="55">
         <v>4061</v>
       </c>
-      <c r="D28" s="75">
+      <c r="D28" s="55">
         <v>44419</v>
       </c>
-      <c r="E28" s="75">
+      <c r="E28" s="55">
         <v>10938</v>
       </c>
-      <c r="F28" s="75">
+      <c r="F28" s="55">
         <v>7240</v>
       </c>
-      <c r="G28" s="78">
+      <c r="G28" s="58">
         <v>6.1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="62">
+    <row r="29" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B29" s="44">
         <v>1985</v>
       </c>
-      <c r="C29" s="75">
+      <c r="C29" s="55">
         <v>4593</v>
       </c>
-      <c r="D29" s="75">
+      <c r="D29" s="55">
         <v>45441</v>
       </c>
-      <c r="E29" s="75">
+      <c r="E29" s="55">
         <v>9894</v>
       </c>
-      <c r="F29" s="75">
+      <c r="F29" s="55">
         <v>7399</v>
       </c>
-      <c r="G29" s="78">
+      <c r="G29" s="58">
         <v>6.1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="62">
+    <row r="30" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B30" s="44">
         <v>1986</v>
       </c>
-      <c r="C30" s="75">
+      <c r="C30" s="55">
         <v>4313</v>
       </c>
-      <c r="D30" s="75">
+      <c r="D30" s="55">
         <v>45637</v>
       </c>
-      <c r="E30" s="75">
+      <c r="E30" s="55">
         <v>10581</v>
       </c>
-      <c r="F30" s="75">
+      <c r="F30" s="55">
         <v>7386</v>
       </c>
-      <c r="G30" s="78">
+      <c r="G30" s="58">
         <v>6.2</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="62">
+    <row r="31" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B31" s="44">
         <v>1987</v>
       </c>
-      <c r="C31" s="75">
+      <c r="C31" s="55">
         <v>4188</v>
       </c>
-      <c r="D31" s="75">
+      <c r="D31" s="55">
         <v>48022</v>
       </c>
-      <c r="E31" s="75">
+      <c r="E31" s="55">
         <v>11467</v>
       </c>
-      <c r="F31" s="75">
+      <c r="F31" s="55">
         <v>7523</v>
       </c>
-      <c r="G31" s="78">
+      <c r="G31" s="58">
         <v>6.4</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="62">
+    <row r="32" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B32" s="44">
         <v>1988</v>
       </c>
-      <c r="C32" s="75">
+      <c r="C32" s="55">
         <v>4470</v>
       </c>
-      <c r="D32" s="75">
+      <c r="D32" s="55">
         <v>49434</v>
       </c>
-      <c r="E32" s="75">
+      <c r="E32" s="55">
         <v>11059</v>
       </c>
-      <c r="F32" s="75">
+      <c r="F32" s="55">
         <v>7701</v>
       </c>
-      <c r="G32" s="78">
+      <c r="G32" s="58">
         <v>6.4</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="62">
+    <row r="33" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B33" s="44">
         <v>1989</v>
       </c>
-      <c r="C33" s="75">
+      <c r="C33" s="55">
         <v>4519</v>
       </c>
-      <c r="D33" s="75">
+      <c r="D33" s="55">
         <v>50870</v>
       </c>
-      <c r="E33" s="75">
+      <c r="E33" s="55">
         <v>11257</v>
       </c>
-      <c r="F33" s="75">
+      <c r="F33" s="55">
         <v>7779</v>
       </c>
-      <c r="G33" s="78">
+      <c r="G33" s="58">
         <v>6.5</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="62">
+    <row r="34" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B34" s="44">
         <v>1990</v>
       </c>
-      <c r="C34" s="75">
+      <c r="C34" s="55">
         <v>4487</v>
       </c>
-      <c r="D34" s="75">
+      <c r="D34" s="55">
         <v>51901</v>
       </c>
-      <c r="E34" s="75">
+      <c r="E34" s="55">
         <v>11567</v>
       </c>
-      <c r="F34" s="75">
+      <c r="F34" s="55">
         <v>8357</v>
       </c>
-      <c r="G34" s="78">
+      <c r="G34" s="58">
         <v>6.2</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="62">
+    <row r="35" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B35" s="44">
         <v>1991</v>
       </c>
-      <c r="C35" s="75">
+      <c r="C35" s="55">
         <v>4481</v>
       </c>
-      <c r="D35" s="75">
+      <c r="D35" s="55">
         <v>52898</v>
       </c>
-      <c r="E35" s="75">
+      <c r="E35" s="55">
         <v>11805</v>
       </c>
-      <c r="F35" s="75">
+      <c r="F35" s="55">
         <v>8172</v>
       </c>
-      <c r="G35" s="78">
+      <c r="G35" s="58">
         <v>6.5</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="62">
+    <row r="36" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B36" s="44">
         <v>1992</v>
       </c>
-      <c r="C36" s="75">
+      <c r="C36" s="55">
         <v>4370</v>
       </c>
-      <c r="D36" s="75">
+      <c r="D36" s="55">
         <v>53874</v>
       </c>
-      <c r="E36" s="75">
+      <c r="E36" s="55">
         <v>12328</v>
       </c>
-      <c r="F36" s="75">
+      <c r="F36" s="55">
         <v>8237</v>
       </c>
-      <c r="G36" s="78">
+      <c r="G36" s="58">
         <v>6.5</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="62">
+    <row r="37" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B37" s="44">
         <v>1993</v>
       </c>
-      <c r="C37" s="75">
+      <c r="C37" s="55">
         <v>4408</v>
       </c>
-      <c r="D37" s="75">
+      <c r="D37" s="55">
         <v>56772</v>
       </c>
-      <c r="E37" s="75">
+      <c r="E37" s="55">
         <v>12879</v>
       </c>
-      <c r="F37" s="75">
+      <c r="F37" s="55">
         <v>8488</v>
       </c>
-      <c r="G37" s="78">
+      <c r="G37" s="58">
         <v>6.7</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="62">
+    <row r="38" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B38" s="44">
         <v>1994</v>
       </c>
-      <c r="C38" s="75">
+      <c r="C38" s="55">
         <v>4906</v>
       </c>
-      <c r="D38" s="75">
+      <c r="D38" s="55">
         <v>61284</v>
       </c>
-      <c r="E38" s="75">
+      <c r="E38" s="55">
         <v>12492</v>
       </c>
-      <c r="F38" s="75">
+      <c r="F38" s="55">
         <v>9032</v>
       </c>
-      <c r="G38" s="78">
+      <c r="G38" s="58">
         <v>6.8</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="62">
+    <row r="39" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B39" s="44">
         <v>1995</v>
       </c>
-      <c r="C39" s="75">
+      <c r="C39" s="55">
         <v>5024</v>
       </c>
-      <c r="D39" s="75">
+      <c r="D39" s="55">
         <v>62705</v>
       </c>
-      <c r="E39" s="75">
+      <c r="E39" s="55">
         <v>12481</v>
       </c>
-      <c r="F39" s="75">
+      <c r="F39" s="55">
         <v>9216</v>
       </c>
-      <c r="G39" s="78">
+      <c r="G39" s="58">
         <v>6.8</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="62">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="44">
         <v>1996</v>
       </c>
-      <c r="C40" s="75">
+      <c r="C40" s="55">
         <v>5266</v>
       </c>
-      <c r="D40" s="75">
+      <c r="D40" s="55">
         <v>64072</v>
       </c>
-      <c r="E40" s="75">
+      <c r="E40" s="55">
         <v>12167</v>
       </c>
-      <c r="F40" s="75">
+      <c r="F40" s="55">
         <v>9409</v>
       </c>
-      <c r="G40" s="78">
+      <c r="G40" s="58">
         <v>6.8</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="62">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="44">
         <v>1997</v>
       </c>
-      <c r="C41" s="75">
+      <c r="C41" s="55">
         <v>5293</v>
       </c>
-      <c r="D41" s="75">
+      <c r="D41" s="55">
         <v>66893</v>
       </c>
-      <c r="E41" s="75">
+      <c r="E41" s="55">
         <v>12638</v>
       </c>
-      <c r="F41" s="75">
+      <c r="F41" s="55">
         <v>9576</v>
       </c>
-      <c r="G41" s="78">
+      <c r="G41" s="58">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="62">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="44">
         <v>1998</v>
       </c>
-      <c r="C42" s="75">
+      <c r="C42" s="55">
         <v>5414</v>
       </c>
-      <c r="D42" s="75">
+      <c r="D42" s="55">
         <v>67894</v>
       </c>
-      <c r="E42" s="75">
+      <c r="E42" s="55">
         <v>12540</v>
       </c>
-      <c r="F42" s="75">
+      <c r="F42" s="55">
         <v>9741</v>
       </c>
-      <c r="G42" s="78">
+      <c r="G42" s="58">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="62">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="44">
         <v>1999</v>
       </c>
-      <c r="C43" s="75">
+      <c r="C43" s="55">
         <v>5763</v>
       </c>
-      <c r="D43" s="75">
+      <c r="D43" s="55">
         <v>70304</v>
       </c>
-      <c r="E43" s="75">
+      <c r="E43" s="55">
         <v>12199</v>
       </c>
-      <c r="F43" s="75">
+      <c r="F43" s="55">
         <v>9372</v>
       </c>
-      <c r="G43" s="62">
+      <c r="G43" s="44">
         <v>7.5</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="62">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="44">
         <v>2000</v>
       </c>
-      <c r="C44" s="75">
+      <c r="C44" s="55">
         <v>5926</v>
       </c>
-      <c r="D44" s="75">
+      <c r="D44" s="55">
         <v>70500</v>
       </c>
-      <c r="E44" s="75">
+      <c r="E44" s="55">
         <v>11897</v>
       </c>
-      <c r="F44" s="75">
+      <c r="F44" s="55">
         <v>9563</v>
       </c>
-      <c r="G44" s="62">
+      <c r="G44" s="44">
         <v>7.4</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="62">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="44">
         <v>2001</v>
       </c>
-      <c r="C45" s="75">
+      <c r="C45" s="55">
         <v>5704</v>
       </c>
-      <c r="D45" s="75">
+      <c r="D45" s="55">
         <v>72448</v>
       </c>
-      <c r="E45" s="75">
+      <c r="E45" s="55">
         <v>12701</v>
       </c>
-      <c r="F45" s="75">
+      <c r="F45" s="55">
         <v>9667</v>
       </c>
-      <c r="G45" s="62">
+      <c r="G45" s="44">
         <v>7.5</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="62">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="44">
         <v>2002</v>
       </c>
-      <c r="C46" s="75">
+      <c r="C46" s="55">
         <v>5651</v>
       </c>
-      <c r="D46" s="75">
+      <c r="D46" s="55">
         <v>75866</v>
       </c>
-      <c r="E46" s="75">
+      <c r="E46" s="55">
         <v>13425</v>
       </c>
-      <c r="F46" s="75">
+      <c r="F46" s="55">
         <v>10321</v>
       </c>
-      <c r="G46" s="62">
+      <c r="G46" s="44">
         <v>7.4</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="62">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="44">
         <v>2003</v>
       </c>
-      <c r="C47" s="75">
+      <c r="C47" s="55">
         <v>5849</v>
       </c>
-      <c r="D47" s="75">
+      <c r="D47" s="55">
         <v>77757</v>
       </c>
-      <c r="E47" s="75">
+      <c r="E47" s="55">
         <v>13294</v>
       </c>
-      <c r="F47" s="75">
+      <c r="F47" s="55">
         <v>8881</v>
       </c>
-      <c r="G47" s="62">
+      <c r="G47" s="44">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="62">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="44">
         <v>2004</v>
       </c>
-      <c r="C48" s="75">
+      <c r="C48" s="55">
         <v>6161</v>
       </c>
-      <c r="D48" s="75">
+      <c r="D48" s="55">
         <v>78441</v>
       </c>
-      <c r="E48" s="75">
+      <c r="E48" s="55">
         <v>12732</v>
       </c>
-      <c r="F48" s="75">
+      <c r="F48" s="55">
         <v>8959</v>
       </c>
-      <c r="G48" s="62">
+      <c r="G48" s="44">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="62">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="44">
         <v>2005</v>
       </c>
-      <c r="C49" s="75">
+      <c r="C49" s="55">
         <v>6395</v>
       </c>
-      <c r="D49" s="75">
+      <c r="D49" s="55">
         <v>78496</v>
       </c>
-      <c r="E49" s="75">
+      <c r="E49" s="55">
         <v>12275</v>
       </c>
-      <c r="F49" s="75">
+      <c r="F49" s="55">
         <v>9501</v>
       </c>
-      <c r="G49" s="62">
+      <c r="G49" s="44">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="76">
+    <row r="50" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="56">
         <v>2006</v>
       </c>
-      <c r="C50" s="77">
+      <c r="C50" s="57">
         <v>6649</v>
       </c>
-      <c r="D50" s="77">
+      <c r="D50" s="57">
         <v>80344</v>
       </c>
-      <c r="E50" s="77">
+      <c r="E50" s="57">
         <v>12084</v>
       </c>
-      <c r="F50" s="77">
+      <c r="F50" s="57">
         <v>9852</v>
       </c>
-      <c r="G50" s="76" t="s">
+      <c r="G50" s="56" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="62">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="44">
         <v>2007</v>
       </c>
-      <c r="C51" s="75">
+      <c r="C51" s="55">
         <v>8117</v>
       </c>
-      <c r="D51" s="75">
+      <c r="D51" s="55">
         <v>119979</v>
       </c>
-      <c r="E51" s="75">
+      <c r="E51" s="55">
         <v>14781</v>
       </c>
-      <c r="F51" s="75">
+      <c r="F51" s="55">
         <v>16314</v>
       </c>
-      <c r="G51" s="62">
+      <c r="G51" s="44">
         <v>7.3</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="62">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="44">
         <v>2008</v>
       </c>
-      <c r="C52" s="75">
+      <c r="C52" s="55">
         <v>8228</v>
       </c>
-      <c r="D52" s="75">
+      <c r="D52" s="55">
         <v>126855</v>
       </c>
-      <c r="E52" s="75">
+      <c r="E52" s="55">
         <v>15417</v>
       </c>
-      <c r="F52" s="75">
+      <c r="F52" s="55">
         <v>17144</v>
       </c>
-      <c r="G52" s="62">
+      <c r="G52" s="44">
         <v>7.4</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="62">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="44">
         <v>2009</v>
       </c>
-      <c r="C53" s="75">
+      <c r="C53" s="55">
         <v>8356</v>
       </c>
-      <c r="D53" s="75">
+      <c r="D53" s="55">
         <v>120207</v>
       </c>
-      <c r="E53" s="75">
+      <c r="E53" s="55">
         <v>14386</v>
       </c>
-      <c r="F53" s="75">
+      <c r="F53" s="55">
         <v>16253</v>
       </c>
-      <c r="G53" s="62">
+      <c r="G53" s="44">
         <v>7.4</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="62">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="44">
         <v>2010</v>
       </c>
-      <c r="C54" s="75">
+      <c r="C54" s="55">
         <v>8217</v>
       </c>
-      <c r="D54" s="75">
+      <c r="D54" s="55">
         <v>110738</v>
       </c>
-      <c r="E54" s="75">
+      <c r="E54" s="55">
         <v>13477</v>
       </c>
-      <c r="F54" s="75">
+      <c r="F54" s="55">
         <v>15097</v>
       </c>
-      <c r="G54" s="62">
+      <c r="G54" s="44">
         <v>7.3</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B55" s="62">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="44">
         <v>2011</v>
       </c>
-      <c r="C55" s="75">
+      <c r="C55" s="55">
         <v>7819</v>
       </c>
-      <c r="D55" s="75">
+      <c r="D55" s="55">
         <v>103803</v>
       </c>
-      <c r="E55" s="75">
+      <c r="E55" s="55">
         <v>13276</v>
       </c>
-      <c r="F55" s="75">
+      <c r="F55" s="55">
         <v>14214</v>
       </c>
-      <c r="G55" s="62">
+      <c r="G55" s="44">
         <v>7.3</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="62">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="44">
         <v>2012</v>
       </c>
-      <c r="C56" s="75">
+      <c r="C56" s="55">
         <v>8190</v>
       </c>
-      <c r="D56" s="75">
+      <c r="D56" s="55">
         <v>105605</v>
       </c>
-      <c r="E56" s="75">
+      <c r="E56" s="55">
         <v>12894</v>
       </c>
-      <c r="F56" s="75">
+      <c r="F56" s="55">
         <v>14376</v>
       </c>
-      <c r="G56" s="62">
+      <c r="G56" s="44">
         <v>7.3</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="62">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="44">
         <v>2013</v>
       </c>
-      <c r="C57" s="75">
+      <c r="C57" s="55">
         <v>8126</v>
       </c>
-      <c r="D57" s="75">
+      <c r="D57" s="55">
         <v>106582</v>
       </c>
-      <c r="E57" s="75">
+      <c r="E57" s="55">
         <v>13116</v>
       </c>
-      <c r="F57" s="75">
+      <c r="F57" s="55">
         <v>14502</v>
       </c>
-      <c r="G57" s="62">
+      <c r="G57" s="44">
         <v>7.3</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B58" s="62">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="44">
         <v>2014</v>
       </c>
-      <c r="C58" s="75">
+      <c r="C58" s="55">
         <v>8329</v>
       </c>
-      <c r="D58" s="75">
+      <c r="D58" s="55">
         <v>109301</v>
       </c>
-      <c r="E58" s="75">
+      <c r="E58" s="55">
         <v>13123</v>
       </c>
-      <c r="F58" s="75">
+      <c r="F58" s="55">
         <v>14894</v>
       </c>
-      <c r="G58" s="62">
+      <c r="G58" s="44">
         <v>7.3</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B59" s="74" t="s">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="74"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="74"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B60" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="C60" s="72">
+      <c r="C59" s="108"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="108"/>
+      <c r="G59" s="108"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="53">
         <v>1.9E-2</v>
       </c>
-      <c r="D60" s="72">
+      <c r="D60" s="53">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E60" s="73">
+      <c r="E60" s="54">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F60" s="72">
+      <c r="F60" s="53">
         <v>3.1E-2</v>
       </c>
-      <c r="G60" s="72">
+      <c r="G60" s="53">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="61" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="71" t="s">
-        <v>105</v>
-      </c>
-      <c r="C61" s="69">
+    <row r="61" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" s="50">
         <v>3.1E-2</v>
       </c>
-      <c r="D61" s="69">
+      <c r="D61" s="50">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E61" s="70">
+      <c r="E61" s="51">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F61" s="69">
+      <c r="F61" s="50">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="G61" s="69">
+      <c r="G61" s="50">
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B63" s="68" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B65" s="67"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B66" s="66"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="63"/>
-      <c r="G66" s="64"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B67" s="63"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="63"/>
-      <c r="G67" s="63"/>
-    </row>
-    <row r="68" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B68" s="63" t="s">
+    <row r="62" spans="2:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" s="103"/>
+      <c r="D64" s="103"/>
+      <c r="E64" s="103"/>
+      <c r="F64" s="103"/>
+      <c r="G64" s="103"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="103"/>
+      <c r="C65" s="103"/>
+      <c r="D65" s="103"/>
+      <c r="E65" s="103"/>
+      <c r="F65" s="103"/>
+      <c r="G65" s="103"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66" s="48"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="G66" s="46"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+    </row>
+    <row r="68" spans="2:7" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="B68" s="45" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B69" s="62"/>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B69" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4514,1107 +4533,1107 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="60" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="60" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="60" customWidth="1"/>
-    <col min="4" max="5" width="16.7109375" style="60" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="60"/>
+    <col min="1" max="1" width="4.54296875" style="42" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="42" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="42" customWidth="1"/>
+    <col min="4" max="5" width="16.7265625" style="42" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="101" t="s">
+    <row r="2" spans="2:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="99"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="98"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="96"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="98"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="96"/>
-    </row>
-    <row r="5" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="95"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="93"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="91" t="s">
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="96"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="97"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="99"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="97"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+    </row>
+    <row r="5" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="100"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="102"/>
+    </row>
+    <row r="6" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+    </row>
+    <row r="7" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
     </row>
     <row r="9" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="90" t="s">
+    <row r="10" spans="2:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="89" t="s">
+      <c r="D10" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="88" t="s">
+      <c r="E10" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="87" t="s">
+      <c r="G10" s="65" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="85"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="83" t="s">
+    <row r="11" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="105"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="76" t="s">
+      <c r="F11" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="76" t="s">
+      <c r="G11" s="56" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="62">
+    <row r="12" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="44">
         <v>1970</v>
       </c>
-      <c r="C12" s="106">
+      <c r="C12" s="72">
         <v>905</v>
       </c>
-      <c r="D12" s="107">
+      <c r="D12" s="73">
         <v>35134</v>
       </c>
-      <c r="E12" s="108">
+      <c r="E12" s="74">
         <v>38822.099447513814</v>
       </c>
-      <c r="F12" s="107">
+      <c r="F12" s="73">
         <v>7348</v>
       </c>
-      <c r="G12" s="106">
+      <c r="G12" s="72">
         <v>4.8</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="62">
+    <row r="13" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="44">
         <v>1971</v>
       </c>
-      <c r="C13" s="75">
+      <c r="C13" s="55">
         <v>919</v>
       </c>
-      <c r="D13" s="75">
+      <c r="D13" s="55">
         <v>37217</v>
       </c>
-      <c r="E13" s="75">
+      <c r="E13" s="55">
         <v>40497.279651795427</v>
       </c>
-      <c r="F13" s="75">
+      <c r="F13" s="55">
         <v>7595</v>
       </c>
-      <c r="G13" s="78">
+      <c r="G13" s="58">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="62">
+    <row r="14" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="44">
         <v>1972</v>
       </c>
-      <c r="C14" s="75">
+      <c r="C14" s="55">
         <v>961</v>
       </c>
-      <c r="D14" s="75">
+      <c r="D14" s="55">
         <v>40706</v>
       </c>
-      <c r="E14" s="75">
+      <c r="E14" s="55">
         <v>42357.960457856403</v>
       </c>
-      <c r="F14" s="75">
+      <c r="F14" s="55">
         <v>8120</v>
       </c>
-      <c r="G14" s="78">
+      <c r="G14" s="58">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="62">
+    <row r="15" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="44">
         <v>1973</v>
       </c>
-      <c r="C15" s="75">
+      <c r="C15" s="55">
         <v>1029</v>
       </c>
-      <c r="D15" s="75">
+      <c r="D15" s="55">
         <v>45649</v>
       </c>
-      <c r="E15" s="75">
+      <c r="E15" s="55">
         <v>44362.487852283768</v>
       </c>
-      <c r="F15" s="75">
+      <c r="F15" s="55">
         <v>9026</v>
       </c>
-      <c r="G15" s="78">
+      <c r="G15" s="58">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="62">
+    <row r="16" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="44">
         <v>1974</v>
       </c>
-      <c r="C16" s="75">
+      <c r="C16" s="55">
         <v>1085</v>
       </c>
-      <c r="D16" s="75">
+      <c r="D16" s="55">
         <v>45966</v>
       </c>
-      <c r="E16" s="75">
+      <c r="E16" s="55">
         <v>42364.976958525345</v>
       </c>
-      <c r="F16" s="75">
+      <c r="F16" s="55">
         <v>9080</v>
       </c>
-      <c r="G16" s="78">
+      <c r="G16" s="58">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="2:7" s="105" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="81">
+    <row r="17" spans="2:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="61">
         <v>1975</v>
       </c>
-      <c r="C17" s="80">
+      <c r="C17" s="60">
         <v>1131</v>
       </c>
-      <c r="D17" s="80">
+      <c r="D17" s="60">
         <v>46724</v>
       </c>
-      <c r="E17" s="80">
+      <c r="E17" s="60">
         <v>41312.113174182137</v>
       </c>
-      <c r="F17" s="80">
+      <c r="F17" s="60">
         <v>9177</v>
       </c>
-      <c r="G17" s="79">
+      <c r="G17" s="59">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="105" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="62">
+    <row r="18" spans="2:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="44">
         <v>1976</v>
       </c>
-      <c r="C18" s="75">
+      <c r="C18" s="55">
         <v>1225</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="55">
         <v>49680</v>
       </c>
-      <c r="E18" s="75">
+      <c r="E18" s="55">
         <v>40555.102040816324</v>
       </c>
-      <c r="F18" s="75">
+      <c r="F18" s="55">
         <v>9703</v>
       </c>
-      <c r="G18" s="78">
+      <c r="G18" s="58">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="105" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="62">
+    <row r="19" spans="2:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="44">
         <v>1977</v>
       </c>
-      <c r="C19" s="75">
+      <c r="C19" s="55">
         <v>1240</v>
       </c>
-      <c r="D19" s="75">
+      <c r="D19" s="55">
         <v>55682</v>
       </c>
-      <c r="E19" s="75">
+      <c r="E19" s="55">
         <v>44904.838709677417</v>
       </c>
-      <c r="F19" s="75">
+      <c r="F19" s="55">
         <v>10814</v>
       </c>
-      <c r="G19" s="78">
+      <c r="G19" s="58">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="105" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="62">
+    <row r="20" spans="2:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="44">
         <v>1978</v>
       </c>
-      <c r="C20" s="75">
+      <c r="C20" s="55">
         <v>1342</v>
       </c>
-      <c r="D20" s="75">
+      <c r="D20" s="55">
         <v>62992</v>
       </c>
-      <c r="E20" s="75">
+      <c r="E20" s="55">
         <v>46938.897168405369</v>
       </c>
-      <c r="F20" s="75">
+      <c r="F20" s="55">
         <v>12165</v>
       </c>
-      <c r="G20" s="78">
+      <c r="G20" s="58">
         <v>5.2</v>
       </c>
     </row>
-    <row r="21" spans="2:7" s="105" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="62">
+    <row r="21" spans="2:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B21" s="44">
         <v>1979</v>
       </c>
-      <c r="C21" s="75">
+      <c r="C21" s="55">
         <v>1386</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="55">
         <v>66992</v>
       </c>
-      <c r="E21" s="75">
+      <c r="E21" s="55">
         <v>48334.776334776332</v>
       </c>
-      <c r="F21" s="75">
+      <c r="F21" s="55">
         <v>12864</v>
       </c>
-      <c r="G21" s="78">
+      <c r="G21" s="58">
         <v>5.2</v>
       </c>
     </row>
-    <row r="22" spans="2:7" s="105" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="81">
+    <row r="22" spans="2:7" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="61">
         <v>1980</v>
       </c>
-      <c r="C22" s="80">
+      <c r="C22" s="60">
         <v>1417</v>
       </c>
-      <c r="D22" s="80">
+      <c r="D22" s="60">
         <v>68678</v>
       </c>
-      <c r="E22" s="80">
+      <c r="E22" s="60">
         <v>48467</v>
       </c>
-      <c r="F22" s="80">
+      <c r="F22" s="60">
         <v>13037</v>
       </c>
-      <c r="G22" s="79">
+      <c r="G22" s="59">
         <v>5.3</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="62">
+    <row r="23" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B23" s="44">
         <v>1981</v>
       </c>
-      <c r="C23" s="75">
+      <c r="C23" s="55">
         <v>1261</v>
       </c>
-      <c r="D23" s="75">
+      <c r="D23" s="55">
         <v>69134</v>
       </c>
-      <c r="E23" s="75">
+      <c r="E23" s="55">
         <v>54825</v>
       </c>
-      <c r="F23" s="75">
+      <c r="F23" s="55">
         <v>13509</v>
       </c>
-      <c r="G23" s="78">
+      <c r="G23" s="58">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="62">
+    <row r="24" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="44">
         <v>1982</v>
       </c>
-      <c r="C24" s="75">
+      <c r="C24" s="55">
         <v>1265</v>
       </c>
-      <c r="D24" s="75">
+      <c r="D24" s="55">
         <v>70765</v>
       </c>
-      <c r="E24" s="75">
+      <c r="E24" s="55">
         <v>55941</v>
       </c>
-      <c r="F24" s="75">
+      <c r="F24" s="55">
         <v>13583</v>
       </c>
-      <c r="G24" s="78">
+      <c r="G24" s="58">
         <v>5.2</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="62">
+    <row r="25" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="44">
         <v>1983</v>
       </c>
-      <c r="C25" s="75">
+      <c r="C25" s="55">
         <v>1304</v>
       </c>
-      <c r="D25" s="75">
+      <c r="D25" s="55">
         <v>73586</v>
       </c>
-      <c r="E25" s="75">
+      <c r="E25" s="55">
         <v>56431</v>
       </c>
-      <c r="F25" s="75">
+      <c r="F25" s="55">
         <v>13796</v>
       </c>
-      <c r="G25" s="78">
+      <c r="G25" s="58">
         <v>5.3</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="62">
+    <row r="26" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="44">
         <v>1984</v>
       </c>
-      <c r="C26" s="75">
+      <c r="C26" s="55">
         <v>1340</v>
       </c>
-      <c r="D26" s="75">
+      <c r="D26" s="55">
         <v>77377</v>
       </c>
-      <c r="E26" s="75">
+      <c r="E26" s="55">
         <v>57744</v>
       </c>
-      <c r="F26" s="75">
+      <c r="F26" s="55">
         <v>14188</v>
       </c>
-      <c r="G26" s="78">
+      <c r="G26" s="58">
         <v>5.5</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="62">
+    <row r="27" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B27" s="44">
         <v>1985</v>
       </c>
-      <c r="C27" s="75">
+      <c r="C27" s="55">
         <v>1403</v>
       </c>
-      <c r="D27" s="75">
+      <c r="D27" s="55">
         <v>78063</v>
       </c>
-      <c r="E27" s="75">
+      <c r="E27" s="55">
         <v>55640</v>
       </c>
-      <c r="F27" s="75">
+      <c r="F27" s="55">
         <v>14005</v>
       </c>
-      <c r="G27" s="78">
+      <c r="G27" s="58">
         <v>5.6</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="62">
+    <row r="28" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B28" s="44">
         <v>1986</v>
       </c>
-      <c r="C28" s="75">
+      <c r="C28" s="55">
         <v>1408</v>
       </c>
-      <c r="D28" s="75">
+      <c r="D28" s="55">
         <v>81038</v>
       </c>
-      <c r="E28" s="75">
+      <c r="E28" s="55">
         <v>57555</v>
       </c>
-      <c r="F28" s="75">
+      <c r="F28" s="55">
         <v>14475</v>
       </c>
-      <c r="G28" s="78">
+      <c r="G28" s="58">
         <v>5.6</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="62">
+    <row r="29" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B29" s="44">
         <v>1987</v>
       </c>
-      <c r="C29" s="75">
+      <c r="C29" s="55">
         <v>1530</v>
       </c>
-      <c r="D29" s="75">
+      <c r="D29" s="55">
         <v>85495</v>
       </c>
-      <c r="E29" s="75">
+      <c r="E29" s="55">
         <v>55879</v>
       </c>
-      <c r="F29" s="75">
+      <c r="F29" s="55">
         <v>14990</v>
       </c>
-      <c r="G29" s="78">
+      <c r="G29" s="58">
         <v>5.7</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="62">
+    <row r="30" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B30" s="44">
         <v>1988</v>
       </c>
-      <c r="C30" s="75">
+      <c r="C30" s="55">
         <v>1667</v>
       </c>
-      <c r="D30" s="75">
+      <c r="D30" s="55">
         <v>88551</v>
       </c>
-      <c r="E30" s="75">
+      <c r="E30" s="55">
         <v>53120</v>
       </c>
-      <c r="F30" s="75">
+      <c r="F30" s="55">
         <v>15224</v>
       </c>
-      <c r="G30" s="78">
+      <c r="G30" s="58">
         <v>5.8</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="62">
+    <row r="31" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B31" s="44">
         <v>1989</v>
       </c>
-      <c r="C31" s="75">
+      <c r="C31" s="55">
         <v>1707</v>
       </c>
-      <c r="D31" s="75">
+      <c r="D31" s="55">
         <v>91879</v>
       </c>
-      <c r="E31" s="75">
+      <c r="E31" s="55">
         <v>53825</v>
       </c>
-      <c r="F31" s="75">
+      <c r="F31" s="55">
         <v>15733</v>
       </c>
-      <c r="G31" s="78">
+      <c r="G31" s="58">
         <v>5.8</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="62">
+    <row r="32" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B32" s="44">
         <v>1990</v>
       </c>
-      <c r="C32" s="75">
+      <c r="C32" s="55">
         <v>1709</v>
       </c>
-      <c r="D32" s="75">
+      <c r="D32" s="55">
         <v>94341</v>
       </c>
-      <c r="E32" s="75">
+      <c r="E32" s="55">
         <v>55202</v>
       </c>
-      <c r="F32" s="75">
+      <c r="F32" s="55">
         <v>16133</v>
       </c>
-      <c r="G32" s="78">
+      <c r="G32" s="58">
         <v>5.8</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="62">
+    <row r="33" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B33" s="44">
         <v>1991</v>
       </c>
-      <c r="C33" s="75">
+      <c r="C33" s="55">
         <v>1691</v>
       </c>
-      <c r="D33" s="75">
+      <c r="D33" s="55">
         <v>96645</v>
       </c>
-      <c r="E33" s="75">
+      <c r="E33" s="55">
         <v>57153</v>
       </c>
-      <c r="F33" s="75">
+      <c r="F33" s="55">
         <v>16809</v>
       </c>
-      <c r="G33" s="78">
+      <c r="G33" s="58">
         <v>5.7</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="62">
+    <row r="34" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B34" s="44">
         <v>1992</v>
       </c>
-      <c r="C34" s="75">
+      <c r="C34" s="55">
         <v>1675</v>
       </c>
-      <c r="D34" s="75">
+      <c r="D34" s="55">
         <v>99510</v>
       </c>
-      <c r="E34" s="75">
+      <c r="E34" s="55">
         <v>59409</v>
       </c>
-      <c r="F34" s="75">
+      <c r="F34" s="55">
         <v>17216</v>
       </c>
-      <c r="G34" s="78">
+      <c r="G34" s="58">
         <v>5.8</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="62">
+    <row r="35" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B35" s="44">
         <v>1993</v>
       </c>
-      <c r="C35" s="75">
+      <c r="C35" s="55">
         <v>1680</v>
       </c>
-      <c r="D35" s="75">
+      <c r="D35" s="55">
         <v>103116</v>
       </c>
-      <c r="E35" s="75">
+      <c r="E35" s="55">
         <v>61379</v>
       </c>
-      <c r="F35" s="75">
+      <c r="F35" s="55">
         <v>17748</v>
       </c>
-      <c r="G35" s="78">
+      <c r="G35" s="58">
         <v>5.8</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="62">
+    <row r="36" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B36" s="44">
         <v>1994</v>
       </c>
-      <c r="C36" s="75">
+      <c r="C36" s="55">
         <v>1681</v>
       </c>
-      <c r="D36" s="75">
+      <c r="D36" s="55">
         <v>108932</v>
       </c>
-      <c r="E36" s="75">
+      <c r="E36" s="55">
         <v>64802</v>
       </c>
-      <c r="F36" s="75">
+      <c r="F36" s="55">
         <v>18653</v>
       </c>
-      <c r="G36" s="78">
+      <c r="G36" s="58">
         <v>5.8</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="62">
+    <row r="37" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B37" s="44">
         <v>1995</v>
       </c>
-      <c r="C37" s="75">
+      <c r="C37" s="55">
         <v>1696</v>
       </c>
-      <c r="D37" s="75">
+      <c r="D37" s="55">
         <v>115451</v>
       </c>
-      <c r="E37" s="75">
+      <c r="E37" s="55">
         <v>68073</v>
       </c>
-      <c r="F37" s="75">
+      <c r="F37" s="55">
         <v>19777</v>
       </c>
-      <c r="G37" s="78">
+      <c r="G37" s="58">
         <v>5.8</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="62">
+    <row r="38" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B38" s="44">
         <v>1996</v>
       </c>
-      <c r="C38" s="75">
+      <c r="C38" s="55">
         <v>1747</v>
       </c>
-      <c r="D38" s="75">
+      <c r="D38" s="55">
         <v>118899</v>
       </c>
-      <c r="E38" s="75">
+      <c r="E38" s="55">
         <v>68059</v>
       </c>
-      <c r="F38" s="75">
+      <c r="F38" s="55">
         <v>20192</v>
       </c>
-      <c r="G38" s="78">
+      <c r="G38" s="58">
         <v>5.9</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="62">
+    <row r="39" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B39" s="44">
         <v>1997</v>
       </c>
-      <c r="C39" s="75">
+      <c r="C39" s="55">
         <v>1790</v>
       </c>
-      <c r="D39" s="75">
+      <c r="D39" s="55">
         <v>124584</v>
       </c>
-      <c r="E39" s="75">
+      <c r="E39" s="55">
         <v>69600</v>
       </c>
-      <c r="F39" s="75">
+      <c r="F39" s="55">
         <v>20302</v>
       </c>
-      <c r="G39" s="78">
+      <c r="G39" s="58">
         <v>6.1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="62">
+    <row r="40" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B40" s="44">
         <v>1998</v>
       </c>
-      <c r="C40" s="75">
+      <c r="C40" s="55">
         <v>1831</v>
       </c>
-      <c r="D40" s="75">
+      <c r="D40" s="55">
         <v>128159</v>
       </c>
-      <c r="E40" s="75">
+      <c r="E40" s="55">
         <v>69994</v>
       </c>
-      <c r="F40" s="75">
+      <c r="F40" s="55">
         <v>21100</v>
       </c>
-      <c r="G40" s="78">
+      <c r="G40" s="58">
         <v>6.1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="62">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="44">
         <v>1999</v>
       </c>
-      <c r="C41" s="75">
+      <c r="C41" s="55">
         <v>2029</v>
       </c>
-      <c r="D41" s="75">
+      <c r="D41" s="55">
         <v>132384</v>
       </c>
-      <c r="E41" s="75">
+      <c r="E41" s="55">
         <v>65246</v>
       </c>
-      <c r="F41" s="75">
+      <c r="F41" s="55">
         <v>24537</v>
       </c>
-      <c r="G41" s="62">
+      <c r="G41" s="44">
         <v>5.4</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="62">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="44">
         <v>2000</v>
       </c>
-      <c r="C42" s="75">
+      <c r="C42" s="55">
         <v>2097</v>
       </c>
-      <c r="D42" s="75">
+      <c r="D42" s="55">
         <v>135020</v>
       </c>
-      <c r="E42" s="75">
+      <c r="E42" s="55">
         <v>64387</v>
       </c>
-      <c r="F42" s="75">
+      <c r="F42" s="55">
         <v>25666</v>
       </c>
-      <c r="G42" s="62">
+      <c r="G42" s="44">
         <v>5.3</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="62">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="44">
         <v>2001</v>
       </c>
-      <c r="C43" s="75">
+      <c r="C43" s="55">
         <v>2154</v>
       </c>
-      <c r="D43" s="75">
+      <c r="D43" s="55">
         <v>136584</v>
       </c>
-      <c r="E43" s="75">
+      <c r="E43" s="55">
         <v>63409</v>
       </c>
-      <c r="F43" s="75">
+      <c r="F43" s="55">
         <v>25512</v>
       </c>
-      <c r="G43" s="62">
+      <c r="G43" s="44">
         <v>5.4</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="62">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="44">
         <v>2002</v>
       </c>
-      <c r="C44" s="75">
+      <c r="C44" s="55">
         <v>2277</v>
       </c>
-      <c r="D44" s="75">
+      <c r="D44" s="55">
         <v>138737</v>
       </c>
-      <c r="E44" s="75">
+      <c r="E44" s="55">
         <v>60930</v>
       </c>
-      <c r="F44" s="75">
+      <c r="F44" s="55">
         <v>26480</v>
       </c>
-      <c r="G44" s="62">
+      <c r="G44" s="44">
         <v>5.2</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="62">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="44">
         <v>2003</v>
       </c>
-      <c r="C45" s="75">
+      <c r="C45" s="55">
         <v>1908</v>
       </c>
-      <c r="D45" s="75">
+      <c r="D45" s="55">
         <v>140160</v>
       </c>
-      <c r="E45" s="75">
+      <c r="E45" s="55">
         <v>73459</v>
       </c>
-      <c r="F45" s="75">
+      <c r="F45" s="55">
         <v>23815</v>
       </c>
-      <c r="G45" s="62">
+      <c r="G45" s="44">
         <v>5.9</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="62">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="44">
         <v>2004</v>
       </c>
-      <c r="C46" s="75">
+      <c r="C46" s="55">
         <v>2010</v>
       </c>
-      <c r="D46" s="75">
+      <c r="D46" s="55">
         <v>142370</v>
       </c>
-      <c r="E46" s="75">
+      <c r="E46" s="55">
         <v>70831</v>
       </c>
-      <c r="F46" s="75">
+      <c r="F46" s="55">
         <v>24191</v>
       </c>
-      <c r="G46" s="62">
+      <c r="G46" s="44">
         <v>5.9</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="62">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="44">
         <v>2005</v>
       </c>
-      <c r="C47" s="75">
+      <c r="C47" s="55">
         <v>2087</v>
       </c>
-      <c r="D47" s="75">
+      <c r="D47" s="55">
         <v>144028</v>
       </c>
-      <c r="E47" s="75">
+      <c r="E47" s="55">
         <v>69012</v>
       </c>
-      <c r="F47" s="75">
+      <c r="F47" s="55">
         <v>27689</v>
       </c>
-      <c r="G47" s="62">
+      <c r="G47" s="44">
         <v>5.2</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="76">
+    <row r="48" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="56">
         <v>2006</v>
       </c>
-      <c r="C48" s="77">
+      <c r="C48" s="57">
         <v>2170</v>
       </c>
-      <c r="D48" s="77">
+      <c r="D48" s="57">
         <v>142169</v>
       </c>
-      <c r="E48" s="77">
+      <c r="E48" s="57">
         <v>65516</v>
       </c>
-      <c r="F48" s="77">
+      <c r="F48" s="57">
         <v>28107</v>
       </c>
-      <c r="G48" s="76" t="s">
+      <c r="G48" s="56" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="62">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="44">
         <v>2007</v>
       </c>
-      <c r="C49" s="75">
+      <c r="C49" s="55">
         <v>2635</v>
       </c>
-      <c r="D49" s="75">
+      <c r="D49" s="55">
         <v>184199</v>
       </c>
-      <c r="E49" s="75">
+      <c r="E49" s="55">
         <v>69905</v>
       </c>
-      <c r="F49" s="75">
+      <c r="F49" s="55">
         <v>30904</v>
       </c>
-      <c r="G49" s="78">
+      <c r="G49" s="58">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="62">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="44">
         <v>2008</v>
       </c>
-      <c r="C50" s="75">
+      <c r="C50" s="55">
         <v>2585</v>
       </c>
-      <c r="D50" s="75">
+      <c r="D50" s="55">
         <v>183826</v>
       </c>
-      <c r="E50" s="75">
+      <c r="E50" s="55">
         <v>71113</v>
       </c>
-      <c r="F50" s="75">
+      <c r="F50" s="55">
         <v>30561</v>
       </c>
-      <c r="G50" s="78">
+      <c r="G50" s="58">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="62">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="44">
         <v>2009</v>
       </c>
-      <c r="C51" s="75">
+      <c r="C51" s="55">
         <v>2617</v>
       </c>
-      <c r="D51" s="75">
+      <c r="D51" s="55">
         <v>168100</v>
       </c>
-      <c r="E51" s="75">
+      <c r="E51" s="55">
         <v>64234</v>
       </c>
-      <c r="F51" s="75">
+      <c r="F51" s="55">
         <v>28050</v>
       </c>
-      <c r="G51" s="78">
+      <c r="G51" s="58">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="62">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="44">
         <v>2010</v>
       </c>
-      <c r="C52" s="75">
+      <c r="C52" s="55">
         <v>2553</v>
       </c>
-      <c r="D52" s="75">
+      <c r="D52" s="55">
         <v>175789</v>
       </c>
-      <c r="E52" s="75">
+      <c r="E52" s="55">
         <v>68856</v>
       </c>
-      <c r="F52" s="75">
+      <c r="F52" s="55">
         <v>29927</v>
       </c>
-      <c r="G52" s="78">
+      <c r="G52" s="58">
         <v>5.9</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="62">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="44">
         <v>2011</v>
       </c>
-      <c r="C53" s="75">
+      <c r="C53" s="55">
         <v>2452</v>
       </c>
-      <c r="D53" s="75">
+      <c r="D53" s="55">
         <v>163791</v>
       </c>
-      <c r="E53" s="75">
+      <c r="E53" s="55">
         <v>66809</v>
       </c>
-      <c r="F53" s="75">
+      <c r="F53" s="55">
         <v>28181</v>
       </c>
-      <c r="G53" s="78">
+      <c r="G53" s="58">
         <v>5.8</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="62">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="44">
         <v>2012</v>
       </c>
-      <c r="C54" s="75">
+      <c r="C54" s="55">
         <v>2469</v>
       </c>
-      <c r="D54" s="75">
+      <c r="D54" s="55">
         <v>163602</v>
       </c>
-      <c r="E54" s="75">
+      <c r="E54" s="55">
         <v>66262</v>
       </c>
-      <c r="F54" s="75">
+      <c r="F54" s="55">
         <v>27975</v>
       </c>
-      <c r="G54" s="78">
+      <c r="G54" s="58">
         <v>5.8</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B55" s="62">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="44">
         <v>2013</v>
       </c>
-      <c r="C55" s="75">
+      <c r="C55" s="55">
         <v>2471</v>
       </c>
-      <c r="D55" s="75">
+      <c r="D55" s="55">
         <v>168436</v>
       </c>
-      <c r="E55" s="75">
+      <c r="E55" s="55">
         <v>68155</v>
       </c>
-      <c r="F55" s="75">
+      <c r="F55" s="55">
         <v>28795</v>
       </c>
-      <c r="G55" s="78">
+      <c r="G55" s="58">
         <v>5.8</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="62">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="44">
         <v>2014</v>
       </c>
-      <c r="C56" s="75">
+      <c r="C56" s="55">
         <v>2577</v>
       </c>
-      <c r="D56" s="75">
+      <c r="D56" s="55">
         <v>169830</v>
       </c>
-      <c r="E56" s="75">
+      <c r="E56" s="55">
         <v>65897</v>
       </c>
-      <c r="F56" s="75">
+      <c r="F56" s="55">
         <v>29118</v>
       </c>
-      <c r="G56" s="78">
+      <c r="G56" s="58">
         <v>5.8</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="74" t="s">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="74"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="74"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B58" s="60" t="s">
+      <c r="C57" s="108"/>
+      <c r="D57" s="108"/>
+      <c r="E57" s="108"/>
+      <c r="F57" s="108"/>
+      <c r="G57" s="108"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="53">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D58" s="53">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E58" s="53">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F58" s="53">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G58" s="53">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="50">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D59" s="50">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E59" s="50">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="F59" s="50">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G59" s="50">
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="72">
-        <v>2.4E-2</v>
-      </c>
-      <c r="D58" s="72">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="E58" s="72">
-        <v>1.2E-2</v>
-      </c>
-      <c r="F58" s="72">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="G58" s="72">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="104" t="s">
-        <v>105</v>
-      </c>
-      <c r="C59" s="69">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D59" s="69">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="E59" s="69">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="F59" s="69">
-        <v>1.9E-2</v>
-      </c>
-      <c r="G59" s="69">
-        <v>-2E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B61" s="68" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="63"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B63" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" s="63"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="63"/>
-      <c r="F63" s="63"/>
-      <c r="G63" s="63"/>
-    </row>
-    <row r="64" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="103"/>
-      <c r="C64" s="103"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B66" s="67" t="s">
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="45"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+    </row>
+    <row r="64" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="69"/>
+      <c r="C64" s="69"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C66" s="67"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-    </row>
-    <row r="67" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B67" s="102" t="s">
+      <c r="C66" s="103"/>
+      <c r="D66" s="103"/>
+      <c r="E66" s="103"/>
+      <c r="F66" s="103"/>
+      <c r="G66" s="103"/>
+    </row>
+    <row r="67" spans="2:7" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="B67" s="68" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5640,9 +5659,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5658,7 +5677,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>21385</v>
@@ -5690,16 +5709,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="73.5703125" customWidth="1"/>
+    <col min="1" max="1" width="73.54296875" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="103.42578125" customWidth="1"/>
+    <col min="3" max="3" width="103.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="19">
         <v>2006</v>
@@ -5707,7 +5726,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>8218378</v>
@@ -5715,27 +5734,27 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="58">
+        <v>79</v>
+      </c>
+      <c r="B3" s="40">
         <v>6758</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4" s="21">
         <f>B2*1000/B3</f>
         <v>1216096.1823024563</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="19">
         <v>2014</v>
@@ -5743,7 +5762,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B7">
         <v>18347</v>
@@ -5751,7 +5770,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="19">
         <v>2008</v>
@@ -5759,7 +5778,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10">
         <v>64944</v>
@@ -5767,21 +5786,21 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B12" s="19"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="56">
+      <c r="A13" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="38">
         <v>2009</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14">
         <v>38</v>
@@ -5789,7 +5808,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B15">
         <v>274</v>
@@ -5797,7 +5816,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" s="21">
         <f>B14*10^6/B15</f>
@@ -5805,16 +5824,16 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="56">
+      <c r="A17" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="38">
         <v>2009</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B18" s="21">
         <v>685</v>
@@ -5822,7 +5841,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B19" s="21">
         <v>90</v>
@@ -5830,7 +5849,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B20" s="21">
         <v>337</v>
@@ -5838,7 +5857,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B21" s="21">
         <v>11461</v>
@@ -5846,7 +5865,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B22" s="21">
         <v>2059</v>
@@ -5854,15 +5873,15 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B23" s="21">
         <v>6722</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
-        <v>90</v>
+      <c r="A24" s="39" t="s">
+        <v>88</v>
       </c>
       <c r="B24" s="21">
         <f>B18*10^6/B21</f>
@@ -5870,8 +5889,8 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
-        <v>91</v>
+      <c r="A25" s="39" t="s">
+        <v>89</v>
       </c>
       <c r="B25" s="21">
         <f>B19*10^6/B22</f>
@@ -5879,8 +5898,8 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
-        <v>92</v>
+      <c r="A26" s="39" t="s">
+        <v>90</v>
       </c>
       <c r="B26" s="21">
         <f>B20*10^6/B23</f>
@@ -5888,8 +5907,8 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
-        <v>93</v>
+      <c r="A27" s="39" t="s">
+        <v>91</v>
       </c>
       <c r="B27" s="21">
         <f>(B16*B14+B24*B18+B25*B19+B26*B20)/SUM(B14,B18:B20)</f>
@@ -5903,7 +5922,7 @@
       <c r="B29" s="21"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="55"/>
+      <c r="B31" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5919,29 +5938,128 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="20">
+        <v>2016</v>
+      </c>
+      <c r="C1" s="20">
+        <v>2017</v>
+      </c>
+      <c r="D1" s="20">
+        <v>2018</v>
+      </c>
+      <c r="E1" s="20">
+        <v>2019</v>
+      </c>
+      <c r="F1" s="20">
+        <v>2020</v>
+      </c>
+      <c r="G1" s="20">
+        <v>2021</v>
+      </c>
+      <c r="H1" s="20">
+        <v>2022</v>
+      </c>
+      <c r="I1" s="20">
+        <v>2023</v>
+      </c>
+      <c r="J1" s="20">
+        <v>2024</v>
+      </c>
+      <c r="K1" s="20">
+        <v>2025</v>
+      </c>
+      <c r="L1" s="20">
+        <v>2026</v>
+      </c>
+      <c r="M1" s="20">
+        <v>2027</v>
+      </c>
+      <c r="N1" s="20">
+        <v>2028</v>
+      </c>
+      <c r="O1" s="20">
+        <v>2029</v>
+      </c>
+      <c r="P1" s="20">
+        <v>2030</v>
+      </c>
+      <c r="Q1" s="20">
+        <v>2031</v>
+      </c>
+      <c r="R1" s="20">
+        <v>2032</v>
+      </c>
+      <c r="S1" s="20">
+        <v>2033</v>
+      </c>
+      <c r="T1" s="20">
+        <v>2034</v>
+      </c>
+      <c r="U1" s="20">
+        <v>2035</v>
+      </c>
+      <c r="V1" s="20">
+        <v>2036</v>
+      </c>
+      <c r="W1" s="20">
+        <v>2037</v>
+      </c>
+      <c r="X1" s="20">
+        <v>2038</v>
+      </c>
+      <c r="Y1" s="20">
+        <v>2039</v>
+      </c>
+      <c r="Z1" s="20">
+        <v>2040</v>
+      </c>
+      <c r="AA1" s="20">
+        <v>2041</v>
+      </c>
+      <c r="AB1" s="20">
+        <v>2042</v>
+      </c>
+      <c r="AC1" s="20">
+        <v>2043</v>
+      </c>
+      <c r="AD1" s="20">
+        <v>2044</v>
+      </c>
+      <c r="AE1" s="20">
+        <v>2045</v>
+      </c>
+      <c r="AF1" s="20">
+        <v>2046</v>
+      </c>
+      <c r="AG1" s="20">
+        <v>2047</v>
+      </c>
+      <c r="AH1" s="20">
+        <v>2048</v>
+      </c>
+      <c r="AI1" s="20">
+        <v>2049</v>
+      </c>
+      <c r="AJ1" s="20">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -5949,11 +6067,144 @@
         <f>AVERAGE('Table 4.1'!E53:E55)</f>
         <v>12753.666666666666</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="21">
+        <f>$B2</f>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="D2" s="21">
+        <f t="shared" ref="D2:AJ7" si="0">$B2</f>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="E2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="F2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="G2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="H2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="I2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="J2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="K2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="L2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="M2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="N2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="O2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="P2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="Q2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="R2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="S2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="T2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="U2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="V2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="W2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="X2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="Y2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="Z2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="AA2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="AB2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="AC2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="AD2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="AE2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="AF2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="AG2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="AH2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="AI2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+      <c r="AJ2" s="21">
+        <f t="shared" si="0"/>
+        <v>12753.666666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -5962,11 +6213,143 @@
         <v>18347</v>
       </c>
       <c r="C3" s="21">
-        <f>(('Table 5.1'!E58*'Table 5.1'!C58)+('Table 5.2'!E56*'Table 5.2'!C56))/('Table 5.2'!C56+'Table 5.1'!C58)</f>
-        <v>25593.071336878784</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:R7" si="1">$B3</f>
+        <v>18347</v>
+      </c>
+      <c r="D3" s="21">
+        <f t="shared" si="1"/>
+        <v>18347</v>
+      </c>
+      <c r="E3" s="21">
+        <f t="shared" si="1"/>
+        <v>18347</v>
+      </c>
+      <c r="F3" s="21">
+        <f t="shared" si="1"/>
+        <v>18347</v>
+      </c>
+      <c r="G3" s="21">
+        <f t="shared" si="1"/>
+        <v>18347</v>
+      </c>
+      <c r="H3" s="21">
+        <f t="shared" si="1"/>
+        <v>18347</v>
+      </c>
+      <c r="I3" s="21">
+        <f t="shared" si="1"/>
+        <v>18347</v>
+      </c>
+      <c r="J3" s="21">
+        <f t="shared" si="1"/>
+        <v>18347</v>
+      </c>
+      <c r="K3" s="21">
+        <f t="shared" si="1"/>
+        <v>18347</v>
+      </c>
+      <c r="L3" s="21">
+        <f t="shared" si="1"/>
+        <v>18347</v>
+      </c>
+      <c r="M3" s="21">
+        <f t="shared" si="1"/>
+        <v>18347</v>
+      </c>
+      <c r="N3" s="21">
+        <f t="shared" si="1"/>
+        <v>18347</v>
+      </c>
+      <c r="O3" s="21">
+        <f t="shared" si="1"/>
+        <v>18347</v>
+      </c>
+      <c r="P3" s="21">
+        <f t="shared" si="1"/>
+        <v>18347</v>
+      </c>
+      <c r="Q3" s="21">
+        <f t="shared" si="1"/>
+        <v>18347</v>
+      </c>
+      <c r="R3" s="21">
+        <f t="shared" si="1"/>
+        <v>18347</v>
+      </c>
+      <c r="S3" s="21">
+        <f t="shared" si="0"/>
+        <v>18347</v>
+      </c>
+      <c r="T3" s="21">
+        <f t="shared" si="0"/>
+        <v>18347</v>
+      </c>
+      <c r="U3" s="21">
+        <f t="shared" si="0"/>
+        <v>18347</v>
+      </c>
+      <c r="V3" s="21">
+        <f t="shared" si="0"/>
+        <v>18347</v>
+      </c>
+      <c r="W3" s="21">
+        <f t="shared" si="0"/>
+        <v>18347</v>
+      </c>
+      <c r="X3" s="21">
+        <f t="shared" si="0"/>
+        <v>18347</v>
+      </c>
+      <c r="Y3" s="21">
+        <f t="shared" si="0"/>
+        <v>18347</v>
+      </c>
+      <c r="Z3" s="21">
+        <f t="shared" si="0"/>
+        <v>18347</v>
+      </c>
+      <c r="AA3" s="21">
+        <f t="shared" si="0"/>
+        <v>18347</v>
+      </c>
+      <c r="AB3" s="21">
+        <f t="shared" si="0"/>
+        <v>18347</v>
+      </c>
+      <c r="AC3" s="21">
+        <f t="shared" si="0"/>
+        <v>18347</v>
+      </c>
+      <c r="AD3" s="21">
+        <f t="shared" si="0"/>
+        <v>18347</v>
+      </c>
+      <c r="AE3" s="21">
+        <f t="shared" si="0"/>
+        <v>18347</v>
+      </c>
+      <c r="AF3" s="21">
+        <f t="shared" si="0"/>
+        <v>18347</v>
+      </c>
+      <c r="AG3" s="21">
+        <f t="shared" si="0"/>
+        <v>18347</v>
+      </c>
+      <c r="AH3" s="21">
+        <f t="shared" si="0"/>
+        <v>18347</v>
+      </c>
+      <c r="AI3" s="21">
+        <f t="shared" si="0"/>
+        <v>18347</v>
+      </c>
+      <c r="AJ3" s="21">
+        <f t="shared" si="0"/>
+        <v>18347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -5975,11 +6358,143 @@
         <v>1216096.1823024563</v>
       </c>
       <c r="C4" s="21">
-        <f>'BTS NTS Modal Profile Data'!B4</f>
+        <f t="shared" si="1"/>
         <v>1216096.1823024563</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="E4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="F4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="G4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="H4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="I4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="J4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="K4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="L4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="M4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="N4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="O4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="P4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="Q4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="R4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="S4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="T4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="U4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="V4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="W4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="X4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="Y4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="Z4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="AA4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="AB4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="AC4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="AD4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="AE4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="AF4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="AG4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="AH4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="AI4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="AJ4" s="21">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -5987,23 +6502,288 @@
         <f>'BTS NTS Modal Profile Data'!B27</f>
         <v>58295.790760419295</v>
       </c>
-      <c r="C5">
-        <f>'BTS NTS Modal Profile Data'!B10</f>
-        <v>64944</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="21">
+        <f t="shared" si="1"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="D5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="G5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="H5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="I5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="J5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="K5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="L5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="M5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="N5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="O5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="P5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="Q5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="R5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="S5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="T5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="U5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="V5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="W5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="X5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="Y5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="Z5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="AA5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="AB5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="AC5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="AD5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="AE5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="AF5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="AG5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="AH5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="AI5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+      <c r="AJ5" s="21">
+        <f t="shared" si="0"/>
+        <v>58295.790760419295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -6011,8 +6791,141 @@
         <f>AVERAGE('NHTSA Motorbikes'!B2:C2)*10^6/AVERAGE('NHTSA Motorbikes'!B3:C3)</f>
         <v>2476.389452529967</v>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="C7" s="21">
+        <f t="shared" si="1"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="D7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="E7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="F7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="G7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="H7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="I7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="J7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="K7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="L7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="M7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="N7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="O7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="P7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="Q7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="R7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="S7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="T7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="U7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="V7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="W7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="X7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="Y7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="Z7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="AA7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="AB7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="AC7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="AD7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="AE7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="AF7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="AG7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="AH7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="AI7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
+      </c>
+      <c r="AJ7" s="21">
+        <f t="shared" si="0"/>
+        <v>2476.389452529967</v>
       </c>
     </row>
   </sheetData>
@@ -6022,4 +6935,1002 @@
     <ignoredError sqref="B2" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AJ7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="20">
+        <v>2016</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1" s="20">
+        <v>2018</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F1" s="20">
+        <v>2020</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="H1" s="20">
+        <v>2022</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J1" s="20">
+        <v>2024</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="L1" s="20">
+        <v>2026</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="N1" s="20">
+        <v>2028</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="P1" s="20">
+        <v>2030</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="R1" s="20">
+        <v>2032</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="T1" s="20">
+        <v>2034</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="V1" s="20">
+        <v>2036</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="X1" s="20">
+        <v>2038</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="Z1" s="20">
+        <v>2040</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AB1" s="20">
+        <v>2042</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AD1" s="20">
+        <v>2044</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AF1" s="20">
+        <v>2046</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AH1" s="20">
+        <v>2048</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AJ1" s="20">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>$B2</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:AJ7" si="0">$B2</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="21">
+        <f>(('Table 5.1'!E58*'Table 5.1'!C58)+('Table 5.2'!E56*'Table 5.2'!C56))/('Table 5.2'!C56+'Table 5.1'!C58)</f>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="C3" s="21">
+        <f t="shared" ref="C3:R7" si="1">$B3</f>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="D3" s="21">
+        <f t="shared" si="1"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="E3" s="21">
+        <f t="shared" si="1"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="F3" s="21">
+        <f t="shared" si="1"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="G3" s="21">
+        <f t="shared" si="1"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="H3" s="21">
+        <f t="shared" si="1"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="I3" s="21">
+        <f t="shared" si="1"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="J3" s="21">
+        <f t="shared" si="1"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="K3" s="21">
+        <f t="shared" si="1"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="L3" s="21">
+        <f t="shared" si="1"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="M3" s="21">
+        <f t="shared" si="1"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="N3" s="21">
+        <f t="shared" si="1"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="O3" s="21">
+        <f t="shared" si="1"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="P3" s="21">
+        <f t="shared" si="1"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="Q3" s="21">
+        <f t="shared" si="1"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="R3" s="21">
+        <f t="shared" si="1"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="S3" s="21">
+        <f t="shared" si="0"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="T3" s="21">
+        <f t="shared" si="0"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="U3" s="21">
+        <f t="shared" si="0"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="V3" s="21">
+        <f t="shared" si="0"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="W3" s="21">
+        <f t="shared" si="0"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="X3" s="21">
+        <f t="shared" si="0"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="Y3" s="21">
+        <f t="shared" si="0"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="Z3" s="21">
+        <f t="shared" si="0"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="AA3" s="21">
+        <f t="shared" si="0"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="AB3" s="21">
+        <f t="shared" si="0"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="AC3" s="21">
+        <f t="shared" si="0"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="AD3" s="21">
+        <f t="shared" si="0"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="AE3" s="21">
+        <f t="shared" si="0"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="AF3" s="21">
+        <f t="shared" si="0"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="AG3" s="21">
+        <f t="shared" si="0"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="AH3" s="21">
+        <f t="shared" si="0"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="AI3" s="21">
+        <f t="shared" si="0"/>
+        <v>25593.071336878784</v>
+      </c>
+      <c r="AJ3" s="21">
+        <f t="shared" si="0"/>
+        <v>25593.071336878784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="21">
+        <f>'BTS NTS Modal Profile Data'!B4</f>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="0"/>
+        <v>1216096.1823024563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <f>'BTS NTS Modal Profile Data'!B10</f>
+        <v>64944</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>64944</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="0"/>
+        <v>64944</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>